--- a/INCY.xlsx
+++ b/INCY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387BC21B-4D81-4993-9D0B-9794AFCCAE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA3303F-43E7-4F8B-93E7-21022A37BFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43635" yWindow="885" windowWidth="28335" windowHeight="19575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51645" yWindow="0" windowWidth="25365" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -101,6 +101,7 @@
     <author>tc={D53B09E1-7A11-47C4-8D54-4288AE7355A4}</author>
     <author>tc={FCFEDBA0-6902-4A7F-92C9-3140B839E47B}</author>
     <author>tc={79E616ED-05E5-4BD1-9850-F7A3D4BC4AC2}</author>
+    <author>tc={9501135F-C97E-459E-9860-B0129BB24B00}</author>
   </authors>
   <commentList>
     <comment ref="AY4" authorId="0" shapeId="0" xr:uid="{49F84EA7-60E9-4A07-9687-5F73B3753E1C}">
@@ -224,7 +225,15 @@
     130m gaap</t>
       </text>
     </comment>
-    <comment ref="BP28" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="BB10" authorId="10" shapeId="0" xr:uid="{9501135F-C97E-459E-9860-B0129BB24B00}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    50m gaap</t>
+      </text>
+    </comment>
+    <comment ref="BP29" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="I58" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="629">
   <si>
     <t>Name</t>
   </si>
@@ -2264,6 +2273,12 @@
   <si>
     <t>Terminal</t>
   </si>
+  <si>
+    <t>Pemaryze royalty</t>
+  </si>
+  <si>
+    <t>Zynyz (retifanlimab)</t>
+  </si>
 </sst>
 </file>
 
@@ -2273,7 +2288,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2343,12 +2358,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2517,7 +2526,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2663,6 +2672,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2694,7 +2707,7 @@
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2736,16 +2749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>32188</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>26276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>32188</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>83426</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2760,8 +2773,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36483378" y="0"/>
-          <a:ext cx="0" cy="15001547"/>
+          <a:off x="37784033" y="26276"/>
+          <a:ext cx="0" cy="15329995"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2794,7 +2807,7 @@
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>45983</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>151086</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3414,6 +3427,9 @@
   <threadedComment ref="AZ10" dT="2022-11-29T13:36:32.17" personId="{8E7A3AB8-B5D6-4EB1-9BCD-7FD22788B360}" id="{79E616ED-05E5-4BD1-9850-F7A3D4BC4AC2}">
     <text>130m gaap</text>
   </threadedComment>
+  <threadedComment ref="BB10" dT="2023-05-30T15:04:17.22" personId="{8E7A3AB8-B5D6-4EB1-9BCD-7FD22788B360}" id="{9501135F-C97E-459E-9860-B0129BB24B00}">
+    <text>50m gaap</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3421,7 +3437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L64"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3466,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="11">
-        <v>77.83</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -3495,10 +3513,10 @@
         <v>16</v>
       </c>
       <c r="K3" s="19">
-        <v>222.47546800000001</v>
+        <v>226</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>410</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -3526,7 +3544,7 @@
       </c>
       <c r="K4" s="19">
         <f>K2*K3</f>
-        <v>17315.265674440001</v>
+        <v>13989.4</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -3613,7 +3631,7 @@
       </c>
       <c r="K7" s="19">
         <f>K4-K5+K6</f>
-        <v>14189.019674440002</v>
+        <v>10863.154</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -3637,83 +3655,83 @@
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="60">
-        <v>44760</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>467</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="68" t="s">
-        <v>460</v>
+      <c r="B9" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>541</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>538</v>
+      </c>
+      <c r="E9" s="81">
+        <v>45007</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>539</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="67" t="s">
+        <v>489</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="57"/>
+      <c r="B10" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="60">
+        <v>44760</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>467</v>
+      </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="18"/>
+      <c r="H10" s="68" t="s">
+        <v>460</v>
+      </c>
       <c r="J10" s="54" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>500</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>502</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>540</v>
-      </c>
-      <c r="F11" s="58">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="67" t="s">
-        <v>59</v>
-      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="18"/>
       <c r="J11" s="54" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="12" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>61</v>
+        <v>500</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>495</v>
-      </c>
-      <c r="F12" s="29">
+        <v>540</v>
+      </c>
+      <c r="F12" s="58">
         <v>1</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="67" t="s">
         <v>59</v>
       </c>
@@ -3723,23 +3741,23 @@
     </row>
     <row r="13" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>541</v>
+        <v>61</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>540</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>539</v>
+        <v>495</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="67" t="s">
-        <v>489</v>
+        <v>59</v>
       </c>
       <c r="J13" s="54" t="s">
         <v>514</v>
@@ -4358,15 +4376,15 @@
     <hyperlink ref="B3" location="Jakafi!A1" display="Jakafi (ruxolitinib)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" location="Tabrecta!A1" display="Tabrecta" xr:uid="{D49F6785-6758-4A3B-A89F-724C5F0628B2}"/>
     <hyperlink ref="B5" location="Olumiant!A1" display="Olumiant (baricitinib)" xr:uid="{0771C424-AA2E-4651-AD7F-741F291BFB40}"/>
-    <hyperlink ref="B9" location="Opzelura!A1" display="Opzelura (ruxolitinib)" xr:uid="{7E87467E-5A2B-4043-9360-4266BB5EC17A}"/>
+    <hyperlink ref="B10" location="Opzelura!A1" display="Opzelura (ruxolitinib)" xr:uid="{7E87467E-5A2B-4043-9360-4266BB5EC17A}"/>
     <hyperlink ref="B4" location="Minjuvi!A1" display="Monjuvi/Minjuvi (tafasitamab)" xr:uid="{77308B54-8E55-4CFC-839E-D2C5589A0B81}"/>
-    <hyperlink ref="B11" location="parsaclisib!A1" display="parsaclisib" xr:uid="{AFFBB66C-24DC-4974-974F-9738294C9027}"/>
+    <hyperlink ref="B12" location="parsaclisib!A1" display="parsaclisib" xr:uid="{AFFBB66C-24DC-4974-974F-9738294C9027}"/>
     <hyperlink ref="B8" location="Pemazyre!A1" display="Pemaryze (pemigatinib)" xr:uid="{EF255AF1-494F-4B92-BC86-7D775BE1A0E7}"/>
-    <hyperlink ref="B12" location="INCB57643!A1" display="INCB57643" xr:uid="{E394B167-F85C-4585-9BD6-C7C32B7EE36A}"/>
+    <hyperlink ref="B13" location="INCB57643!A1" display="INCB57643" xr:uid="{E394B167-F85C-4585-9BD6-C7C32B7EE36A}"/>
     <hyperlink ref="B14" location="INCB00928!A1" display="INCB00928" xr:uid="{ED8AB20F-4DBB-498F-94D4-0E4B9565680F}"/>
     <hyperlink ref="B32" location="'CK0804'!A1" display="CK0804" xr:uid="{56AAEF0B-2999-4091-AC6C-C59BBD1356C3}"/>
     <hyperlink ref="B17" location="axatilimab!A1" display="axatilimab" xr:uid="{21207E7F-1C6B-4A9F-ABE5-FF1E4F9523EA}"/>
-    <hyperlink ref="B13" location="retifanlimab!A1" display="retifanlimab" xr:uid="{F283F35F-A246-42E0-B3D7-DC33C613D6AD}"/>
+    <hyperlink ref="B9" location="retifanlimab!A1" display="retifanlimab" xr:uid="{F283F35F-A246-42E0-B3D7-DC33C613D6AD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -5224,13 +5242,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DY109"/>
+  <dimension ref="A1:DY110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BW6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AW14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CA35" sqref="CA35"/>
+      <selection pane="bottomRight" activeCell="BD27" sqref="BD27:BF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5636,13 +5654,23 @@
         <v>38.14</v>
       </c>
       <c r="BB4" s="46">
-        <f>+BA4+20</f>
-        <v>58.14</v>
-      </c>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
+        <v>61.280999999999999</v>
+      </c>
+      <c r="BC4" s="46">
+        <v>56.552</v>
+      </c>
+      <c r="BD4" s="46">
+        <f>+BC4+5</f>
+        <v>61.552</v>
+      </c>
+      <c r="BE4" s="46">
+        <f>+BD4+5</f>
+        <v>66.551999999999992</v>
+      </c>
+      <c r="BF4" s="46">
+        <f>+BE4+5</f>
+        <v>71.551999999999992</v>
+      </c>
       <c r="BG4" s="46"/>
       <c r="BI4" s="46"/>
       <c r="BJ4" s="46"/>
@@ -5661,35 +5689,35 @@
       <c r="BV4" s="42"/>
       <c r="BW4" s="46">
         <f>SUM(AY4:BB4)</f>
-        <v>125.59400000000001</v>
+        <v>128.73500000000001</v>
       </c>
       <c r="BX4" s="46">
         <f>+BW4*2</f>
-        <v>251.18800000000002</v>
+        <v>257.47000000000003</v>
       </c>
       <c r="BY4" s="46">
         <f>+BX4*1.2</f>
-        <v>301.42560000000003</v>
+        <v>308.964</v>
       </c>
       <c r="BZ4" s="46">
-        <f t="shared" ref="BZ4:CD4" si="1">+BY4*1.2</f>
-        <v>361.71072000000004</v>
+        <f t="shared" ref="BZ4:CC4" si="1">+BY4*1.2</f>
+        <v>370.7568</v>
       </c>
       <c r="CA4" s="46">
         <f t="shared" si="1"/>
-        <v>434.05286400000006</v>
+        <v>444.90816000000001</v>
       </c>
       <c r="CB4" s="46">
         <f t="shared" si="1"/>
-        <v>520.86343680000004</v>
+        <v>533.88979199999994</v>
       </c>
       <c r="CC4" s="46">
         <f t="shared" si="1"/>
-        <v>625.03612415999999</v>
+        <v>640.66775039999993</v>
       </c>
       <c r="CD4" s="46">
         <f>+CC4*0.2</f>
-        <v>125.00722483200001</v>
+        <v>128.13355007999999</v>
       </c>
     </row>
     <row r="5" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5760,12 +5788,23 @@
         <v>5.9320000000000004</v>
       </c>
       <c r="BB5" s="46">
-        <v>7</v>
-      </c>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
+        <v>4.8090000000000002</v>
+      </c>
+      <c r="BC5" s="46">
+        <v>6.556</v>
+      </c>
+      <c r="BD5" s="46">
+        <f>+AZ5*1.2</f>
+        <v>5.2931999999999997</v>
+      </c>
+      <c r="BE5" s="46">
+        <f t="shared" ref="BE5:BF5" si="2">+BA5*1.2</f>
+        <v>7.1184000000000003</v>
+      </c>
+      <c r="BF5" s="46">
+        <f t="shared" si="2"/>
+        <v>5.7708000000000004</v>
+      </c>
       <c r="BG5" s="46"/>
       <c r="BI5" s="46"/>
       <c r="BJ5" s="46"/>
@@ -5784,36 +5823,36 @@
       <c r="BU5" s="47"/>
       <c r="BV5" s="47"/>
       <c r="BW5" s="46">
-        <f t="shared" ref="BW5:BW7" si="2">SUM(AY5:BB5)</f>
-        <v>21.844999999999999</v>
+        <f t="shared" ref="BW5:BW7" si="3">SUM(AY5:BB5)</f>
+        <v>19.654</v>
       </c>
       <c r="BX5" s="47">
         <f>+BW5*2</f>
-        <v>43.69</v>
+        <v>39.308</v>
       </c>
       <c r="BY5" s="47">
         <f>+BX5*2</f>
-        <v>87.38</v>
+        <v>78.616</v>
       </c>
       <c r="BZ5" s="47">
-        <f t="shared" ref="BY5:CD5" si="3">+BY5*1.15</f>
-        <v>100.48699999999998</v>
+        <f t="shared" ref="BZ5:CD5" si="4">+BY5*1.15</f>
+        <v>90.408399999999986</v>
       </c>
       <c r="CA5" s="47">
-        <f t="shared" si="3"/>
-        <v>115.56004999999998</v>
+        <f t="shared" si="4"/>
+        <v>103.96965999999998</v>
       </c>
       <c r="CB5" s="47">
-        <f t="shared" si="3"/>
-        <v>132.89405749999997</v>
+        <f t="shared" si="4"/>
+        <v>119.56510899999996</v>
       </c>
       <c r="CC5" s="47">
-        <f t="shared" si="3"/>
-        <v>152.82816612499997</v>
+        <f t="shared" si="4"/>
+        <v>137.49987534999994</v>
       </c>
       <c r="CD5" s="47">
-        <f t="shared" si="3"/>
-        <v>175.75239104374995</v>
+        <f t="shared" si="4"/>
+        <v>158.12485665249991</v>
       </c>
     </row>
     <row r="6" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5845,43 +5884,57 @@
         <v>23.414000000000001</v>
       </c>
       <c r="BB6" s="9">
-        <f>+BA6</f>
-        <v>23.414000000000001</v>
+        <v>23.015999999999998</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>22.475000000000001</v>
+      </c>
+      <c r="BD6" s="9">
+        <f>+AZ6*1.01</f>
+        <v>19.172830000000001</v>
+      </c>
+      <c r="BE6" s="9">
+        <f t="shared" ref="BE6:BF6" si="5">+BA6*1.01</f>
+        <v>23.648140000000001</v>
+      </c>
+      <c r="BF6" s="9">
+        <f t="shared" si="5"/>
+        <v>23.24616</v>
       </c>
       <c r="BM6" s="9">
         <v>84000</v>
       </c>
       <c r="BW6" s="46">
-        <f t="shared" si="2"/>
-        <v>83.843000000000004</v>
+        <f t="shared" si="3"/>
+        <v>83.444999999999993</v>
       </c>
       <c r="BX6" s="46">
         <f>+BW6*1.1</f>
-        <v>92.227300000000014</v>
+        <v>91.789500000000004</v>
       </c>
       <c r="BY6" s="46">
         <f>+BX6*1.1</f>
-        <v>101.45003000000003</v>
+        <v>100.96845000000002</v>
       </c>
       <c r="BZ6" s="46">
         <f>+BY6*1.1</f>
-        <v>111.59503300000004</v>
+        <v>111.06529500000003</v>
       </c>
       <c r="CA6" s="46">
-        <f t="shared" ref="BX6:CD6" si="4">+BZ6*0.99</f>
-        <v>110.47908267000004</v>
+        <f t="shared" ref="CA6:CD6" si="6">+BZ6*0.99</f>
+        <v>109.95464205000003</v>
       </c>
       <c r="CB6" s="46">
-        <f t="shared" si="4"/>
-        <v>109.37429184330004</v>
+        <f t="shared" si="6"/>
+        <v>108.85509562950003</v>
       </c>
       <c r="CC6" s="46">
-        <f t="shared" si="4"/>
-        <v>108.28054892486705</v>
+        <f t="shared" si="6"/>
+        <v>107.76654467320503</v>
       </c>
       <c r="CD6" s="46">
-        <f t="shared" si="4"/>
-        <v>107.19774343561838</v>
+        <f t="shared" si="6"/>
+        <v>106.68887922647298</v>
       </c>
     </row>
     <row r="7" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5913,8 +5966,22 @@
         <v>25.928999999999998</v>
       </c>
       <c r="BB7" s="9">
-        <f>+BA7</f>
+        <v>27.616</v>
+      </c>
+      <c r="BC7" s="9">
+        <v>27.684999999999999</v>
+      </c>
+      <c r="BD7" s="9">
+        <f>+AZ7</f>
+        <v>26.224</v>
+      </c>
+      <c r="BE7" s="9">
+        <f t="shared" ref="BE7:BF7" si="7">+BA7</f>
         <v>25.928999999999998</v>
+      </c>
+      <c r="BF7" s="9">
+        <f t="shared" si="7"/>
+        <v>27.616</v>
       </c>
       <c r="BI7" s="46"/>
       <c r="BJ7" s="46"/>
@@ -5933,36 +6000,36 @@
       <c r="BU7" s="46"/>
       <c r="BV7" s="46"/>
       <c r="BW7" s="46">
-        <f t="shared" si="2"/>
-        <v>104.151</v>
+        <f t="shared" si="3"/>
+        <v>105.83799999999999</v>
       </c>
       <c r="BX7" s="46">
         <f>+BW7*0.99</f>
-        <v>103.10948999999999</v>
+        <v>104.77961999999999</v>
       </c>
       <c r="BY7" s="46">
-        <f t="shared" ref="BY7:CD7" si="5">+BX7*0.99</f>
-        <v>102.07839509999999</v>
+        <f t="shared" ref="BY7:CD7" si="8">+BX7*0.99</f>
+        <v>103.73182379999999</v>
       </c>
       <c r="BZ7" s="46">
-        <f t="shared" si="5"/>
-        <v>101.057611149</v>
+        <f t="shared" si="8"/>
+        <v>102.69450556199999</v>
       </c>
       <c r="CA7" s="46">
-        <f t="shared" si="5"/>
-        <v>100.04703503751</v>
+        <f t="shared" si="8"/>
+        <v>101.66756050637998</v>
       </c>
       <c r="CB7" s="46">
-        <f t="shared" si="5"/>
-        <v>99.046564687134904</v>
+        <f t="shared" si="8"/>
+        <v>100.65088490131619</v>
       </c>
       <c r="CC7" s="46">
-        <f t="shared" si="5"/>
-        <v>98.056099040263547</v>
+        <f t="shared" si="8"/>
+        <v>99.644376052303031</v>
       </c>
       <c r="CD7" s="46">
-        <f t="shared" si="5"/>
-        <v>97.07553804986091</v>
+        <f t="shared" si="8"/>
+        <v>98.647932291779995</v>
       </c>
     </row>
     <row r="8" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5994,8 +6061,22 @@
         <v>619.59500000000003</v>
       </c>
       <c r="BB8" s="9">
-        <f>2390-BA8-AZ8-AY8</f>
-        <v>628.26799999999992</v>
+        <v>647.49300000000005</v>
+      </c>
+      <c r="BC8" s="9">
+        <v>579.96900000000005</v>
+      </c>
+      <c r="BD8" s="9">
+        <f>+AZ8*1.05</f>
+        <v>627.55664999999999</v>
+      </c>
+      <c r="BE8" s="9">
+        <f>+BA8*1.05</f>
+        <v>650.57475000000011</v>
+      </c>
+      <c r="BF8" s="9">
+        <f>+BB8*1.05</f>
+        <v>679.86765000000014</v>
       </c>
       <c r="BI8" s="46"/>
       <c r="BJ8" s="46"/>
@@ -6012,35 +6093,35 @@
       <c r="BV8" s="46"/>
       <c r="BW8" s="46">
         <f>SUM(AY8:BB8)</f>
-        <v>2390</v>
+        <v>2409.2250000000004</v>
       </c>
       <c r="BX8" s="46">
         <f>+BW8*1.1</f>
-        <v>2629</v>
+        <v>2650.1475000000005</v>
       </c>
       <c r="BY8" s="46">
-        <f t="shared" ref="BY8:CB8" si="6">+BX8*1.1</f>
-        <v>2891.9</v>
+        <f t="shared" ref="BY8:CB8" si="9">+BX8*1.1</f>
+        <v>2915.1622500000008</v>
       </c>
       <c r="BZ8" s="46">
-        <f t="shared" si="6"/>
-        <v>3181.09</v>
+        <f t="shared" si="9"/>
+        <v>3206.6784750000011</v>
       </c>
       <c r="CA8" s="46">
-        <f t="shared" si="6"/>
-        <v>3499.1990000000005</v>
+        <f t="shared" si="9"/>
+        <v>3527.3463225000014</v>
       </c>
       <c r="CB8" s="46">
-        <f t="shared" si="6"/>
-        <v>3849.1189000000008</v>
+        <f t="shared" si="9"/>
+        <v>3880.0809547500016</v>
       </c>
       <c r="CC8" s="46">
         <f>+CB8*0.2</f>
-        <v>769.82378000000017</v>
+        <v>776.01619095000035</v>
       </c>
       <c r="CD8" s="46">
-        <f t="shared" ref="CC8:CF8" si="7">+CC8*0.2</f>
-        <v>153.96475600000005</v>
+        <f t="shared" ref="CD8" si="10">+CC8*0.2</f>
+        <v>155.20323819000009</v>
       </c>
       <c r="CE8" s="46"/>
       <c r="CF8" s="46"/>
@@ -6099,93 +6180,105 @@
       <c r="AR9" s="28"/>
       <c r="AS9" s="28"/>
       <c r="AT9" s="28">
-        <f t="shared" ref="AT9" si="8">SUM(AT4:AT8)</f>
+        <f t="shared" ref="AT9" si="11">SUM(AT4:AT8)</f>
         <v>559.46699999999998</v>
       </c>
       <c r="AU9" s="28">
-        <f t="shared" ref="AU9" si="9">SUM(AU4:AU8)</f>
+        <f t="shared" ref="AU9" si="12">SUM(AU4:AU8)</f>
         <v>504.81099999999998</v>
       </c>
       <c r="AV9" s="28">
-        <f t="shared" ref="AV9" si="10">SUM(AV4:AV8)</f>
+        <f t="shared" ref="AV9" si="13">SUM(AV4:AV8)</f>
         <v>575.15</v>
       </c>
       <c r="AW9" s="28">
-        <f t="shared" ref="AW9" si="11">SUM(AW4:AW8)</f>
+        <f t="shared" ref="AW9" si="14">SUM(AW4:AW8)</f>
         <v>594.01300000000003</v>
       </c>
       <c r="AX9" s="28">
-        <f t="shared" ref="AX9" si="12">SUM(AX4:AX8)</f>
+        <f t="shared" ref="AX9" si="15">SUM(AX4:AX8)</f>
         <v>648.03800000000001</v>
       </c>
       <c r="AY9" s="28">
-        <f t="shared" ref="AY9" si="13">SUM(AY4:AY8)</f>
+        <f t="shared" ref="AY9" si="16">SUM(AY4:AY8)</f>
         <v>605.82100000000003</v>
       </c>
       <c r="AZ9" s="28">
-        <f t="shared" ref="AZ9" si="14">SUM(AZ4:AZ8)</f>
+        <f t="shared" ref="AZ9" si="17">SUM(AZ4:AZ8)</f>
         <v>663.851</v>
       </c>
       <c r="BA9" s="28">
-        <f t="shared" ref="BA9" si="15">SUM(BA4:BA8)</f>
+        <f t="shared" ref="BA9" si="18">SUM(BA4:BA8)</f>
         <v>713.01</v>
       </c>
       <c r="BB9" s="28">
-        <f t="shared" ref="BB9" si="16">SUM(BB4:BB8)</f>
-        <v>742.75099999999998</v>
-      </c>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28"/>
+        <f t="shared" ref="BB9:BF9" si="19">SUM(BB4:BB8)</f>
+        <v>764.21500000000003</v>
+      </c>
+      <c r="BC9" s="28">
+        <f t="shared" si="19"/>
+        <v>693.23700000000008</v>
+      </c>
+      <c r="BD9" s="28">
+        <f t="shared" si="19"/>
+        <v>739.79867999999999</v>
+      </c>
+      <c r="BE9" s="28">
+        <f t="shared" si="19"/>
+        <v>773.82229000000007</v>
+      </c>
+      <c r="BF9" s="28">
+        <f t="shared" si="19"/>
+        <v>808.05261000000019</v>
+      </c>
       <c r="BG9" s="28"/>
       <c r="BH9" s="28"/>
       <c r="BM9" s="9">
         <v>120000</v>
       </c>
       <c r="BN9" s="9">
-        <f t="shared" ref="BN9" si="17">SUM(BN4:BN8)</f>
+        <f t="shared" ref="BN9" si="20">SUM(BN4:BN8)</f>
         <v>0</v>
       </c>
       <c r="BO9" s="9">
-        <f t="shared" ref="BO9:BV9" si="18">SUM(BO4:BO8)</f>
+        <f t="shared" ref="BO9:BP9" si="21">SUM(BO4:BO8)</f>
         <v>0</v>
       </c>
       <c r="BP9" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="BW9" s="9">
         <f>SUM(BW4:BW8)</f>
-        <v>2725.433</v>
+        <v>2746.8970000000004</v>
       </c>
       <c r="BX9" s="9">
-        <f t="shared" ref="BX9:CD9" si="19">SUM(BX4:BX8)</f>
-        <v>3119.21479</v>
+        <f t="shared" ref="BX9:CD9" si="22">SUM(BX4:BX8)</f>
+        <v>3143.4946200000004</v>
       </c>
       <c r="BY9" s="9">
-        <f t="shared" si="19"/>
-        <v>3484.2340251000001</v>
+        <f t="shared" si="22"/>
+        <v>3507.4425238000008</v>
       </c>
       <c r="BZ9" s="9">
-        <f t="shared" si="19"/>
-        <v>3855.9403641490003</v>
+        <f t="shared" si="22"/>
+        <v>3881.6034755620012</v>
       </c>
       <c r="CA9" s="9">
-        <f t="shared" si="19"/>
-        <v>4259.3380317075107</v>
+        <f t="shared" si="22"/>
+        <v>4287.8463450563813</v>
       </c>
       <c r="CB9" s="9">
-        <f t="shared" si="19"/>
-        <v>4711.2972508304356</v>
+        <f t="shared" si="22"/>
+        <v>4743.0418362808177</v>
       </c>
       <c r="CC9" s="9">
-        <f t="shared" si="19"/>
-        <v>1754.0247182501307</v>
+        <f t="shared" si="22"/>
+        <v>1761.5947374255084</v>
       </c>
       <c r="CD9" s="9">
-        <f t="shared" si="19"/>
-        <v>658.99765336122937</v>
+        <f t="shared" si="22"/>
+        <v>646.79845644075294</v>
       </c>
     </row>
     <row r="10" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6280,7 +6373,9 @@
       <c r="BA10" s="28">
         <v>0</v>
       </c>
-      <c r="BB10" s="28"/>
+      <c r="BB10" s="28">
+        <v>0</v>
+      </c>
       <c r="BC10" s="28"/>
       <c r="BD10" s="28"/>
       <c r="BE10" s="28"/>
@@ -6304,7 +6399,7 @@
         <v>94706.44</v>
       </c>
       <c r="BW10" s="46">
-        <f t="shared" ref="BW10:BW14" si="20">SUM(AY10:BB10)</f>
+        <f t="shared" ref="BW10:BW15" si="23">SUM(AY10:BB10)</f>
         <v>5</v>
       </c>
       <c r="BX10" s="9">
@@ -6400,44 +6495,57 @@
       <c r="BA11" s="28">
         <v>85.808000000000007</v>
       </c>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="28"/>
-      <c r="BE11" s="28"/>
-      <c r="BF11" s="28"/>
+      <c r="BB11" s="28">
+        <v>91.188999999999993</v>
+      </c>
+      <c r="BC11" s="28">
+        <v>76.691999999999993</v>
+      </c>
+      <c r="BD11" s="28">
+        <f>+AZ11*1.01</f>
+        <v>84.548109999999994</v>
+      </c>
+      <c r="BE11" s="28">
+        <f t="shared" ref="BE11:BF11" si="24">+BA11*1.01</f>
+        <v>86.666080000000008</v>
+      </c>
+      <c r="BF11" s="28">
+        <f t="shared" si="24"/>
+        <v>92.100889999999993</v>
+      </c>
       <c r="BG11" s="28"/>
       <c r="BH11" s="28"/>
       <c r="BW11" s="46">
-        <f t="shared" si="20"/>
-        <v>240.38600000000002</v>
+        <f t="shared" si="23"/>
+        <v>331.57500000000005</v>
       </c>
       <c r="BX11" s="9">
         <f>+BW11*0.99</f>
-        <v>237.98214000000002</v>
+        <v>328.25925000000007</v>
       </c>
       <c r="BY11" s="9">
-        <f t="shared" ref="BY11:CB11" si="21">+BX11*0.99</f>
-        <v>235.60231860000002</v>
+        <f t="shared" ref="BY11:CB11" si="25">+BX11*0.99</f>
+        <v>324.97665750000004</v>
       </c>
       <c r="BZ11" s="9">
-        <f t="shared" si="21"/>
-        <v>233.246295414</v>
+        <f t="shared" si="25"/>
+        <v>321.72689092500002</v>
       </c>
       <c r="CA11" s="9">
-        <f t="shared" si="21"/>
-        <v>230.91383245986</v>
+        <f t="shared" si="25"/>
+        <v>318.50962201575004</v>
       </c>
       <c r="CB11" s="9">
-        <f t="shared" si="21"/>
-        <v>228.60469413526141</v>
+        <f t="shared" si="25"/>
+        <v>315.32452579559254</v>
       </c>
       <c r="CC11" s="9">
         <f>+CB11*0.2</f>
-        <v>45.720938827052287</v>
+        <v>63.06490515911851</v>
       </c>
       <c r="CD11" s="9">
-        <f t="shared" ref="CD11:CD12" si="22">+CC11*0.2</f>
-        <v>9.1441877654104573</v>
+        <f t="shared" ref="CD11:CD12" si="26">+CC11*0.2</f>
+        <v>12.612981031823702</v>
       </c>
     </row>
     <row r="12" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6511,44 +6619,57 @@
       <c r="BA12" s="28">
         <v>20.370999999999999</v>
       </c>
-      <c r="BB12" s="28"/>
-      <c r="BC12" s="28"/>
-      <c r="BD12" s="28"/>
-      <c r="BE12" s="28"/>
-      <c r="BF12" s="28"/>
+      <c r="BB12" s="28">
+        <v>35.857999999999997</v>
+      </c>
+      <c r="BC12" s="28">
+        <v>34.155000000000001</v>
+      </c>
+      <c r="BD12" s="28">
+        <f>+AZ12*0.9</f>
+        <v>27.2286</v>
+      </c>
+      <c r="BE12" s="28">
+        <f t="shared" ref="BE12:BF12" si="27">+BA12*0.9</f>
+        <v>18.3339</v>
+      </c>
+      <c r="BF12" s="28">
+        <f t="shared" si="27"/>
+        <v>32.272199999999998</v>
+      </c>
       <c r="BG12" s="28"/>
       <c r="BH12" s="28"/>
       <c r="BW12" s="46">
-        <f t="shared" si="20"/>
-        <v>98.688999999999993</v>
+        <f t="shared" si="23"/>
+        <v>134.547</v>
       </c>
       <c r="BX12" s="9">
         <f>+BW12*0.99</f>
-        <v>97.70210999999999</v>
+        <v>133.20152999999999</v>
       </c>
       <c r="BY12" s="9">
-        <f t="shared" ref="BY12:CB12" si="23">+BX12*0.99</f>
-        <v>96.725088899999989</v>
+        <f t="shared" ref="BY12:CB12" si="28">+BX12*0.99</f>
+        <v>131.8695147</v>
       </c>
       <c r="BZ12" s="9">
-        <f t="shared" si="23"/>
-        <v>95.75783801099999</v>
+        <f t="shared" si="28"/>
+        <v>130.550819553</v>
       </c>
       <c r="CA12" s="9">
-        <f t="shared" si="23"/>
-        <v>94.800259630889983</v>
+        <f t="shared" si="28"/>
+        <v>129.24531135747</v>
       </c>
       <c r="CB12" s="9">
-        <f t="shared" si="23"/>
-        <v>93.852257034581086</v>
+        <f t="shared" si="28"/>
+        <v>127.95285824389531</v>
       </c>
       <c r="CC12" s="9">
-        <f t="shared" ref="CC12" si="24">+CB12*0.2</f>
-        <v>18.770451406916219</v>
+        <f t="shared" ref="CC12" si="29">+CB12*0.2</f>
+        <v>25.590571648779061</v>
       </c>
       <c r="CD12" s="9">
-        <f t="shared" si="22"/>
-        <v>3.754090281383244</v>
+        <f t="shared" si="26"/>
+        <v>5.1181143297558123</v>
       </c>
     </row>
     <row r="13" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6622,81 +6743,73 @@
       <c r="BA13" s="28">
         <v>4.1139999999999999</v>
       </c>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="28"/>
-      <c r="BD13" s="28"/>
-      <c r="BE13" s="28"/>
-      <c r="BF13" s="28"/>
+      <c r="BB13" s="28">
+        <v>4.2329999999999997</v>
+      </c>
+      <c r="BC13" s="28">
+        <v>4.1769999999999996</v>
+      </c>
+      <c r="BD13" s="28">
+        <f>+BC13</f>
+        <v>4.1769999999999996</v>
+      </c>
+      <c r="BE13" s="28">
+        <f t="shared" ref="BE13:BF13" si="30">+BD13</f>
+        <v>4.1769999999999996</v>
+      </c>
+      <c r="BF13" s="28">
+        <f t="shared" si="30"/>
+        <v>4.1769999999999996</v>
+      </c>
       <c r="BG13" s="28"/>
       <c r="BH13" s="28"/>
       <c r="BW13" s="46">
-        <f t="shared" si="20"/>
-        <v>11.178000000000001</v>
+        <f t="shared" si="23"/>
+        <v>15.411000000000001</v>
       </c>
       <c r="BX13" s="9">
         <f>+BW13</f>
-        <v>11.178000000000001</v>
+        <v>15.411000000000001</v>
       </c>
       <c r="BY13" s="9">
-        <f t="shared" ref="BY13:CD13" si="25">+BX13</f>
-        <v>11.178000000000001</v>
+        <f t="shared" ref="BY13:CD13" si="31">+BX13</f>
+        <v>15.411000000000001</v>
       </c>
       <c r="BZ13" s="9">
-        <f t="shared" si="25"/>
-        <v>11.178000000000001</v>
+        <f t="shared" si="31"/>
+        <v>15.411000000000001</v>
       </c>
       <c r="CA13" s="9">
-        <f t="shared" si="25"/>
-        <v>11.178000000000001</v>
+        <f t="shared" si="31"/>
+        <v>15.411000000000001</v>
       </c>
       <c r="CB13" s="9">
-        <f t="shared" si="25"/>
-        <v>11.178000000000001</v>
+        <f t="shared" si="31"/>
+        <v>15.411000000000001</v>
       </c>
       <c r="CC13" s="9">
-        <f t="shared" si="25"/>
-        <v>11.178000000000001</v>
+        <f t="shared" si="31"/>
+        <v>15.411000000000001</v>
       </c>
       <c r="CD13" s="9">
-        <f t="shared" si="25"/>
-        <v>11.178000000000001</v>
+        <f t="shared" si="31"/>
+        <v>15.411000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="C14" s="28">
-        <v>551</v>
-      </c>
-      <c r="D14" s="28">
-        <v>110</v>
-      </c>
-      <c r="E14" s="28">
-        <v>135</v>
-      </c>
-      <c r="F14" s="28">
-        <f t="shared" ref="F14:F26" si="26">BK14-SUM(C14:E14)</f>
-        <v>134</v>
-      </c>
-      <c r="G14" s="28">
-        <v>235</v>
-      </c>
-      <c r="H14" s="28">
-        <v>74</v>
-      </c>
-      <c r="I14" s="28">
-        <v>45</v>
-      </c>
-      <c r="J14" s="28">
-        <v>140</v>
-      </c>
-      <c r="K14" s="28">
-        <v>163</v>
-      </c>
-      <c r="L14" s="28">
-        <v>78</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
@@ -6738,395 +6851,349 @@
       <c r="AY14" s="28"/>
       <c r="AZ14" s="28"/>
       <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="28"/>
-      <c r="BE14" s="28"/>
-      <c r="BF14" s="28"/>
+      <c r="BB14" s="28">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="BC14" s="28">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="BD14" s="28">
+        <f t="shared" ref="BD14:BF14" si="32">+BC14</f>
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="BE14" s="28">
+        <f t="shared" si="32"/>
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="BF14" s="28">
+        <f t="shared" si="32"/>
+        <v>0.41199999999999998</v>
+      </c>
       <c r="BG14" s="28"/>
       <c r="BH14" s="28"/>
-      <c r="BI14" s="9">
+      <c r="BW14" s="46"/>
+    </row>
+    <row r="15" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="28">
+        <v>551</v>
+      </c>
+      <c r="D15" s="28">
+        <v>110</v>
+      </c>
+      <c r="E15" s="28">
+        <v>135</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" ref="F15:F27" si="33">BK15-SUM(C15:E15)</f>
+        <v>134</v>
+      </c>
+      <c r="G15" s="28">
+        <v>235</v>
+      </c>
+      <c r="H15" s="28">
+        <v>74</v>
+      </c>
+      <c r="I15" s="28">
+        <v>45</v>
+      </c>
+      <c r="J15" s="28">
+        <v>140</v>
+      </c>
+      <c r="K15" s="28">
+        <v>163</v>
+      </c>
+      <c r="L15" s="28">
+        <v>78</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="28"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="9">
         <v>3260</v>
       </c>
-      <c r="BJ14" s="9">
+      <c r="BJ15" s="9">
         <v>3510</v>
       </c>
-      <c r="BK14" s="9">
+      <c r="BK15" s="9">
         <v>930</v>
       </c>
-      <c r="BL14" s="9">
+      <c r="BL15" s="9">
         <v>495</v>
       </c>
-      <c r="BW14" s="46">
-        <f t="shared" si="20"/>
+      <c r="BW15" s="46">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BX14" s="9">
-        <f t="shared" ref="BX14:CD14" si="27">+BW14</f>
+      <c r="BX15" s="9">
+        <f t="shared" ref="BX15:CD15" si="34">+BW15</f>
         <v>0</v>
       </c>
-      <c r="BY14" s="9">
-        <f t="shared" si="27"/>
+      <c r="BY15" s="9">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="BZ14" s="9">
-        <f t="shared" si="27"/>
+      <c r="BZ15" s="9">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="CA14" s="9">
-        <f t="shared" si="27"/>
+      <c r="CA15" s="9">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="CB14" s="9">
-        <f t="shared" si="27"/>
+      <c r="CB15" s="9">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="CC14" s="9">
-        <f t="shared" si="27"/>
+      <c r="CC15" s="9">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="CD14" s="9">
-        <f t="shared" si="27"/>
+      <c r="CD15" s="9">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:84" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
+    <row r="16" spans="1:84" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C15" s="10">
-        <f>SUM(C9:C14)</f>
+      <c r="C16" s="10">
+        <f>SUM(C9:C15)</f>
         <v>17288</v>
       </c>
-      <c r="D15" s="10">
-        <f t="shared" ref="D15:L15" si="28">SUM(D9:D14)</f>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:L16" si="35">SUM(D9:D15)</f>
         <v>49847</v>
       </c>
-      <c r="E15" s="10">
-        <f t="shared" si="28"/>
+      <c r="E16" s="10">
+        <f t="shared" si="35"/>
         <v>16872</v>
       </c>
-      <c r="F15" s="10">
-        <f t="shared" si="26"/>
+      <c r="F16" s="10">
+        <f t="shared" si="33"/>
         <v>85871</v>
       </c>
-      <c r="G15" s="10">
-        <f t="shared" si="28"/>
+      <c r="G16" s="10">
+        <f t="shared" si="35"/>
         <v>31973</v>
       </c>
-      <c r="H15" s="10">
-        <f t="shared" si="28"/>
+      <c r="H16" s="10">
+        <f t="shared" si="35"/>
         <v>16811</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="28"/>
+      <c r="I16" s="10">
+        <f t="shared" si="35"/>
         <v>16782</v>
       </c>
-      <c r="J15" s="10">
-        <f t="shared" si="28"/>
+      <c r="J16" s="10">
+        <f t="shared" si="35"/>
         <v>28889</v>
       </c>
-      <c r="K15" s="10">
-        <f t="shared" si="28"/>
+      <c r="K16" s="10">
+        <f t="shared" si="35"/>
         <v>36179</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="28"/>
+      <c r="L16" s="10">
+        <f t="shared" si="35"/>
         <v>86542</v>
       </c>
-      <c r="AQ15" s="10">
-        <f t="shared" ref="AQ15:AT15" si="29">SUM(AQ9:AQ14)</f>
+      <c r="AQ16" s="10">
+        <f t="shared" ref="AQ16:AT16" si="36">SUM(AQ9:AQ15)</f>
         <v>0</v>
       </c>
-      <c r="AR15" s="10">
-        <f t="shared" si="29"/>
+      <c r="AR16" s="10">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="10">
-        <f t="shared" si="29"/>
+      <c r="AS16" s="10">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="10">
-        <f t="shared" si="29"/>
+      <c r="AT16" s="10">
+        <f t="shared" si="36"/>
         <v>679.50900000000001</v>
       </c>
-      <c r="AU15" s="10">
-        <f>SUM(AU9:AU14)</f>
+      <c r="AU16" s="10">
+        <f t="shared" ref="AU16:BB16" si="37">SUM(AU9:AU15)</f>
         <v>604.71800000000007</v>
       </c>
-      <c r="AV15" s="10">
-        <f>SUM(AV9:AV14)</f>
+      <c r="AV16" s="10">
+        <f t="shared" si="37"/>
         <v>695.71199999999999</v>
       </c>
-      <c r="AW15" s="10">
-        <f>SUM(AW9:AW14)</f>
+      <c r="AW16" s="10">
+        <f t="shared" si="37"/>
         <v>777.98699999999997</v>
       </c>
-      <c r="AX15" s="10">
-        <f>SUM(AX9:AX14)</f>
+      <c r="AX16" s="10">
+        <f t="shared" si="37"/>
         <v>812.85300000000007</v>
       </c>
-      <c r="AY15" s="10">
-        <f>SUM(AY9:AY14)</f>
+      <c r="AY16" s="10">
+        <f t="shared" si="37"/>
         <v>733.2349999999999</v>
       </c>
-      <c r="AZ15" s="10">
-        <f>SUM(AZ9:AZ14)</f>
+      <c r="AZ16" s="10">
+        <f t="shared" si="37"/>
         <v>781.39700000000005</v>
       </c>
-      <c r="BA15" s="10">
-        <f>SUM(BA9:BA14)</f>
+      <c r="BA16" s="10">
+        <f t="shared" si="37"/>
         <v>823.303</v>
       </c>
-      <c r="BB15" s="10">
-        <f>SUM(BB9:BB14)</f>
-        <v>742.75099999999998</v>
-      </c>
-      <c r="BI15" s="10">
-        <f>SUM(BI9:BI14)</f>
+      <c r="BB16" s="10">
+        <f>SUM(BB9:BB15)</f>
+        <v>896.69999999999993</v>
+      </c>
+      <c r="BC16" s="10">
+        <f>SUM(BC9:BC15)</f>
+        <v>808.67300000000012</v>
+      </c>
+      <c r="BD16" s="10">
+        <f t="shared" ref="BD16:BF16" si="38">SUM(BD9:BD15)</f>
+        <v>856.16439000000003</v>
+      </c>
+      <c r="BE16" s="10">
+        <f t="shared" si="38"/>
+        <v>883.41127000000006</v>
+      </c>
+      <c r="BF16" s="10">
+        <f t="shared" si="38"/>
+        <v>937.01470000000018</v>
+      </c>
+      <c r="BI16" s="10">
+        <f>SUM(BI9:BI15)</f>
         <v>3919</v>
       </c>
-      <c r="BJ15" s="10">
-        <f t="shared" ref="BJ15:CA15" si="30">SUM(BJ9:BJ14)</f>
+      <c r="BJ16" s="10">
+        <f t="shared" ref="BJ16:CA16" si="39">SUM(BJ9:BJ15)</f>
         <v>9265</v>
       </c>
-      <c r="BK15" s="10">
-        <f t="shared" si="30"/>
+      <c r="BK16" s="10">
+        <f t="shared" si="39"/>
         <v>169878</v>
       </c>
-      <c r="BL15" s="10">
-        <f t="shared" ref="BL15" si="31">SUM(BL9:BL14)</f>
+      <c r="BL16" s="10">
+        <f t="shared" ref="BL16" si="40">SUM(BL9:BL15)</f>
         <v>92443</v>
       </c>
-      <c r="BM15" s="10">
-        <f t="shared" si="30"/>
+      <c r="BM16" s="10">
+        <f t="shared" si="39"/>
         <v>214706.44</v>
       </c>
-      <c r="BN15" s="10">
-        <f t="shared" si="30"/>
+      <c r="BN16" s="10">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BO15" s="10">
-        <f t="shared" si="30"/>
+      <c r="BO16" s="10">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BP15" s="10">
-        <f t="shared" si="30"/>
+      <c r="BP16" s="10">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="BW15" s="10">
-        <f>SUM(BW9:BW14)</f>
-        <v>3080.6859999999997</v>
-      </c>
-      <c r="BX15" s="10">
-        <f t="shared" si="30"/>
-        <v>3466.0770400000001</v>
-      </c>
-      <c r="BY15" s="10">
-        <f t="shared" si="30"/>
-        <v>3827.7394326000003</v>
-      </c>
-      <c r="BZ15" s="10">
-        <f t="shared" si="30"/>
-        <v>4196.1224975740006</v>
-      </c>
-      <c r="CA15" s="10">
-        <f t="shared" si="30"/>
-        <v>4596.2301237982601</v>
-      </c>
-      <c r="CB15" s="10">
-        <f t="shared" ref="CB15:CD15" si="32">SUM(CB9:CB14)</f>
-        <v>5044.9322020002783</v>
-      </c>
-      <c r="CC15" s="10">
-        <f t="shared" si="32"/>
-        <v>1829.6941084840994</v>
-      </c>
-      <c r="CD15" s="10">
-        <f t="shared" si="32"/>
-        <v>683.0739314080231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:84" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="s">
+      <c r="BW16" s="10">
+        <f>SUM(BW9:BW15)</f>
+        <v>3233.4300000000007</v>
+      </c>
+      <c r="BX16" s="10">
+        <f t="shared" si="39"/>
+        <v>3620.3664000000003</v>
+      </c>
+      <c r="BY16" s="10">
+        <f t="shared" si="39"/>
+        <v>3979.6996960000006</v>
+      </c>
+      <c r="BZ16" s="10">
+        <f t="shared" si="39"/>
+        <v>4349.2921860400011</v>
+      </c>
+      <c r="CA16" s="10">
+        <f t="shared" si="39"/>
+        <v>4751.0122784296018</v>
+      </c>
+      <c r="CB16" s="10">
+        <f t="shared" ref="CB16:CD16" si="41">SUM(CB9:CB15)</f>
+        <v>5201.7302203203053</v>
+      </c>
+      <c r="CC16" s="10">
+        <f t="shared" si="41"/>
+        <v>1865.6612142334061</v>
+      </c>
+      <c r="CD16" s="10">
+        <f t="shared" si="41"/>
+        <v>679.94055180233249</v>
+      </c>
+    </row>
+    <row r="17" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28">
-        <v>11</v>
-      </c>
-      <c r="L16" s="28">
-        <v>16</v>
-      </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28">
-        <v>30.693000000000001</v>
-      </c>
-      <c r="AU16" s="28">
-        <v>23.596</v>
-      </c>
-      <c r="AV16" s="28">
-        <v>32.302</v>
-      </c>
-      <c r="AW16" s="28">
-        <v>33.965000000000003</v>
-      </c>
-      <c r="AX16" s="28">
-        <v>37.886000000000003</v>
-      </c>
-      <c r="AY16" s="28">
-        <v>36.619</v>
-      </c>
-      <c r="AZ16" s="28">
-        <v>44.575000000000003</v>
-      </c>
-      <c r="BA16" s="50">
-        <v>48.521000000000001</v>
-      </c>
-      <c r="BB16" s="28">
-        <f>+BB15-BB17</f>
-        <v>44.565060000000017</v>
-      </c>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="28"/>
-      <c r="BE16" s="28"/>
-      <c r="BF16" s="28"/>
-      <c r="BG16" s="28"/>
-      <c r="BH16" s="28"/>
-      <c r="BM16" s="9">
-        <f>0.05*BM15</f>
-        <v>10735.322</v>
-      </c>
-      <c r="BN16" s="9">
-        <f t="shared" ref="BN16:CA19" si="33">0.05*BN15</f>
-        <v>0</v>
-      </c>
-      <c r="BO16" s="9">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BP16" s="9">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BW16" s="9">
-        <f t="shared" si="33"/>
-        <v>154.0343</v>
-      </c>
-      <c r="BX16" s="9">
-        <f t="shared" si="33"/>
-        <v>173.30385200000001</v>
-      </c>
-      <c r="BY16" s="9">
-        <f t="shared" si="33"/>
-        <v>191.38697163000003</v>
-      </c>
-      <c r="BZ16" s="9">
-        <f t="shared" si="33"/>
-        <v>209.80612487870005</v>
-      </c>
-      <c r="CA16" s="9">
-        <f t="shared" si="33"/>
-        <v>229.81150618991302</v>
-      </c>
-      <c r="CB16" s="9">
-        <f t="shared" ref="CB16" si="34">0.05*CB15</f>
-        <v>252.24661010001392</v>
-      </c>
-      <c r="CC16" s="9">
-        <f t="shared" ref="CC16" si="35">0.05*CC15</f>
-        <v>91.484705424204975</v>
-      </c>
-      <c r="CD16" s="9">
-        <f t="shared" ref="CD16" si="36">0.05*CD15</f>
-        <v>34.153696570401159</v>
-      </c>
-    </row>
-    <row r="17" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="28">
-        <f>C15-C16</f>
-        <v>17288</v>
-      </c>
-      <c r="D17" s="28">
-        <f t="shared" ref="D17:L17" si="37">D15-D16</f>
-        <v>49847</v>
-      </c>
-      <c r="E17" s="28">
-        <f t="shared" si="37"/>
-        <v>16872</v>
-      </c>
-      <c r="F17" s="28">
-        <f t="shared" si="26"/>
-        <v>85871</v>
-      </c>
-      <c r="G17" s="28">
-        <f t="shared" si="37"/>
-        <v>31973</v>
-      </c>
-      <c r="H17" s="28">
-        <f t="shared" si="37"/>
-        <v>16811</v>
-      </c>
-      <c r="I17" s="28">
-        <f t="shared" si="37"/>
-        <v>16782</v>
-      </c>
-      <c r="J17" s="28">
-        <f t="shared" si="37"/>
-        <v>28889</v>
-      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="28">
-        <f t="shared" si="37"/>
-        <v>36168</v>
+        <v>11</v>
       </c>
       <c r="L17" s="28">
-        <f t="shared" si="37"/>
-        <v>86526</v>
+        <v>16</v>
       </c>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
@@ -7162,152 +7229,141 @@
       <c r="AR17" s="28"/>
       <c r="AS17" s="28"/>
       <c r="AT17" s="28">
-        <f t="shared" ref="AT17" si="38">+AT15-AT16</f>
-        <v>648.81600000000003</v>
+        <v>30.693000000000001</v>
       </c>
       <c r="AU17" s="28">
-        <f>+AU15-AU16</f>
-        <v>581.12200000000007</v>
+        <v>23.596</v>
       </c>
       <c r="AV17" s="28">
-        <f>+AV15-AV16</f>
-        <v>663.41</v>
+        <v>32.302</v>
       </c>
       <c r="AW17" s="28">
-        <f>+AW15-AW16</f>
-        <v>744.02199999999993</v>
+        <v>33.965000000000003</v>
       </c>
       <c r="AX17" s="28">
-        <f>+AX15-AX16</f>
-        <v>774.9670000000001</v>
+        <v>37.886000000000003</v>
       </c>
       <c r="AY17" s="28">
-        <f>+AY15-AY16</f>
-        <v>696.61599999999987</v>
+        <v>36.619</v>
       </c>
       <c r="AZ17" s="28">
-        <f>+AZ15-AZ16</f>
-        <v>736.822</v>
-      </c>
-      <c r="BA17" s="28">
-        <f>+BA15-BA16</f>
-        <v>774.78200000000004</v>
+        <v>44.575000000000003</v>
+      </c>
+      <c r="BA17" s="50">
+        <v>48.521000000000001</v>
       </c>
       <c r="BB17" s="28">
-        <f>+BB15*0.94</f>
-        <v>698.18593999999996</v>
-      </c>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="28"/>
-      <c r="BE17" s="28"/>
-      <c r="BF17" s="28"/>
+        <v>53.021999999999998</v>
+      </c>
+      <c r="BC17" s="28">
+        <v>50.668999999999997</v>
+      </c>
+      <c r="BD17" s="28">
+        <f t="shared" ref="BD17:BE17" si="42">+BD16-BD18</f>
+        <v>42.808219500000064</v>
+      </c>
+      <c r="BE17" s="28">
+        <f t="shared" si="42"/>
+        <v>44.170563500000071</v>
+      </c>
+      <c r="BF17" s="28">
+        <f>+BF16-BF18</f>
+        <v>46.8507350000001</v>
+      </c>
       <c r="BG17" s="28"/>
       <c r="BH17" s="28"/>
-      <c r="BI17" s="28">
-        <f t="shared" ref="BI17" si="39">BI15-BI16</f>
-        <v>3919</v>
-      </c>
-      <c r="BJ17" s="28">
-        <f t="shared" ref="BJ17" si="40">BJ15-BJ16</f>
-        <v>9265</v>
-      </c>
-      <c r="BK17" s="28">
-        <f t="shared" ref="BK17:BL17" si="41">BK15-BK16</f>
-        <v>169878</v>
-      </c>
-      <c r="BL17" s="28">
-        <f t="shared" si="41"/>
-        <v>92443</v>
-      </c>
-      <c r="BM17" s="28">
-        <f t="shared" ref="BM17" si="42">BM15-BM16</f>
-        <v>203971.11800000002</v>
-      </c>
-      <c r="BN17" s="28">
-        <f t="shared" ref="BN17" si="43">BN15-BN16</f>
+      <c r="BM17" s="9">
+        <f>0.05*BM16</f>
+        <v>10735.322</v>
+      </c>
+      <c r="BN17" s="9">
+        <f t="shared" ref="BN17:CA17" si="43">0.05*BN16</f>
         <v>0</v>
       </c>
-      <c r="BO17" s="28">
-        <f t="shared" ref="BO17" si="44">BO15-BO16</f>
+      <c r="BO17" s="9">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="BP17" s="28">
-        <f t="shared" ref="BP17" si="45">BP15-BP16</f>
+      <c r="BP17" s="9">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="BQ17" s="28"/>
-      <c r="BR17" s="28"/>
-      <c r="BS17" s="28"/>
-      <c r="BT17" s="28"/>
-      <c r="BU17" s="28"/>
-      <c r="BV17" s="28"/>
-      <c r="BW17" s="28">
-        <f t="shared" ref="BW17:CA17" si="46">BW15-BW16</f>
-        <v>2926.6516999999999</v>
-      </c>
-      <c r="BX17" s="28">
-        <f t="shared" si="46"/>
-        <v>3292.7731880000001</v>
-      </c>
-      <c r="BY17" s="28">
-        <f t="shared" si="46"/>
-        <v>3636.3524609700003</v>
-      </c>
-      <c r="BZ17" s="28">
-        <f t="shared" si="46"/>
-        <v>3986.3163726953007</v>
-      </c>
-      <c r="CA17" s="28">
-        <f t="shared" si="46"/>
-        <v>4366.4186176083467</v>
-      </c>
-      <c r="CB17" s="28">
-        <f t="shared" ref="CB17:CD17" si="47">CB15-CB16</f>
-        <v>4792.6855919002646</v>
-      </c>
-      <c r="CC17" s="28">
-        <f t="shared" si="47"/>
-        <v>1738.2094030598944</v>
-      </c>
-      <c r="CD17" s="28">
-        <f t="shared" si="47"/>
-        <v>648.92023483762193</v>
+      <c r="BW17" s="9">
+        <f t="shared" si="43"/>
+        <v>161.67150000000004</v>
+      </c>
+      <c r="BX17" s="9">
+        <f t="shared" si="43"/>
+        <v>181.01832000000002</v>
+      </c>
+      <c r="BY17" s="9">
+        <f t="shared" si="43"/>
+        <v>198.98498480000003</v>
+      </c>
+      <c r="BZ17" s="9">
+        <f t="shared" si="43"/>
+        <v>217.46460930200007</v>
+      </c>
+      <c r="CA17" s="9">
+        <f t="shared" si="43"/>
+        <v>237.55061392148011</v>
+      </c>
+      <c r="CB17" s="9">
+        <f t="shared" ref="CB17" si="44">0.05*CB16</f>
+        <v>260.08651101601527</v>
+      </c>
+      <c r="CC17" s="9">
+        <f t="shared" ref="CC17" si="45">0.05*CC16</f>
+        <v>93.283060711670316</v>
+      </c>
+      <c r="CD17" s="9">
+        <f t="shared" ref="CD17" si="46">0.05*CD16</f>
+        <v>33.997027590116623</v>
       </c>
     </row>
     <row r="18" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="C18" s="28">
-        <v>31439</v>
+        <f>C16-C17</f>
+        <v>17288</v>
       </c>
       <c r="D18" s="28">
-        <v>28883</v>
+        <f t="shared" ref="D18:L18" si="47">D16-D17</f>
+        <v>49847</v>
       </c>
       <c r="E18" s="28">
-        <v>30609</v>
+        <f t="shared" si="47"/>
+        <v>16872</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="26"/>
-        <v>32949</v>
+        <f t="shared" si="33"/>
+        <v>85871</v>
       </c>
       <c r="G18" s="28">
-        <v>36282</v>
+        <f t="shared" si="47"/>
+        <v>31973</v>
       </c>
       <c r="H18" s="28">
-        <v>46047</v>
+        <f t="shared" si="47"/>
+        <v>16811</v>
       </c>
       <c r="I18" s="28">
-        <v>44604</v>
+        <f t="shared" si="47"/>
+        <v>16782</v>
       </c>
       <c r="J18" s="28">
-        <v>51877</v>
+        <f t="shared" si="47"/>
+        <v>28889</v>
       </c>
       <c r="K18" s="28">
-        <v>48960</v>
+        <f t="shared" si="47"/>
+        <v>36168</v>
       </c>
       <c r="L18" s="28">
-        <v>51588</v>
+        <f t="shared" si="47"/>
+        <v>86526</v>
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
@@ -7343,93 +7399,164 @@
       <c r="AR18" s="28"/>
       <c r="AS18" s="28"/>
       <c r="AT18" s="28">
-        <v>375.77</v>
+        <f t="shared" ref="AT18" si="48">+AT16-AT17</f>
+        <v>648.81600000000003</v>
       </c>
       <c r="AU18" s="28">
-        <v>277.02199999999999</v>
+        <f t="shared" ref="AU18:BB18" si="49">+AU16-AU17</f>
+        <v>581.12200000000007</v>
       </c>
       <c r="AV18" s="28">
-        <v>315.47300000000001</v>
+        <f t="shared" si="49"/>
+        <v>663.41</v>
       </c>
       <c r="AW18" s="28">
-        <v>334.94499999999999</v>
-      </c>
-      <c r="AX18" s="50">
-        <v>442.69299999999998</v>
+        <f t="shared" si="49"/>
+        <v>744.02199999999993</v>
+      </c>
+      <c r="AX18" s="28">
+        <f t="shared" si="49"/>
+        <v>774.9670000000001</v>
       </c>
       <c r="AY18" s="28">
-        <v>327.04500000000002</v>
+        <f t="shared" si="49"/>
+        <v>696.61599999999987</v>
       </c>
       <c r="AZ18" s="28">
-        <v>319.05900000000003</v>
+        <f t="shared" si="49"/>
+        <v>736.822</v>
       </c>
       <c r="BA18" s="28">
-        <v>384.00700000000001</v>
-      </c>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="28"/>
+        <f t="shared" si="49"/>
+        <v>774.78200000000004</v>
+      </c>
+      <c r="BB18" s="28">
+        <f t="shared" si="49"/>
+        <v>843.67799999999988</v>
+      </c>
+      <c r="BC18" s="28">
+        <f>BC16-BC17</f>
+        <v>758.00400000000013</v>
+      </c>
+      <c r="BD18" s="28">
+        <f>+BD16*0.95</f>
+        <v>813.35617049999996</v>
+      </c>
+      <c r="BE18" s="28">
+        <f>+BE16*0.95</f>
+        <v>839.24070649999999</v>
+      </c>
+      <c r="BF18" s="28">
+        <f>+BF16*0.95</f>
+        <v>890.16396500000008</v>
+      </c>
       <c r="BG18" s="28"/>
       <c r="BH18" s="28"/>
-      <c r="BI18" s="9">
-        <v>146362</v>
-      </c>
-      <c r="BJ18" s="9">
-        <v>119442</v>
-      </c>
-      <c r="BK18" s="9">
-        <v>123880</v>
-      </c>
-      <c r="BL18" s="9">
-        <v>178707</v>
-      </c>
-      <c r="BM18" s="9">
-        <v>100000</v>
-      </c>
-      <c r="BN18" s="9">
-        <v>75000</v>
-      </c>
-      <c r="BW18" s="46">
-        <f t="shared" ref="BW18:BW19" si="48">SUM(AY18:BB18)</f>
-        <v>1030.1110000000001</v>
+      <c r="BI18" s="28">
+        <f t="shared" ref="BI18" si="50">BI16-BI17</f>
+        <v>3919</v>
+      </c>
+      <c r="BJ18" s="28">
+        <f t="shared" ref="BJ18" si="51">BJ16-BJ17</f>
+        <v>9265</v>
+      </c>
+      <c r="BK18" s="28">
+        <f t="shared" ref="BK18:BL18" si="52">BK16-BK17</f>
+        <v>169878</v>
+      </c>
+      <c r="BL18" s="28">
+        <f t="shared" si="52"/>
+        <v>92443</v>
+      </c>
+      <c r="BM18" s="28">
+        <f t="shared" ref="BM18" si="53">BM16-BM17</f>
+        <v>203971.11800000002</v>
+      </c>
+      <c r="BN18" s="28">
+        <f t="shared" ref="BN18" si="54">BN16-BN17</f>
+        <v>0</v>
+      </c>
+      <c r="BO18" s="28">
+        <f t="shared" ref="BO18" si="55">BO16-BO17</f>
+        <v>0</v>
+      </c>
+      <c r="BP18" s="28">
+        <f t="shared" ref="BP18" si="56">BP16-BP17</f>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="28">
+        <f t="shared" ref="BW18:CA18" si="57">BW16-BW17</f>
+        <v>3071.7585000000008</v>
+      </c>
+      <c r="BX18" s="28">
+        <f t="shared" si="57"/>
+        <v>3439.3480800000002</v>
+      </c>
+      <c r="BY18" s="28">
+        <f t="shared" si="57"/>
+        <v>3780.7147112000007</v>
+      </c>
+      <c r="BZ18" s="28">
+        <f t="shared" si="57"/>
+        <v>4131.827576738001</v>
+      </c>
+      <c r="CA18" s="28">
+        <f t="shared" si="57"/>
+        <v>4513.4616645081214</v>
+      </c>
+      <c r="CB18" s="28">
+        <f t="shared" ref="CB18:CD18" si="58">CB16-CB17</f>
+        <v>4941.6437093042896</v>
+      </c>
+      <c r="CC18" s="28">
+        <f t="shared" si="58"/>
+        <v>1772.3781535217358</v>
+      </c>
+      <c r="CD18" s="28">
+        <f t="shared" si="58"/>
+        <v>645.94352421221583</v>
       </c>
     </row>
     <row r="19" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="28">
-        <v>5794</v>
+        <v>31439</v>
       </c>
       <c r="D19" s="28">
-        <v>7485</v>
+        <v>28883</v>
       </c>
       <c r="E19" s="28">
-        <v>8458</v>
+        <v>30609</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" si="26"/>
-        <v>10591</v>
+        <f t="shared" si="33"/>
+        <v>32949</v>
       </c>
       <c r="G19" s="28">
-        <v>10825</v>
+        <v>36282</v>
       </c>
       <c r="H19" s="28">
-        <v>11858</v>
+        <v>46047</v>
       </c>
       <c r="I19" s="28">
-        <v>14282</v>
+        <v>44604</v>
       </c>
       <c r="J19" s="28">
-        <v>21152</v>
+        <v>51877</v>
       </c>
       <c r="K19" s="28">
-        <v>21396</v>
+        <v>48960</v>
       </c>
       <c r="L19" s="28">
-        <v>19719</v>
+        <v>51588</v>
       </c>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
@@ -7465,125 +7592,98 @@
       <c r="AR19" s="28"/>
       <c r="AS19" s="28"/>
       <c r="AT19" s="28">
-        <v>152.148</v>
+        <v>375.77</v>
       </c>
       <c r="AU19" s="28">
-        <v>123.313</v>
+        <v>277.02199999999999</v>
       </c>
       <c r="AV19" s="28">
-        <v>152.523</v>
+        <v>315.47300000000001</v>
       </c>
       <c r="AW19" s="28">
-        <v>308.67500000000001</v>
-      </c>
-      <c r="AX19" s="28">
-        <v>208.71799999999999</v>
+        <v>334.94499999999999</v>
+      </c>
+      <c r="AX19" s="50">
+        <v>442.69299999999998</v>
       </c>
       <c r="AY19" s="28">
-        <v>192.68199999999999</v>
+        <v>327.04500000000002</v>
       </c>
       <c r="AZ19" s="28">
-        <v>235.595</v>
+        <v>319.05900000000003</v>
       </c>
       <c r="BA19" s="28">
-        <v>266.45999999999998</v>
+        <v>384.00700000000001</v>
       </c>
       <c r="BB19" s="28">
-        <f>+AX19*1.15</f>
-        <v>240.02569999999997</v>
-      </c>
-      <c r="BC19" s="28"/>
+        <v>469.048</v>
+      </c>
+      <c r="BC19" s="28">
+        <v>375.62</v>
+      </c>
       <c r="BD19" s="28"/>
       <c r="BE19" s="28"/>
       <c r="BF19" s="28"/>
       <c r="BG19" s="28"/>
       <c r="BH19" s="28"/>
       <c r="BI19" s="9">
-        <v>17073</v>
+        <v>146362</v>
       </c>
       <c r="BJ19" s="9">
-        <v>27580</v>
+        <v>119442</v>
       </c>
       <c r="BK19" s="9">
-        <v>32328</v>
+        <v>123880</v>
       </c>
       <c r="BL19" s="9">
-        <v>58219</v>
+        <v>178707</v>
       </c>
       <c r="BM19" s="9">
-        <f>BL19*1.02</f>
-        <v>59383.380000000005</v>
+        <v>100000</v>
       </c>
       <c r="BN19" s="9">
-        <f t="shared" ref="BN19:CA19" si="49">BM19*1.02</f>
-        <v>60571.047600000005</v>
-      </c>
-      <c r="BO19" s="9">
-        <f t="shared" si="49"/>
-        <v>61782.468552000006</v>
+        <v>75000</v>
       </c>
       <c r="BW19" s="46">
-        <f t="shared" si="48"/>
-        <v>934.7627</v>
-      </c>
-      <c r="BX19" s="9">
-        <f>+BW19*0.8</f>
-        <v>747.81016</v>
-      </c>
-      <c r="BY19" s="9">
-        <f t="shared" ref="BY19:CD19" si="50">+BX19*0.8</f>
-        <v>598.24812800000007</v>
-      </c>
-      <c r="BZ19" s="9">
-        <f t="shared" si="50"/>
-        <v>478.59850240000009</v>
-      </c>
-      <c r="CA19" s="9">
-        <f t="shared" si="50"/>
-        <v>382.87880192000011</v>
-      </c>
-      <c r="CB19" s="9">
-        <f t="shared" si="50"/>
-        <v>306.30304153600008</v>
-      </c>
-      <c r="CC19" s="9">
-        <f t="shared" si="50"/>
-        <v>245.04243322880006</v>
-      </c>
-      <c r="CD19" s="9">
-        <f t="shared" si="50"/>
-        <v>196.03394658304006</v>
+        <f t="shared" ref="BW19:BW20" si="59">SUM(AY19:BB19)</f>
+        <v>1499.1590000000001</v>
       </c>
     </row>
     <row r="20" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="28" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="C20" s="28">
-        <v>-115</v>
+        <v>5794</v>
       </c>
       <c r="D20" s="28">
-        <v>-145</v>
+        <v>7485</v>
       </c>
       <c r="E20" s="28">
-        <v>-139</v>
+        <v>8458</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="26"/>
-        <v>20</v>
+        <f t="shared" si="33"/>
+        <v>10591</v>
       </c>
       <c r="G20" s="28">
-        <v>691</v>
+        <v>10825</v>
       </c>
       <c r="H20" s="28">
-        <v>20</v>
+        <v>11858</v>
       </c>
       <c r="I20" s="28">
-        <v>0</v>
-      </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+        <v>14282</v>
+      </c>
+      <c r="J20" s="28">
+        <v>21152</v>
+      </c>
+      <c r="K20" s="28">
+        <v>21396</v>
+      </c>
+      <c r="L20" s="28">
+        <v>19719</v>
+      </c>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
@@ -7617,78 +7717,136 @@
       <c r="AQ20" s="28"/>
       <c r="AR20" s="28"/>
       <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="28"/>
-      <c r="BE20" s="28"/>
-      <c r="BF20" s="28"/>
+      <c r="AT20" s="28">
+        <v>152.148</v>
+      </c>
+      <c r="AU20" s="28">
+        <v>123.313</v>
+      </c>
+      <c r="AV20" s="28">
+        <v>152.523</v>
+      </c>
+      <c r="AW20" s="28">
+        <v>308.67500000000001</v>
+      </c>
+      <c r="AX20" s="28">
+        <v>208.71799999999999</v>
+      </c>
+      <c r="AY20" s="28">
+        <v>192.68199999999999</v>
+      </c>
+      <c r="AZ20" s="28">
+        <v>235.595</v>
+      </c>
+      <c r="BA20" s="28">
+        <v>266.45999999999998</v>
+      </c>
+      <c r="BB20" s="28">
+        <v>253.209</v>
+      </c>
+      <c r="BC20" s="28">
+        <v>294.017</v>
+      </c>
+      <c r="BD20" s="28">
+        <f>+BC20</f>
+        <v>294.017</v>
+      </c>
+      <c r="BE20" s="28">
+        <f t="shared" ref="BE20:BG20" si="60">+BD20</f>
+        <v>294.017</v>
+      </c>
+      <c r="BF20" s="28">
+        <f t="shared" si="60"/>
+        <v>294.017</v>
+      </c>
       <c r="BG20" s="28"/>
       <c r="BH20" s="28"/>
       <c r="BI20" s="9">
-        <v>-227</v>
+        <v>17073</v>
       </c>
       <c r="BJ20" s="9">
-        <v>2011</v>
+        <v>27580</v>
       </c>
       <c r="BK20" s="9">
-        <v>-379</v>
+        <v>32328</v>
       </c>
       <c r="BL20" s="9">
-        <v>712</v>
+        <v>58219</v>
+      </c>
+      <c r="BM20" s="9">
+        <f>BL20*1.02</f>
+        <v>59383.380000000005</v>
+      </c>
+      <c r="BN20" s="9">
+        <f t="shared" ref="BN20:BO20" si="61">BM20*1.02</f>
+        <v>60571.047600000005</v>
+      </c>
+      <c r="BO20" s="9">
+        <f t="shared" si="61"/>
+        <v>61782.468552000006</v>
+      </c>
+      <c r="BW20" s="46">
+        <f t="shared" si="59"/>
+        <v>947.94599999999991</v>
+      </c>
+      <c r="BX20" s="9">
+        <f>+BW20*0.8</f>
+        <v>758.35680000000002</v>
+      </c>
+      <c r="BY20" s="9">
+        <f t="shared" ref="BY20:CD20" si="62">+BX20*0.8</f>
+        <v>606.68544000000009</v>
+      </c>
+      <c r="BZ20" s="9">
+        <f t="shared" si="62"/>
+        <v>485.34835200000009</v>
+      </c>
+      <c r="CA20" s="9">
+        <f t="shared" si="62"/>
+        <v>388.27868160000008</v>
+      </c>
+      <c r="CB20" s="9">
+        <f t="shared" si="62"/>
+        <v>310.62294528000007</v>
+      </c>
+      <c r="CC20" s="9">
+        <f t="shared" si="62"/>
+        <v>248.49835622400008</v>
+      </c>
+      <c r="CD20" s="9">
+        <f t="shared" si="62"/>
+        <v>198.79868497920006</v>
       </c>
     </row>
     <row r="21" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="50" t="s">
-        <v>418</v>
+      <c r="B21" s="28" t="s">
+        <v>261</v>
       </c>
       <c r="C21" s="28">
-        <f>SUM(C18:C20)</f>
-        <v>37118</v>
+        <v>-115</v>
       </c>
       <c r="D21" s="28">
-        <f t="shared" ref="D21:I21" si="51">SUM(D18:D20)</f>
-        <v>36223</v>
+        <v>-145</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="51"/>
-        <v>38928</v>
+        <v>-139</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="26"/>
-        <v>43560</v>
+        <f t="shared" si="33"/>
+        <v>20</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="51"/>
-        <v>47798</v>
+        <v>691</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" si="51"/>
-        <v>57925</v>
+        <v>20</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="51"/>
-        <v>58886</v>
-      </c>
-      <c r="J21" s="28">
-        <f t="shared" ref="J21:L21" si="52">SUM(J18:J20)</f>
-        <v>73029</v>
-      </c>
-      <c r="K21" s="28">
-        <f t="shared" si="52"/>
-        <v>70356</v>
-      </c>
-      <c r="L21" s="28">
-        <f t="shared" si="52"/>
-        <v>71307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
@@ -7722,162 +7880,77 @@
       <c r="AQ21" s="28"/>
       <c r="AR21" s="28"/>
       <c r="AS21" s="28"/>
-      <c r="AT21" s="28">
-        <f t="shared" ref="AT21:AU21" si="53">+AT19+AT18</f>
-        <v>527.91800000000001</v>
-      </c>
-      <c r="AU21" s="28">
-        <f>+AU19+AU18</f>
-        <v>400.33499999999998</v>
-      </c>
-      <c r="AV21" s="28">
-        <f>+AV19+AV18</f>
-        <v>467.99599999999998</v>
-      </c>
-      <c r="AW21" s="28">
-        <f>+AW18+AW19</f>
-        <v>643.62</v>
-      </c>
-      <c r="AX21" s="28">
-        <f>+AX19+AX18</f>
-        <v>651.41099999999994</v>
-      </c>
-      <c r="AY21" s="28">
-        <f>+AY19+AY18</f>
-        <v>519.72699999999998</v>
-      </c>
-      <c r="AZ21" s="28">
-        <f>+AZ19+AZ18</f>
-        <v>554.654</v>
-      </c>
-      <c r="BA21" s="28">
-        <f>+BA18+BA19</f>
-        <v>650.46699999999998</v>
-      </c>
-      <c r="BB21" s="28">
-        <f>+BB18+BB19</f>
-        <v>240.02569999999997</v>
-      </c>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="28"/>
+      <c r="AX21" s="28"/>
+      <c r="AY21" s="28"/>
+      <c r="AZ21" s="28"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="28"/>
       <c r="BC21" s="28"/>
       <c r="BD21" s="28"/>
       <c r="BE21" s="28"/>
       <c r="BF21" s="28"/>
       <c r="BG21" s="28"/>
       <c r="BH21" s="28"/>
-      <c r="BI21" s="28">
-        <f t="shared" ref="BI21" si="54">SUM(BI18:BI20)</f>
-        <v>163208</v>
-      </c>
-      <c r="BJ21" s="28">
-        <f t="shared" ref="BJ21" si="55">SUM(BJ18:BJ20)</f>
-        <v>149033</v>
-      </c>
-      <c r="BK21" s="28">
-        <f t="shared" ref="BK21:BL21" si="56">SUM(BK18:BK20)</f>
-        <v>155829</v>
-      </c>
-      <c r="BL21" s="28">
-        <f t="shared" si="56"/>
-        <v>237638</v>
-      </c>
-      <c r="BM21" s="28">
-        <f t="shared" ref="BM21" si="57">SUM(BM18:BM20)</f>
-        <v>159383.38</v>
-      </c>
-      <c r="BN21" s="28">
-        <f t="shared" ref="BN21" si="58">SUM(BN18:BN20)</f>
-        <v>135571.04759999999</v>
-      </c>
-      <c r="BO21" s="28">
-        <f t="shared" ref="BO21:CA21" si="59">SUM(BO18:BO20)</f>
-        <v>61782.468552000006</v>
-      </c>
-      <c r="BP21" s="28">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="28"/>
-      <c r="BR21" s="28"/>
-      <c r="BS21" s="28"/>
-      <c r="BT21" s="28"/>
-      <c r="BU21" s="28"/>
-      <c r="BV21" s="28"/>
-      <c r="BW21" s="28">
-        <f>SUM(BW18:BW20)</f>
-        <v>1964.8737000000001</v>
-      </c>
-      <c r="BX21" s="28">
-        <f t="shared" si="59"/>
-        <v>747.81016</v>
-      </c>
-      <c r="BY21" s="28">
-        <f t="shared" si="59"/>
-        <v>598.24812800000007</v>
-      </c>
-      <c r="BZ21" s="28">
-        <f t="shared" si="59"/>
-        <v>478.59850240000009</v>
-      </c>
-      <c r="CA21" s="28">
-        <f t="shared" si="59"/>
-        <v>382.87880192000011</v>
-      </c>
-      <c r="CB21" s="28">
-        <f t="shared" ref="CB21:CD21" si="60">SUM(CB18:CB20)</f>
-        <v>306.30304153600008</v>
-      </c>
-      <c r="CC21" s="28">
-        <f t="shared" si="60"/>
-        <v>245.04243322880006</v>
-      </c>
-      <c r="CD21" s="28">
-        <f t="shared" si="60"/>
-        <v>196.03394658304006</v>
+      <c r="BI21" s="9">
+        <v>-227</v>
+      </c>
+      <c r="BJ21" s="9">
+        <v>2011</v>
+      </c>
+      <c r="BK21" s="9">
+        <v>-379</v>
+      </c>
+      <c r="BL21" s="9">
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="50" t="s">
-        <v>146</v>
+        <v>418</v>
       </c>
       <c r="C22" s="28">
-        <f>C17-C21</f>
-        <v>-19830</v>
+        <f>SUM(C19:C21)</f>
+        <v>37118</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" ref="D22:I22" si="61">D17-D21</f>
-        <v>13624</v>
+        <f t="shared" ref="D22:I22" si="63">SUM(D19:D21)</f>
+        <v>36223</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="61"/>
-        <v>-22056</v>
+        <f t="shared" si="63"/>
+        <v>38928</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="26"/>
-        <v>42311</v>
+        <f t="shared" si="33"/>
+        <v>43560</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="61"/>
-        <v>-15825</v>
+        <f t="shared" si="63"/>
+        <v>47798</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" si="61"/>
-        <v>-41114</v>
+        <f t="shared" si="63"/>
+        <v>57925</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="61"/>
-        <v>-42104</v>
+        <f t="shared" si="63"/>
+        <v>58886</v>
       </c>
       <c r="J22" s="28">
-        <f t="shared" ref="J22:L22" si="62">J17-J21</f>
-        <v>-44140</v>
+        <f t="shared" ref="J22:L22" si="64">SUM(J19:J21)</f>
+        <v>73029</v>
       </c>
       <c r="K22" s="28">
-        <f t="shared" si="62"/>
-        <v>-34188</v>
+        <f t="shared" si="64"/>
+        <v>70356</v>
       </c>
       <c r="L22" s="28">
-        <f t="shared" si="62"/>
-        <v>15219</v>
+        <f t="shared" si="64"/>
+        <v>71307</v>
       </c>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
@@ -7913,77 +7986,89 @@
       <c r="AR22" s="28"/>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28">
-        <f t="shared" ref="AT22" si="63">+AT17-AT21</f>
-        <v>120.89800000000002</v>
+        <f t="shared" ref="AT22" si="65">+AT20+AT19</f>
+        <v>527.91800000000001</v>
       </c>
       <c r="AU22" s="28">
-        <f>+AU17-AU21</f>
-        <v>180.78700000000009</v>
+        <f>+AU20+AU19</f>
+        <v>400.33499999999998</v>
       </c>
       <c r="AV22" s="28">
-        <f>+AV17-AV21</f>
-        <v>195.41399999999999</v>
+        <f>+AV20+AV19</f>
+        <v>467.99599999999998</v>
       </c>
       <c r="AW22" s="28">
-        <f>+AW17-AW21</f>
-        <v>100.40199999999993</v>
+        <f>+AW19+AW20</f>
+        <v>643.62</v>
       </c>
       <c r="AX22" s="28">
-        <f>+AX17-AX21</f>
-        <v>123.55600000000015</v>
+        <f>+AX20+AX19</f>
+        <v>651.41099999999994</v>
       </c>
       <c r="AY22" s="28">
-        <f>+AY17-AY21</f>
-        <v>176.8889999999999</v>
+        <f>+AY20+AY19</f>
+        <v>519.72699999999998</v>
       </c>
       <c r="AZ22" s="28">
-        <f>+AZ17-AZ21</f>
-        <v>182.16800000000001</v>
+        <f>+AZ20+AZ19</f>
+        <v>554.654</v>
       </c>
       <c r="BA22" s="28">
-        <f>+BA17-BA21</f>
-        <v>124.31500000000005</v>
+        <f>+BA19+BA20</f>
+        <v>650.46699999999998</v>
       </c>
       <c r="BB22" s="28">
-        <f>+BB17-BB21</f>
-        <v>458.16023999999999</v>
-      </c>
-      <c r="BC22" s="28"/>
-      <c r="BD22" s="28"/>
-      <c r="BE22" s="28"/>
-      <c r="BF22" s="28"/>
+        <f>+BB19+BB20</f>
+        <v>722.25700000000006</v>
+      </c>
+      <c r="BC22" s="28">
+        <f>+BC19+BC20</f>
+        <v>669.63699999999994</v>
+      </c>
+      <c r="BD22" s="28">
+        <f t="shared" ref="BD22:BF22" si="66">+BD19+BD20</f>
+        <v>294.017</v>
+      </c>
+      <c r="BE22" s="28">
+        <f t="shared" si="66"/>
+        <v>294.017</v>
+      </c>
+      <c r="BF22" s="28">
+        <f t="shared" si="66"/>
+        <v>294.017</v>
+      </c>
       <c r="BG22" s="28"/>
       <c r="BH22" s="28"/>
       <c r="BI22" s="28">
-        <f t="shared" ref="BI22" si="64">BI17-BI21</f>
-        <v>-159289</v>
+        <f t="shared" ref="BI22" si="67">SUM(BI19:BI21)</f>
+        <v>163208</v>
       </c>
       <c r="BJ22" s="28">
-        <f t="shared" ref="BJ22" si="65">BJ17-BJ21</f>
-        <v>-139768</v>
+        <f t="shared" ref="BJ22" si="68">SUM(BJ19:BJ21)</f>
+        <v>149033</v>
       </c>
       <c r="BK22" s="28">
-        <f t="shared" ref="BK22:BL22" si="66">BK17-BK21</f>
-        <v>14049</v>
+        <f t="shared" ref="BK22:BL22" si="69">SUM(BK19:BK21)</f>
+        <v>155829</v>
       </c>
       <c r="BL22" s="28">
-        <f t="shared" si="66"/>
-        <v>-145195</v>
+        <f t="shared" si="69"/>
+        <v>237638</v>
       </c>
       <c r="BM22" s="28">
-        <f t="shared" ref="BM22" si="67">BM17-BM21</f>
-        <v>44587.738000000012</v>
+        <f t="shared" ref="BM22" si="70">SUM(BM19:BM21)</f>
+        <v>159383.38</v>
       </c>
       <c r="BN22" s="28">
-        <f t="shared" ref="BN22" si="68">BN17-BN21</f>
-        <v>-135571.04759999999</v>
+        <f t="shared" ref="BN22" si="71">SUM(BN19:BN21)</f>
+        <v>135571.04759999999</v>
       </c>
       <c r="BO22" s="28">
-        <f t="shared" ref="BO22:CA22" si="69">BO17-BO21</f>
-        <v>-61782.468552000006</v>
+        <f t="shared" ref="BO22:CA22" si="72">SUM(BO19:BO21)</f>
+        <v>61782.468552000006</v>
       </c>
       <c r="BP22" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BQ22" s="28"/>
@@ -7993,81 +8078,81 @@
       <c r="BU22" s="28"/>
       <c r="BV22" s="28"/>
       <c r="BW22" s="28">
-        <f>BW17-BW21</f>
-        <v>961.77799999999979</v>
+        <f>SUM(BW19:BW21)</f>
+        <v>2447.105</v>
       </c>
       <c r="BX22" s="28">
-        <f>BX17-BX21</f>
-        <v>2544.9630280000001</v>
+        <f t="shared" si="72"/>
+        <v>758.35680000000002</v>
       </c>
       <c r="BY22" s="28">
-        <f>BY17-BY21</f>
-        <v>3038.1043329700001</v>
+        <f t="shared" si="72"/>
+        <v>606.68544000000009</v>
       </c>
       <c r="BZ22" s="28">
-        <f>BZ17-BZ21</f>
-        <v>3507.7178702953006</v>
+        <f t="shared" si="72"/>
+        <v>485.34835200000009</v>
       </c>
       <c r="CA22" s="28">
-        <f>CA17-CA21</f>
-        <v>3983.5398156883466</v>
+        <f t="shared" si="72"/>
+        <v>388.27868160000008</v>
       </c>
       <c r="CB22" s="28">
-        <f>CB17-CB21</f>
-        <v>4486.3825503642647</v>
+        <f t="shared" ref="CB22:CD22" si="73">SUM(CB19:CB21)</f>
+        <v>310.62294528000007</v>
       </c>
       <c r="CC22" s="28">
-        <f>CC17-CC21</f>
-        <v>1493.1669698310943</v>
+        <f t="shared" si="73"/>
+        <v>248.49835622400008</v>
       </c>
       <c r="CD22" s="28">
-        <f>CD17-CD21</f>
-        <v>452.88628825458187</v>
+        <f t="shared" si="73"/>
+        <v>198.79868497920006</v>
       </c>
     </row>
     <row r="23" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="28" t="s">
-        <v>263</v>
+      <c r="B23" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="C23" s="28">
-        <f>195-11779</f>
-        <v>-11584</v>
+        <f>C18-C22</f>
+        <v>-19830</v>
       </c>
       <c r="D23" s="28">
-        <f>142-10391</f>
-        <v>-10249</v>
+        <f t="shared" ref="D23:I23" si="74">D18-D22</f>
+        <v>13624</v>
       </c>
       <c r="E23" s="28">
-        <f>212-10515</f>
-        <v>-10303</v>
+        <f t="shared" si="74"/>
+        <v>-22056</v>
       </c>
       <c r="F23" s="28">
-        <f t="shared" si="26"/>
-        <v>-9771</v>
+        <f t="shared" si="33"/>
+        <v>42311</v>
       </c>
       <c r="G23" s="28">
-        <f>72-10759</f>
-        <v>-10687</v>
+        <f t="shared" si="74"/>
+        <v>-15825</v>
       </c>
       <c r="H23" s="28">
-        <f>132-10888</f>
-        <v>-10756</v>
+        <f t="shared" si="74"/>
+        <v>-41114</v>
       </c>
       <c r="I23" s="28">
-        <f>45-11019</f>
-        <v>-10974</v>
+        <f t="shared" si="74"/>
+        <v>-42104</v>
       </c>
       <c r="J23" s="28">
-        <f>213-11153</f>
-        <v>-10940</v>
+        <f t="shared" ref="J23:L23" si="75">J18-J22</f>
+        <v>-44140</v>
       </c>
       <c r="K23" s="28">
-        <f>52-11290</f>
-        <v>-11238</v>
+        <f t="shared" si="75"/>
+        <v>-34188</v>
       </c>
       <c r="L23" s="28">
-        <f>315-11430</f>
-        <v>-11115</v>
+        <f t="shared" si="75"/>
+        <v>15219</v>
       </c>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
@@ -8103,113 +8188,173 @@
       <c r="AR23" s="28"/>
       <c r="AS23" s="28"/>
       <c r="AT23" s="28">
-        <f>-12.429+4.81-0.428</f>
-        <v>-8.0470000000000006</v>
+        <f t="shared" ref="AT23" si="76">+AT18-AT22</f>
+        <v>120.89800000000002</v>
       </c>
       <c r="AU23" s="28">
-        <f>-1.407-0.359</f>
-        <v>-1.766</v>
+        <f t="shared" ref="AU23:BC23" si="77">+AU18-AU22</f>
+        <v>180.78700000000009</v>
       </c>
       <c r="AV23" s="28">
-        <f>-9.843+4.39-0.358</f>
-        <v>-5.8109999999999999</v>
+        <f t="shared" si="77"/>
+        <v>195.41399999999999</v>
       </c>
       <c r="AW23" s="28">
-        <f>-9.149+1.948-0.439</f>
-        <v>-7.6399999999999988</v>
+        <f t="shared" si="77"/>
+        <v>100.40199999999993</v>
       </c>
       <c r="AX23" s="28">
-        <f>-7.543+5.716-0.752</f>
-        <v>-2.5789999999999997</v>
+        <f t="shared" si="77"/>
+        <v>123.55600000000015</v>
       </c>
       <c r="AY23" s="28">
-        <f>1.26-0.68</f>
-        <v>0.57999999999999996</v>
+        <f t="shared" si="77"/>
+        <v>176.8889999999999</v>
       </c>
       <c r="AZ23" s="28">
-        <f>-2.544+0.522-0.678</f>
-        <v>-2.7</v>
+        <f t="shared" si="77"/>
+        <v>182.16800000000001</v>
       </c>
       <c r="BA23" s="28">
-        <f>-1.769+11.513-0.641</f>
-        <v>9.1029999999999998</v>
-      </c>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
-      <c r="BD23" s="28"/>
-      <c r="BE23" s="28"/>
-      <c r="BF23" s="28"/>
+        <f t="shared" si="77"/>
+        <v>124.31500000000005</v>
+      </c>
+      <c r="BB23" s="28">
+        <f t="shared" si="77"/>
+        <v>121.42099999999982</v>
+      </c>
+      <c r="BC23" s="28">
+        <f>+BC18-BC22</f>
+        <v>88.367000000000189</v>
+      </c>
+      <c r="BD23" s="28">
+        <f t="shared" ref="BD23:BF23" si="78">+BD18-BD22</f>
+        <v>519.33917049999991</v>
+      </c>
+      <c r="BE23" s="28">
+        <f t="shared" si="78"/>
+        <v>545.22370649999993</v>
+      </c>
+      <c r="BF23" s="28">
+        <f t="shared" si="78"/>
+        <v>596.14696500000014</v>
+      </c>
       <c r="BG23" s="28"/>
       <c r="BH23" s="28"/>
-      <c r="BI23" s="9">
-        <f>5306-24937</f>
-        <v>-19631</v>
-      </c>
-      <c r="BJ23" s="9">
-        <f>50-32125</f>
-        <v>-32075</v>
-      </c>
-      <c r="BK23" s="9">
-        <f>1416-43323</f>
-        <v>-41907</v>
-      </c>
-      <c r="BL23" s="9">
-        <f>462-43819</f>
-        <v>-43357</v>
-      </c>
-      <c r="BM23" s="9">
-        <v>-42000</v>
-      </c>
-      <c r="BN23" s="9">
-        <v>-42000</v>
-      </c>
-      <c r="BO23" s="9">
-        <v>-42000</v>
+      <c r="BI23" s="28">
+        <f t="shared" ref="BI23" si="79">BI18-BI22</f>
+        <v>-159289</v>
+      </c>
+      <c r="BJ23" s="28">
+        <f t="shared" ref="BJ23" si="80">BJ18-BJ22</f>
+        <v>-139768</v>
+      </c>
+      <c r="BK23" s="28">
+        <f t="shared" ref="BK23:BL23" si="81">BK18-BK22</f>
+        <v>14049</v>
+      </c>
+      <c r="BL23" s="28">
+        <f t="shared" si="81"/>
+        <v>-145195</v>
+      </c>
+      <c r="BM23" s="28">
+        <f t="shared" ref="BM23" si="82">BM18-BM22</f>
+        <v>44587.738000000012</v>
+      </c>
+      <c r="BN23" s="28">
+        <f t="shared" ref="BN23" si="83">BN18-BN22</f>
+        <v>-135571.04759999999</v>
+      </c>
+      <c r="BO23" s="28">
+        <f t="shared" ref="BO23:BP23" si="84">BO18-BO22</f>
+        <v>-61782.468552000006</v>
+      </c>
+      <c r="BP23" s="28">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="28"/>
+      <c r="BR23" s="28"/>
+      <c r="BS23" s="28"/>
+      <c r="BT23" s="28"/>
+      <c r="BU23" s="28"/>
+      <c r="BV23" s="28"/>
+      <c r="BW23" s="28">
+        <f t="shared" ref="BW23:CD23" si="85">BW18-BW22</f>
+        <v>624.6535000000008</v>
+      </c>
+      <c r="BX23" s="28">
+        <f t="shared" si="85"/>
+        <v>2680.9912800000002</v>
+      </c>
+      <c r="BY23" s="28">
+        <f t="shared" si="85"/>
+        <v>3174.0292712000005</v>
+      </c>
+      <c r="BZ23" s="28">
+        <f t="shared" si="85"/>
+        <v>3646.479224738001</v>
+      </c>
+      <c r="CA23" s="28">
+        <f t="shared" si="85"/>
+        <v>4125.1829829081216</v>
+      </c>
+      <c r="CB23" s="28">
+        <f t="shared" si="85"/>
+        <v>4631.0207640242897</v>
+      </c>
+      <c r="CC23" s="28">
+        <f t="shared" si="85"/>
+        <v>1523.8797972977359</v>
+      </c>
+      <c r="CD23" s="28">
+        <f t="shared" si="85"/>
+        <v>447.14483923301577</v>
       </c>
     </row>
     <row r="24" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" s="28">
-        <f>SUM(C22:C23)</f>
-        <v>-31414</v>
+        <f>195-11779</f>
+        <v>-11584</v>
       </c>
       <c r="D24" s="28">
-        <f>SUM(D22:D23)</f>
-        <v>3375</v>
+        <f>142-10391</f>
+        <v>-10249</v>
       </c>
       <c r="E24" s="28">
-        <f>SUM(E22:E23)</f>
-        <v>-32359</v>
+        <f>212-10515</f>
+        <v>-10303</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="26"/>
-        <v>32540</v>
+        <f t="shared" si="33"/>
+        <v>-9771</v>
       </c>
       <c r="G24" s="28">
-        <f>SUM(G22:G23)</f>
-        <v>-26512</v>
+        <f>72-10759</f>
+        <v>-10687</v>
       </c>
       <c r="H24" s="28">
-        <f>SUM(H22:H23)</f>
-        <v>-51870</v>
+        <f>132-10888</f>
+        <v>-10756</v>
       </c>
       <c r="I24" s="28">
-        <f>SUM(I22:I23)</f>
-        <v>-53078</v>
+        <f>45-11019</f>
+        <v>-10974</v>
       </c>
       <c r="J24" s="28">
-        <f>SUM(J22:J23)</f>
-        <v>-55080</v>
+        <f>213-11153</f>
+        <v>-10940</v>
       </c>
       <c r="K24" s="28">
-        <f t="shared" ref="K24:L24" si="70">SUM(K22:K23)</f>
-        <v>-45426</v>
+        <f>52-11290</f>
+        <v>-11238</v>
       </c>
       <c r="L24" s="28">
-        <f t="shared" si="70"/>
-        <v>4104</v>
+        <f>315-11430</f>
+        <v>-11115</v>
       </c>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
@@ -8245,139 +8390,120 @@
       <c r="AR24" s="28"/>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28">
-        <f t="shared" ref="AT24" si="71">+AT22+AT23</f>
-        <v>112.85100000000003</v>
+        <f>-12.429+4.81-0.428</f>
+        <v>-8.0470000000000006</v>
       </c>
       <c r="AU24" s="28">
-        <f>+AU22+AU23</f>
-        <v>179.0210000000001</v>
+        <f>-1.407-0.359</f>
+        <v>-1.766</v>
       </c>
       <c r="AV24" s="28">
-        <f>+AV22+AV23</f>
-        <v>189.60299999999998</v>
+        <f>-9.843+4.39-0.358</f>
+        <v>-5.8109999999999999</v>
       </c>
       <c r="AW24" s="28">
-        <f>+AW22+AW23</f>
-        <v>92.761999999999929</v>
+        <f>-9.149+1.948-0.439</f>
+        <v>-7.6399999999999988</v>
       </c>
       <c r="AX24" s="28">
-        <f>+AX22+AX23</f>
-        <v>120.97700000000016</v>
+        <f>-7.543+5.716-0.752</f>
+        <v>-2.5789999999999997</v>
       </c>
       <c r="AY24" s="28">
-        <f>+AY22+AY23</f>
-        <v>177.46899999999991</v>
+        <f>1.26-0.68</f>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AZ24" s="28">
-        <f>+AZ22+AZ23</f>
-        <v>179.46800000000002</v>
+        <f>-2.544+0.522-0.678</f>
+        <v>-2.7</v>
       </c>
       <c r="BA24" s="28">
-        <f>+BA22+BA23</f>
-        <v>133.41800000000006</v>
+        <f>-1.769+11.513-0.641</f>
+        <v>9.1029999999999998</v>
       </c>
       <c r="BB24" s="28">
-        <f>+BB22+BB23</f>
-        <v>458.16023999999999</v>
-      </c>
-      <c r="BC24" s="28"/>
+        <f>26.637-0.667</f>
+        <v>25.97</v>
+      </c>
+      <c r="BC24" s="28">
+        <f>32.873-0.469</f>
+        <v>32.403999999999996</v>
+      </c>
       <c r="BD24" s="28"/>
       <c r="BE24" s="28"/>
       <c r="BF24" s="28"/>
       <c r="BG24" s="28"/>
       <c r="BH24" s="28"/>
-      <c r="BI24" s="28">
-        <f t="shared" ref="BI24:BO24" si="72">SUM(BI22:BI23)</f>
-        <v>-178920</v>
-      </c>
-      <c r="BJ24" s="28">
-        <f t="shared" si="72"/>
-        <v>-171843</v>
-      </c>
-      <c r="BK24" s="28">
-        <f t="shared" si="72"/>
-        <v>-27858</v>
-      </c>
-      <c r="BL24" s="28">
-        <f t="shared" ref="BL24" si="73">SUM(BL22:BL23)</f>
-        <v>-188552</v>
-      </c>
-      <c r="BM24" s="28">
-        <f t="shared" si="72"/>
-        <v>2587.7380000000121</v>
-      </c>
-      <c r="BN24" s="28">
-        <f t="shared" si="72"/>
-        <v>-177571.04759999999</v>
-      </c>
-      <c r="BO24" s="28">
-        <f t="shared" si="72"/>
-        <v>-103782.46855200001</v>
-      </c>
-      <c r="BP24" s="28">
-        <f t="shared" ref="BP24:CA24" si="74">SUM(BP22:BP23)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="28"/>
-      <c r="BR24" s="28"/>
-      <c r="BS24" s="28"/>
-      <c r="BT24" s="28"/>
-      <c r="BU24" s="28"/>
-      <c r="BV24" s="28"/>
-      <c r="BW24" s="28">
-        <f t="shared" si="74"/>
-        <v>961.77799999999979</v>
-      </c>
-      <c r="BX24" s="28">
-        <f t="shared" si="74"/>
-        <v>2544.9630280000001</v>
-      </c>
-      <c r="BY24" s="28">
-        <f t="shared" si="74"/>
-        <v>3038.1043329700001</v>
-      </c>
-      <c r="BZ24" s="28">
-        <f t="shared" si="74"/>
-        <v>3507.7178702953006</v>
-      </c>
-      <c r="CA24" s="28">
-        <f t="shared" si="74"/>
-        <v>3983.5398156883466</v>
-      </c>
-      <c r="CB24" s="28">
-        <f t="shared" ref="CB24:CD24" si="75">SUM(CB22:CB23)</f>
-        <v>4486.3825503642647</v>
-      </c>
-      <c r="CC24" s="28">
-        <f t="shared" si="75"/>
-        <v>1493.1669698310943</v>
-      </c>
-      <c r="CD24" s="28">
-        <f t="shared" si="75"/>
-        <v>452.88628825458187</v>
+      <c r="BI24" s="9">
+        <f>5306-24937</f>
+        <v>-19631</v>
+      </c>
+      <c r="BJ24" s="9">
+        <f>50-32125</f>
+        <v>-32075</v>
+      </c>
+      <c r="BK24" s="9">
+        <f>1416-43323</f>
+        <v>-41907</v>
+      </c>
+      <c r="BL24" s="9">
+        <f>462-43819</f>
+        <v>-43357</v>
+      </c>
+      <c r="BM24" s="9">
+        <v>-42000</v>
+      </c>
+      <c r="BN24" s="9">
+        <v>-42000</v>
+      </c>
+      <c r="BO24" s="9">
+        <v>-42000</v>
       </c>
     </row>
     <row r="25" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="28"/>
+        <v>264</v>
+      </c>
+      <c r="C25" s="28">
+        <f>SUM(C23:C24)</f>
+        <v>-31414</v>
+      </c>
       <c r="D25" s="28">
-        <v>331</v>
+        <f>SUM(D23:D24)</f>
+        <v>3375</v>
       </c>
       <c r="E25" s="28">
-        <v>658</v>
+        <f>SUM(E23:E24)</f>
+        <v>-32359</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="26"/>
-        <v>-989</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+        <f t="shared" si="33"/>
+        <v>32540</v>
+      </c>
+      <c r="G25" s="28">
+        <f>SUM(G23:G24)</f>
+        <v>-26512</v>
+      </c>
+      <c r="H25" s="28">
+        <f>SUM(H23:H24)</f>
+        <v>-51870</v>
+      </c>
+      <c r="I25" s="28">
+        <f>SUM(I23:I24)</f>
+        <v>-53078</v>
+      </c>
+      <c r="J25" s="28">
+        <f>SUM(J23:J24)</f>
+        <v>-55080</v>
+      </c>
+      <c r="K25" s="28">
+        <f t="shared" ref="K25:L25" si="86">SUM(K23:K24)</f>
+        <v>-45426</v>
+      </c>
+      <c r="L25" s="28">
+        <f t="shared" si="86"/>
+        <v>4104</v>
+      </c>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
@@ -8412,47 +8538,91 @@
       <c r="AR25" s="28"/>
       <c r="AS25" s="28"/>
       <c r="AT25" s="28">
-        <v>18.251999999999999</v>
+        <f t="shared" ref="AT25" si="87">+AT23+AT24</f>
+        <v>112.85100000000003</v>
       </c>
       <c r="AU25" s="28">
-        <v>15.787000000000001</v>
+        <f t="shared" ref="AU25:BC25" si="88">+AU23+AU24</f>
+        <v>179.0210000000001</v>
       </c>
       <c r="AV25" s="28">
-        <v>22.177</v>
+        <f t="shared" si="88"/>
+        <v>189.60299999999998</v>
       </c>
       <c r="AW25" s="28">
-        <v>27.73</v>
+        <f t="shared" si="88"/>
+        <v>92.761999999999929</v>
       </c>
       <c r="AX25" s="28">
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>120.97700000000016</v>
       </c>
       <c r="AY25" s="28">
-        <v>32.542999999999999</v>
+        <f t="shared" si="88"/>
+        <v>177.46899999999991</v>
       </c>
       <c r="AZ25" s="28">
-        <v>67.945999999999998</v>
+        <f t="shared" si="88"/>
+        <v>179.46800000000002</v>
       </c>
       <c r="BA25" s="28">
-        <v>35.813000000000002</v>
+        <f t="shared" si="88"/>
+        <v>133.41800000000006</v>
       </c>
       <c r="BB25" s="28">
-        <f>+BB24*0.2</f>
-        <v>91.632047999999998</v>
-      </c>
-      <c r="BC25" s="28"/>
-      <c r="BD25" s="28"/>
-      <c r="BE25" s="28"/>
-      <c r="BF25" s="28"/>
+        <f t="shared" si="88"/>
+        <v>147.39099999999982</v>
+      </c>
+      <c r="BC25" s="28">
+        <f t="shared" si="88"/>
+        <v>120.77100000000019</v>
+      </c>
+      <c r="BD25" s="28">
+        <f t="shared" ref="BD25" si="89">+BD23+BD24</f>
+        <v>519.33917049999991</v>
+      </c>
+      <c r="BE25" s="28">
+        <f t="shared" ref="BE25" si="90">+BE23+BE24</f>
+        <v>545.22370649999993</v>
+      </c>
+      <c r="BF25" s="28">
+        <f t="shared" ref="BF25" si="91">+BF23+BF24</f>
+        <v>596.14696500000014</v>
+      </c>
       <c r="BG25" s="28"/>
       <c r="BH25" s="28"/>
-      <c r="BI25" s="28"/>
-      <c r="BJ25" s="28"/>
-      <c r="BK25" s="28"/>
-      <c r="BL25" s="28"/>
-      <c r="BM25" s="28"/>
-      <c r="BN25" s="28"/>
-      <c r="BO25" s="28"/>
-      <c r="BP25" s="28"/>
+      <c r="BI25" s="28">
+        <f t="shared" ref="BI25:BO25" si="92">SUM(BI23:BI24)</f>
+        <v>-178920</v>
+      </c>
+      <c r="BJ25" s="28">
+        <f t="shared" si="92"/>
+        <v>-171843</v>
+      </c>
+      <c r="BK25" s="28">
+        <f t="shared" si="92"/>
+        <v>-27858</v>
+      </c>
+      <c r="BL25" s="28">
+        <f t="shared" ref="BL25" si="93">SUM(BL23:BL24)</f>
+        <v>-188552</v>
+      </c>
+      <c r="BM25" s="28">
+        <f t="shared" si="92"/>
+        <v>2587.7380000000121</v>
+      </c>
+      <c r="BN25" s="28">
+        <f t="shared" si="92"/>
+        <v>-177571.04759999999</v>
+      </c>
+      <c r="BO25" s="28">
+        <f t="shared" si="92"/>
+        <v>-103782.46855200001</v>
+      </c>
+      <c r="BP25" s="28">
+        <f t="shared" ref="BP25:CA25" si="94">SUM(BP23:BP24)</f>
+        <v>0</v>
+      </c>
       <c r="BQ25" s="28"/>
       <c r="BR25" s="28"/>
       <c r="BS25" s="28"/>
@@ -8460,82 +8630,59 @@
       <c r="BU25" s="28"/>
       <c r="BV25" s="28"/>
       <c r="BW25" s="28">
-        <f>+BW24*0.2</f>
-        <v>192.35559999999998</v>
+        <f t="shared" si="94"/>
+        <v>624.6535000000008</v>
       </c>
       <c r="BX25" s="28">
-        <f t="shared" ref="BX25:CD25" si="76">+BX24*0.2</f>
-        <v>508.99260560000005</v>
+        <f t="shared" si="94"/>
+        <v>2680.9912800000002</v>
       </c>
       <c r="BY25" s="28">
-        <f t="shared" si="76"/>
-        <v>607.62086659400006</v>
+        <f t="shared" si="94"/>
+        <v>3174.0292712000005</v>
       </c>
       <c r="BZ25" s="28">
-        <f t="shared" si="76"/>
-        <v>701.54357405906012</v>
+        <f t="shared" si="94"/>
+        <v>3646.479224738001</v>
       </c>
       <c r="CA25" s="28">
-        <f t="shared" si="76"/>
-        <v>796.70796313766937</v>
+        <f t="shared" si="94"/>
+        <v>4125.1829829081216</v>
       </c>
       <c r="CB25" s="28">
-        <f t="shared" si="76"/>
-        <v>897.27651007285294</v>
+        <f t="shared" ref="CB25:CD25" si="95">SUM(CB23:CB24)</f>
+        <v>4631.0207640242897</v>
       </c>
       <c r="CC25" s="28">
-        <f t="shared" si="76"/>
-        <v>298.63339396621888</v>
+        <f t="shared" si="95"/>
+        <v>1523.8797972977359</v>
       </c>
       <c r="CD25" s="28">
-        <f t="shared" si="76"/>
-        <v>90.57725765091638</v>
+        <f t="shared" si="95"/>
+        <v>447.14483923301577</v>
       </c>
     </row>
     <row r="26" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="28">
-        <f>C24+C25</f>
-        <v>-31414</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C26" s="28"/>
       <c r="D26" s="28">
-        <f t="shared" ref="D26:I26" si="77">D24+D25</f>
-        <v>3706</v>
+        <v>331</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="77"/>
-        <v>-31701</v>
+        <v>658</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="26"/>
-        <v>31551</v>
-      </c>
-      <c r="G26" s="28">
-        <f t="shared" si="77"/>
-        <v>-26512</v>
-      </c>
-      <c r="H26" s="28">
-        <f t="shared" si="77"/>
-        <v>-51870</v>
-      </c>
-      <c r="I26" s="28">
-        <f t="shared" si="77"/>
-        <v>-53078</v>
-      </c>
-      <c r="J26" s="28">
-        <f t="shared" ref="J26:L26" si="78">J24+J25</f>
-        <v>-55080</v>
-      </c>
-      <c r="K26" s="28">
-        <f t="shared" si="78"/>
-        <v>-45426</v>
-      </c>
-      <c r="L26" s="28">
-        <f t="shared" si="78"/>
-        <v>4104</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>-989</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
@@ -8570,79 +8717,57 @@
       <c r="AR26" s="28"/>
       <c r="AS26" s="28"/>
       <c r="AT26" s="28">
-        <f t="shared" ref="AT26" si="79">+AT24-AT25</f>
-        <v>94.599000000000032</v>
+        <v>18.251999999999999</v>
       </c>
       <c r="AU26" s="28">
-        <f>+AU24-AU25</f>
-        <v>163.23400000000009</v>
+        <v>15.787000000000001</v>
       </c>
       <c r="AV26" s="28">
-        <f>+AV24-AV25</f>
-        <v>167.42599999999999</v>
+        <v>22.177</v>
       </c>
       <c r="AW26" s="28">
-        <f>+AW24-AW25</f>
-        <v>65.031999999999925</v>
+        <v>27.73</v>
       </c>
       <c r="AX26" s="28">
-        <f>+AX24-AX25</f>
-        <v>120.97700000000016</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="28">
-        <f>+AY24-AY25</f>
-        <v>144.9259999999999</v>
+        <v>32.542999999999999</v>
       </c>
       <c r="AZ26" s="28">
-        <f>+AZ24-AZ25</f>
-        <v>111.52200000000002</v>
+        <v>67.945999999999998</v>
       </c>
       <c r="BA26" s="28">
-        <f>+BA24-BA25</f>
-        <v>97.605000000000061</v>
+        <v>35.813000000000002</v>
       </c>
       <c r="BB26" s="28">
-        <f>+BB24-BB25</f>
-        <v>366.52819199999999</v>
-      </c>
-      <c r="BC26" s="28"/>
-      <c r="BD26" s="28"/>
-      <c r="BE26" s="28"/>
-      <c r="BF26" s="28"/>
+        <v>52.154000000000003</v>
+      </c>
+      <c r="BC26" s="28">
+        <v>30.152999999999999</v>
+      </c>
+      <c r="BD26" s="28">
+        <f>+BD25*0.2</f>
+        <v>103.86783409999998</v>
+      </c>
+      <c r="BE26" s="28">
+        <f t="shared" ref="BE26:BF26" si="96">+BE25*0.2</f>
+        <v>109.0447413</v>
+      </c>
+      <c r="BF26" s="28">
+        <f t="shared" si="96"/>
+        <v>119.22939300000003</v>
+      </c>
       <c r="BG26" s="28"/>
       <c r="BH26" s="28"/>
-      <c r="BI26" s="28">
-        <f t="shared" ref="BI26" si="80">BI24+BI25</f>
-        <v>-178920</v>
-      </c>
-      <c r="BJ26" s="28">
-        <f t="shared" ref="BJ26" si="81">BJ24+BJ25</f>
-        <v>-171843</v>
-      </c>
-      <c r="BK26" s="28">
-        <f t="shared" ref="BK26:BL26" si="82">BK24+BK25</f>
-        <v>-27858</v>
-      </c>
-      <c r="BL26" s="28">
-        <f t="shared" si="82"/>
-        <v>-188552</v>
-      </c>
-      <c r="BM26" s="28">
-        <f t="shared" ref="BM26" si="83">BM24+BM25</f>
-        <v>2587.7380000000121</v>
-      </c>
-      <c r="BN26" s="28">
-        <f t="shared" ref="BN26" si="84">BN24+BN25</f>
-        <v>-177571.04759999999</v>
-      </c>
-      <c r="BO26" s="28">
-        <f t="shared" ref="BO26:CA26" si="85">BO24+BO25</f>
-        <v>-103782.46855200001</v>
-      </c>
-      <c r="BP26" s="28">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
+      <c r="BL26" s="28"/>
+      <c r="BM26" s="28"/>
+      <c r="BN26" s="28"/>
+      <c r="BO26" s="28"/>
+      <c r="BP26" s="28"/>
       <c r="BQ26" s="28"/>
       <c r="BR26" s="28"/>
       <c r="BS26" s="28"/>
@@ -8650,598 +8775,665 @@
       <c r="BU26" s="28"/>
       <c r="BV26" s="28"/>
       <c r="BW26" s="28">
-        <f>+BW24-BW25</f>
-        <v>769.42239999999981</v>
+        <f>+BW25*0.2</f>
+        <v>124.93070000000017</v>
       </c>
       <c r="BX26" s="28">
-        <f t="shared" ref="BX26:CD26" si="86">+BX24-BX25</f>
-        <v>2035.9704224000002</v>
+        <f t="shared" ref="BX26:CD26" si="97">+BX25*0.2</f>
+        <v>536.19825600000001</v>
       </c>
       <c r="BY26" s="28">
-        <f t="shared" si="86"/>
-        <v>2430.4834663760003</v>
+        <f t="shared" si="97"/>
+        <v>634.80585424000014</v>
       </c>
       <c r="BZ26" s="28">
-        <f t="shared" si="86"/>
-        <v>2806.1742962362405</v>
+        <f t="shared" si="97"/>
+        <v>729.29584494760024</v>
       </c>
       <c r="CA26" s="28">
-        <f t="shared" si="86"/>
-        <v>3186.8318525506775</v>
+        <f t="shared" si="97"/>
+        <v>825.03659658162439</v>
       </c>
       <c r="CB26" s="28">
-        <f t="shared" si="86"/>
-        <v>3589.1060402914118</v>
+        <f t="shared" si="97"/>
+        <v>926.20415280485804</v>
       </c>
       <c r="CC26" s="28">
-        <f t="shared" si="86"/>
-        <v>1194.5335758648755</v>
+        <f t="shared" si="97"/>
+        <v>304.77595945954721</v>
       </c>
       <c r="CD26" s="28">
-        <f t="shared" si="86"/>
-        <v>362.30903060366552</v>
-      </c>
-      <c r="CE26" s="9">
-        <f>CD26*(1+$CH$31)</f>
-        <v>344.19357907348223</v>
-      </c>
-      <c r="CF26" s="9">
-        <f t="shared" ref="CF26:DY26" si="87">CE26*(1+$CH$31)</f>
-        <v>326.98390011980808</v>
-      </c>
-      <c r="CG26" s="9">
-        <f t="shared" si="87"/>
-        <v>310.63470511381769</v>
-      </c>
-      <c r="CH26" s="9">
-        <f t="shared" si="87"/>
-        <v>295.10296985812681</v>
-      </c>
-      <c r="CI26" s="9">
-        <f t="shared" si="87"/>
-        <v>280.34782136522045</v>
-      </c>
-      <c r="CJ26" s="9">
-        <f t="shared" si="87"/>
-        <v>266.33043029695943</v>
-      </c>
-      <c r="CK26" s="9">
-        <f t="shared" si="87"/>
-        <v>253.01390878211146</v>
-      </c>
-      <c r="CL26" s="9">
-        <f t="shared" si="87"/>
-        <v>240.36321334300587</v>
-      </c>
-      <c r="CM26" s="9">
-        <f t="shared" si="87"/>
-        <v>228.34505267585556</v>
-      </c>
-      <c r="CN26" s="9">
-        <f t="shared" si="87"/>
-        <v>216.92780004206276</v>
-      </c>
-      <c r="CO26" s="9">
-        <f t="shared" si="87"/>
-        <v>206.08141003995962</v>
-      </c>
-      <c r="CP26" s="9">
-        <f t="shared" si="87"/>
-        <v>195.77733953796164</v>
-      </c>
-      <c r="CQ26" s="9">
-        <f t="shared" si="87"/>
-        <v>185.98847256106356</v>
-      </c>
-      <c r="CR26" s="9">
-        <f t="shared" si="87"/>
-        <v>176.68904893301038</v>
-      </c>
-      <c r="CS26" s="9">
-        <f t="shared" si="87"/>
-        <v>167.85459648635987</v>
-      </c>
-      <c r="CT26" s="9">
-        <f t="shared" si="87"/>
-        <v>159.46186666204187</v>
-      </c>
-      <c r="CU26" s="9">
-        <f t="shared" si="87"/>
-        <v>151.48877332893977</v>
-      </c>
-      <c r="CV26" s="9">
-        <f t="shared" si="87"/>
-        <v>143.91433466249276</v>
-      </c>
-      <c r="CW26" s="9">
-        <f t="shared" si="87"/>
-        <v>136.71861792936812</v>
-      </c>
-      <c r="CX26" s="9">
-        <f t="shared" si="87"/>
-        <v>129.8826870328997</v>
-      </c>
-      <c r="CY26" s="9">
-        <f t="shared" si="87"/>
-        <v>123.38855268125471</v>
-      </c>
-      <c r="CZ26" s="9">
-        <f t="shared" si="87"/>
-        <v>117.21912504719197</v>
-      </c>
-      <c r="DA26" s="9">
-        <f t="shared" si="87"/>
-        <v>111.35816879483237</v>
-      </c>
-      <c r="DB26" s="9">
-        <f t="shared" si="87"/>
-        <v>105.79026035509074</v>
-      </c>
-      <c r="DC26" s="9">
-        <f t="shared" si="87"/>
-        <v>100.50074733733619</v>
-      </c>
-      <c r="DD26" s="9">
-        <f t="shared" si="87"/>
-        <v>95.475709970469381</v>
-      </c>
-      <c r="DE26" s="9">
-        <f t="shared" si="87"/>
-        <v>90.701924471945915</v>
-      </c>
-      <c r="DF26" s="9">
-        <f t="shared" si="87"/>
-        <v>86.166828248348622</v>
-      </c>
-      <c r="DG26" s="9">
-        <f t="shared" si="87"/>
-        <v>81.858486835931188</v>
-      </c>
-      <c r="DH26" s="9">
-        <f t="shared" si="87"/>
-        <v>77.765562494134628</v>
-      </c>
-      <c r="DI26" s="9">
-        <f t="shared" si="87"/>
-        <v>73.877284369427898</v>
-      </c>
-      <c r="DJ26" s="9">
-        <f t="shared" si="87"/>
-        <v>70.183420150956493</v>
-      </c>
-      <c r="DK26" s="9">
-        <f t="shared" si="87"/>
-        <v>66.674249143408659</v>
-      </c>
-      <c r="DL26" s="9">
-        <f t="shared" si="87"/>
-        <v>63.340536686238224</v>
-      </c>
-      <c r="DM26" s="9">
-        <f t="shared" si="87"/>
-        <v>60.173509851926312</v>
-      </c>
-      <c r="DN26" s="9">
-        <f t="shared" si="87"/>
-        <v>57.164834359329994</v>
-      </c>
-      <c r="DO26" s="9">
-        <f t="shared" si="87"/>
-        <v>54.306592641363494</v>
-      </c>
-      <c r="DP26" s="9">
-        <f t="shared" si="87"/>
-        <v>51.591263009295318</v>
-      </c>
-      <c r="DQ26" s="9">
-        <f t="shared" si="87"/>
-        <v>49.011699858830546</v>
-      </c>
-      <c r="DR26" s="9">
-        <f t="shared" si="87"/>
-        <v>46.561114865889017</v>
-      </c>
-      <c r="DS26" s="9">
-        <f t="shared" si="87"/>
-        <v>44.233059122594561</v>
-      </c>
-      <c r="DT26" s="9">
-        <f t="shared" si="87"/>
-        <v>42.021406166464828</v>
-      </c>
-      <c r="DU26" s="9">
-        <f t="shared" si="87"/>
-        <v>39.920335858141584</v>
-      </c>
-      <c r="DV26" s="9">
-        <f t="shared" si="87"/>
-        <v>37.924319065234506</v>
-      </c>
-      <c r="DW26" s="9">
-        <f t="shared" si="87"/>
-        <v>36.028103111972783</v>
-      </c>
-      <c r="DX26" s="9">
-        <f t="shared" si="87"/>
-        <v>34.226697956374139</v>
-      </c>
-      <c r="DY26" s="9">
-        <f t="shared" si="87"/>
-        <v>32.51536305855543</v>
-      </c>
-    </row>
-    <row r="27" spans="2:129" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="48" t="s">
+        <f t="shared" si="97"/>
+        <v>89.428967846603157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="28">
+        <f>C25+C26</f>
+        <v>-31414</v>
+      </c>
+      <c r="D27" s="28">
+        <f t="shared" ref="D27:I27" si="98">D25+D26</f>
+        <v>3706</v>
+      </c>
+      <c r="E27" s="28">
+        <f t="shared" si="98"/>
+        <v>-31701</v>
+      </c>
+      <c r="F27" s="28">
+        <f t="shared" si="33"/>
+        <v>31551</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="98"/>
+        <v>-26512</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="98"/>
+        <v>-51870</v>
+      </c>
+      <c r="I27" s="28">
+        <f t="shared" si="98"/>
+        <v>-53078</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" ref="J27:L27" si="99">J25+J26</f>
+        <v>-55080</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" si="99"/>
+        <v>-45426</v>
+      </c>
+      <c r="L27" s="28">
+        <f t="shared" si="99"/>
+        <v>4104</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28"/>
+      <c r="AR27" s="28"/>
+      <c r="AS27" s="28"/>
+      <c r="AT27" s="28">
+        <f t="shared" ref="AT27" si="100">+AT25-AT26</f>
+        <v>94.599000000000032</v>
+      </c>
+      <c r="AU27" s="28">
+        <f t="shared" ref="AU27:BC27" si="101">+AU25-AU26</f>
+        <v>163.23400000000009</v>
+      </c>
+      <c r="AV27" s="28">
+        <f t="shared" si="101"/>
+        <v>167.42599999999999</v>
+      </c>
+      <c r="AW27" s="28">
+        <f t="shared" si="101"/>
+        <v>65.031999999999925</v>
+      </c>
+      <c r="AX27" s="28">
+        <f t="shared" si="101"/>
+        <v>120.97700000000016</v>
+      </c>
+      <c r="AY27" s="28">
+        <f t="shared" si="101"/>
+        <v>144.9259999999999</v>
+      </c>
+      <c r="AZ27" s="28">
+        <f t="shared" si="101"/>
+        <v>111.52200000000002</v>
+      </c>
+      <c r="BA27" s="28">
+        <f t="shared" si="101"/>
+        <v>97.605000000000061</v>
+      </c>
+      <c r="BB27" s="28">
+        <f t="shared" si="101"/>
+        <v>95.236999999999824</v>
+      </c>
+      <c r="BC27" s="28">
+        <f t="shared" si="101"/>
+        <v>90.618000000000194</v>
+      </c>
+      <c r="BD27" s="28">
+        <f t="shared" ref="BD27" si="102">+BD25-BD26</f>
+        <v>415.47133639999993</v>
+      </c>
+      <c r="BE27" s="28">
+        <f t="shared" ref="BE27" si="103">+BE25-BE26</f>
+        <v>436.17896519999994</v>
+      </c>
+      <c r="BF27" s="28">
+        <f t="shared" ref="BF27" si="104">+BF25-BF26</f>
+        <v>476.91757200000012</v>
+      </c>
+      <c r="BG27" s="28"/>
+      <c r="BH27" s="28"/>
+      <c r="BI27" s="28">
+        <f t="shared" ref="BI27" si="105">BI25+BI26</f>
+        <v>-178920</v>
+      </c>
+      <c r="BJ27" s="28">
+        <f t="shared" ref="BJ27" si="106">BJ25+BJ26</f>
+        <v>-171843</v>
+      </c>
+      <c r="BK27" s="28">
+        <f t="shared" ref="BK27:BL27" si="107">BK25+BK26</f>
+        <v>-27858</v>
+      </c>
+      <c r="BL27" s="28">
+        <f t="shared" si="107"/>
+        <v>-188552</v>
+      </c>
+      <c r="BM27" s="28">
+        <f t="shared" ref="BM27" si="108">BM25+BM26</f>
+        <v>2587.7380000000121</v>
+      </c>
+      <c r="BN27" s="28">
+        <f t="shared" ref="BN27" si="109">BN25+BN26</f>
+        <v>-177571.04759999999</v>
+      </c>
+      <c r="BO27" s="28">
+        <f t="shared" ref="BO27:BP27" si="110">BO25+BO26</f>
+        <v>-103782.46855200001</v>
+      </c>
+      <c r="BP27" s="28">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="28"/>
+      <c r="BR27" s="28"/>
+      <c r="BS27" s="28"/>
+      <c r="BT27" s="28"/>
+      <c r="BU27" s="28"/>
+      <c r="BV27" s="28"/>
+      <c r="BW27" s="28">
+        <f>+BW25-BW26</f>
+        <v>499.72280000000063</v>
+      </c>
+      <c r="BX27" s="28">
+        <f t="shared" ref="BX27:CD27" si="111">+BX25-BX26</f>
+        <v>2144.7930240000001</v>
+      </c>
+      <c r="BY27" s="28">
+        <f t="shared" si="111"/>
+        <v>2539.2234169600006</v>
+      </c>
+      <c r="BZ27" s="28">
+        <f t="shared" si="111"/>
+        <v>2917.183379790401</v>
+      </c>
+      <c r="CA27" s="28">
+        <f t="shared" si="111"/>
+        <v>3300.1463863264971</v>
+      </c>
+      <c r="CB27" s="28">
+        <f t="shared" si="111"/>
+        <v>3704.8166112194317</v>
+      </c>
+      <c r="CC27" s="28">
+        <f t="shared" si="111"/>
+        <v>1219.1038378381886</v>
+      </c>
+      <c r="CD27" s="28">
+        <f t="shared" si="111"/>
+        <v>357.71587138641263</v>
+      </c>
+      <c r="CE27" s="9">
+        <f>CD27*(1+$CH$32)</f>
+        <v>339.83007781709199</v>
+      </c>
+      <c r="CF27" s="9">
+        <f t="shared" ref="CF27:DY27" si="112">CE27*(1+$CH$32)</f>
+        <v>322.83857392623736</v>
+      </c>
+      <c r="CG27" s="9">
+        <f t="shared" si="112"/>
+        <v>306.69664522992548</v>
+      </c>
+      <c r="CH27" s="9">
+        <f t="shared" si="112"/>
+        <v>291.36181296842921</v>
+      </c>
+      <c r="CI27" s="9">
+        <f t="shared" si="112"/>
+        <v>276.79372232000776</v>
+      </c>
+      <c r="CJ27" s="9">
+        <f t="shared" si="112"/>
+        <v>262.95403620400737</v>
+      </c>
+      <c r="CK27" s="9">
+        <f t="shared" si="112"/>
+        <v>249.80633439380699</v>
+      </c>
+      <c r="CL27" s="9">
+        <f t="shared" si="112"/>
+        <v>237.31601767411664</v>
+      </c>
+      <c r="CM27" s="9">
+        <f t="shared" si="112"/>
+        <v>225.45021679041079</v>
+      </c>
+      <c r="CN27" s="9">
+        <f t="shared" si="112"/>
+        <v>214.17770595089024</v>
+      </c>
+      <c r="CO27" s="9">
+        <f t="shared" si="112"/>
+        <v>203.46882065334572</v>
+      </c>
+      <c r="CP27" s="9">
+        <f t="shared" si="112"/>
+        <v>193.29537962067843</v>
+      </c>
+      <c r="CQ27" s="9">
+        <f t="shared" si="112"/>
+        <v>183.63061063964449</v>
+      </c>
+      <c r="CR27" s="9">
+        <f t="shared" si="112"/>
+        <v>174.44908010766227</v>
+      </c>
+      <c r="CS27" s="9">
+        <f t="shared" si="112"/>
+        <v>165.72662610227914</v>
+      </c>
+      <c r="CT27" s="9">
+        <f t="shared" si="112"/>
+        <v>157.44029479716517</v>
+      </c>
+      <c r="CU27" s="9">
+        <f t="shared" si="112"/>
+        <v>149.56828005730691</v>
+      </c>
+      <c r="CV27" s="9">
+        <f t="shared" si="112"/>
+        <v>142.08986605444156</v>
+      </c>
+      <c r="CW27" s="9">
+        <f t="shared" si="112"/>
+        <v>134.98537275171947</v>
+      </c>
+      <c r="CX27" s="9">
+        <f t="shared" si="112"/>
+        <v>128.2361041141335</v>
+      </c>
+      <c r="CY27" s="9">
+        <f t="shared" si="112"/>
+        <v>121.82429890842681</v>
+      </c>
+      <c r="CZ27" s="9">
+        <f t="shared" si="112"/>
+        <v>115.73308396300547</v>
+      </c>
+      <c r="DA27" s="9">
+        <f t="shared" si="112"/>
+        <v>109.9464297648552</v>
+      </c>
+      <c r="DB27" s="9">
+        <f t="shared" si="112"/>
+        <v>104.44910827661244</v>
+      </c>
+      <c r="DC27" s="9">
+        <f t="shared" si="112"/>
+        <v>99.226652862781805</v>
+      </c>
+      <c r="DD27" s="9">
+        <f t="shared" si="112"/>
+        <v>94.265320219642703</v>
+      </c>
+      <c r="DE27" s="9">
+        <f t="shared" si="112"/>
+        <v>89.552054208660564</v>
+      </c>
+      <c r="DF27" s="9">
+        <f t="shared" si="112"/>
+        <v>85.074451498227532</v>
+      </c>
+      <c r="DG27" s="9">
+        <f t="shared" si="112"/>
+        <v>80.820728923316153</v>
+      </c>
+      <c r="DH27" s="9">
+        <f t="shared" si="112"/>
+        <v>76.779692477150348</v>
+      </c>
+      <c r="DI27" s="9">
+        <f t="shared" si="112"/>
+        <v>72.940707853292821</v>
+      </c>
+      <c r="DJ27" s="9">
+        <f t="shared" si="112"/>
+        <v>69.293672460628173</v>
+      </c>
+      <c r="DK27" s="9">
+        <f t="shared" si="112"/>
+        <v>65.828988837596768</v>
+      </c>
+      <c r="DL27" s="9">
+        <f t="shared" si="112"/>
+        <v>62.537539395716927</v>
+      </c>
+      <c r="DM27" s="9">
+        <f t="shared" si="112"/>
+        <v>59.410662425931079</v>
+      </c>
+      <c r="DN27" s="9">
+        <f t="shared" si="112"/>
+        <v>56.440129304634524</v>
+      </c>
+      <c r="DO27" s="9">
+        <f t="shared" si="112"/>
+        <v>53.618122839402794</v>
+      </c>
+      <c r="DP27" s="9">
+        <f t="shared" si="112"/>
+        <v>50.937216697432653</v>
+      </c>
+      <c r="DQ27" s="9">
+        <f t="shared" si="112"/>
+        <v>48.390355862561016</v>
+      </c>
+      <c r="DR27" s="9">
+        <f t="shared" si="112"/>
+        <v>45.970838069432965</v>
+      </c>
+      <c r="DS27" s="9">
+        <f t="shared" si="112"/>
+        <v>43.672296165961313</v>
+      </c>
+      <c r="DT27" s="9">
+        <f t="shared" si="112"/>
+        <v>41.488681357663246</v>
+      </c>
+      <c r="DU27" s="9">
+        <f t="shared" si="112"/>
+        <v>39.414247289780079</v>
+      </c>
+      <c r="DV27" s="9">
+        <f t="shared" si="112"/>
+        <v>37.443534925291075</v>
+      </c>
+      <c r="DW27" s="9">
+        <f t="shared" si="112"/>
+        <v>35.571358179026518</v>
+      </c>
+      <c r="DX27" s="9">
+        <f t="shared" si="112"/>
+        <v>33.792790270075187</v>
+      </c>
+      <c r="DY27" s="9">
+        <f t="shared" si="112"/>
+        <v>32.103150756571424</v>
+      </c>
+    </row>
+    <row r="28" spans="2:129" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="48">
-        <f>C26/C28</f>
+      <c r="C28" s="48">
+        <f>C27/C29</f>
         <v>-0.26238024839843976</v>
       </c>
-      <c r="D27" s="48">
-        <f t="shared" ref="D27:I27" si="88">D26/D28</f>
+      <c r="D28" s="48">
+        <f t="shared" ref="D28:I28" si="113">D27/D29</f>
         <v>2.8887451185196155E-2</v>
       </c>
-      <c r="E27" s="48">
-        <f t="shared" si="88"/>
+      <c r="E28" s="48">
+        <f t="shared" si="113"/>
         <v>-0.25944233932678062</v>
       </c>
-      <c r="F27" s="48">
-        <f t="shared" si="88"/>
+      <c r="F28" s="48">
+        <f t="shared" si="113"/>
         <v>0.27127810498258886</v>
       </c>
-      <c r="G27" s="48">
-        <f t="shared" si="88"/>
+      <c r="G28" s="48">
+        <f t="shared" si="113"/>
         <v>-0.21472944187515691</v>
       </c>
-      <c r="H27" s="48">
-        <f t="shared" si="88"/>
+      <c r="H28" s="48">
+        <f t="shared" si="113"/>
         <v>-0.41386739009016199</v>
       </c>
-      <c r="I27" s="48">
-        <f t="shared" si="88"/>
+      <c r="I28" s="48">
+        <f t="shared" si="113"/>
         <v>-0.42038650403928401</v>
       </c>
-      <c r="J27" s="48">
-        <f t="shared" ref="J27:L27" si="89">J26/J28</f>
+      <c r="J28" s="48">
+        <f t="shared" ref="J28:L28" si="114">J27/J29</f>
         <v>-0.43551141754696693</v>
       </c>
-      <c r="K27" s="48">
-        <f t="shared" si="89"/>
+      <c r="K28" s="48">
+        <f t="shared" si="114"/>
         <v>-0.35478252719874415</v>
       </c>
-      <c r="L27" s="48">
-        <f t="shared" si="89"/>
+      <c r="L28" s="48">
+        <f t="shared" si="114"/>
         <v>3.1538662527089131E-2</v>
       </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48">
-        <f t="shared" ref="AT27" si="90">+AT26/AT28</f>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48">
+        <f t="shared" ref="AT28" si="115">+AT27/AT29</f>
         <v>0.4276086209702209</v>
       </c>
-      <c r="AU27" s="48">
-        <f>+AU26/AU28</f>
+      <c r="AU28" s="48">
+        <f t="shared" ref="AU28:BC28" si="116">+AU27/AU29</f>
         <v>0.73572906290705742</v>
       </c>
-      <c r="AV27" s="48">
-        <f>+AV26/AV28</f>
+      <c r="AV28" s="48">
+        <f t="shared" si="116"/>
         <v>0.75332283464566918</v>
       </c>
-      <c r="AW27" s="48">
-        <f>+AW26/AW28</f>
+      <c r="AW28" s="48">
+        <f t="shared" si="116"/>
         <v>0.29261005723336059</v>
       </c>
-      <c r="AX27" s="48">
-        <f>+AX26/AX28</f>
+      <c r="AX28" s="48">
+        <f t="shared" si="116"/>
         <v>0.54496844438238001</v>
       </c>
-      <c r="AY27" s="48">
-        <f>+AY26/AY28</f>
+      <c r="AY28" s="48">
+        <f t="shared" si="116"/>
         <v>0.65003812514016557</v>
       </c>
-      <c r="AZ27" s="48">
-        <f>+AZ26/AZ28</f>
+      <c r="AZ28" s="48">
+        <f t="shared" si="116"/>
         <v>0.49862068040471974</v>
       </c>
-      <c r="BA27" s="48">
-        <f>+BA26/BA28</f>
+      <c r="BA28" s="48">
+        <f t="shared" si="116"/>
         <v>0.43539645366343283</v>
       </c>
-      <c r="BB27" s="48">
-        <f>+BB26/BB28</f>
-        <v>1.6350092204750752</v>
-      </c>
-      <c r="BC27" s="48"/>
-      <c r="BD27" s="48"/>
-      <c r="BE27" s="48"/>
-      <c r="BF27" s="48"/>
-      <c r="BG27" s="48"/>
-      <c r="BH27" s="48"/>
-      <c r="BI27" s="48">
-        <f>BI26/BJ28</f>
+      <c r="BB28" s="48">
+        <f t="shared" si="116"/>
+        <v>0.42357676570005259</v>
+      </c>
+      <c r="BC28" s="48">
+        <f t="shared" si="116"/>
+        <v>0.40169511811302944</v>
+      </c>
+      <c r="BD28" s="48">
+        <f t="shared" ref="BD28" si="117">+BD27/BD29</f>
+        <v>1.8417180642673177</v>
+      </c>
+      <c r="BE28" s="48">
+        <f t="shared" ref="BE28" si="118">+BE27/BE29</f>
+        <v>1.9335116747713761</v>
+      </c>
+      <c r="BF28" s="48">
+        <f t="shared" ref="BF28" si="119">+BF27/BF29</f>
+        <v>2.1140994108755309</v>
+      </c>
+      <c r="BG28" s="48"/>
+      <c r="BH28" s="48"/>
+      <c r="BI28" s="48">
+        <f>BI27/BJ29</f>
         <v>-1.7380492116996784</v>
       </c>
-      <c r="BJ27" s="48">
-        <f>BJ26/BJ28</f>
+      <c r="BJ28" s="48">
+        <f>BJ27/BJ29</f>
         <v>-1.6693024294998202</v>
       </c>
-      <c r="BK27" s="48">
-        <f t="shared" ref="BK27" si="91">BK26/BK28</f>
+      <c r="BK28" s="48">
+        <f t="shared" ref="BK28" si="120">BK27/BK29</f>
         <v>-0.22904265465188936</v>
       </c>
-      <c r="BL27" s="48">
-        <f t="shared" ref="BL27" si="92">BL26/BL28</f>
+      <c r="BL28" s="48">
+        <f t="shared" ref="BL28" si="121">BL27/BL29</f>
         <v>-1.4918504921353293</v>
       </c>
-      <c r="BM27" s="48">
-        <f t="shared" ref="BM27" si="93">BM26/BM28</f>
+      <c r="BM28" s="48">
+        <f t="shared" ref="BM28" si="122">BM27/BM29</f>
         <v>1.9905676923077015E-2</v>
       </c>
-      <c r="BN27" s="48">
-        <f t="shared" ref="BN27" si="94">BN26/BN28</f>
+      <c r="BN28" s="48">
+        <f t="shared" ref="BN28" si="123">BN27/BN29</f>
         <v>-1.3659311353846153</v>
       </c>
-      <c r="BO27" s="48">
-        <f t="shared" ref="BO27:CA27" si="95">BO26/BO28</f>
+      <c r="BO28" s="48">
+        <f t="shared" ref="BO28:CA28" si="124">BO27/BO29</f>
         <v>-0.79832668116923078</v>
       </c>
-      <c r="BP27" s="48">
-        <f t="shared" si="95"/>
+      <c r="BP28" s="48">
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
-      <c r="BQ27" s="48"/>
-      <c r="BR27" s="48"/>
-      <c r="BS27" s="48"/>
-      <c r="BT27" s="48"/>
-      <c r="BU27" s="48"/>
-      <c r="BV27" s="48"/>
-      <c r="BW27" s="48">
-        <f t="shared" si="95"/>
-        <v>3.4389091815174062</v>
-      </c>
-      <c r="BX27" s="48">
-        <f t="shared" si="95"/>
-        <v>9.0997056738785265</v>
-      </c>
-      <c r="BY27" s="48">
-        <f t="shared" si="95"/>
-        <v>10.862969297549279</v>
-      </c>
-      <c r="BZ27" s="48">
-        <f t="shared" si="95"/>
-        <v>12.542107628092131</v>
-      </c>
-      <c r="CA27" s="48">
-        <f t="shared" si="95"/>
-        <v>14.243444586079963</v>
-      </c>
-      <c r="CB27" s="48">
-        <f t="shared" ref="CB27:CD27" si="96">CB26/CB28</f>
-        <v>16.041396397346528</v>
-      </c>
-      <c r="CC27" s="48">
-        <f t="shared" si="96"/>
-        <v>5.3389301918849004</v>
-      </c>
-      <c r="CD27" s="48">
-        <f t="shared" si="96"/>
-        <v>1.6193288002657793</v>
-      </c>
-    </row>
-    <row r="28" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="s">
+      <c r="BQ28" s="48"/>
+      <c r="BR28" s="48"/>
+      <c r="BS28" s="48"/>
+      <c r="BT28" s="48"/>
+      <c r="BU28" s="48"/>
+      <c r="BV28" s="48"/>
+      <c r="BW28" s="48">
+        <f t="shared" si="124"/>
+        <v>2.2318369497982444</v>
+      </c>
+      <c r="BX28" s="48">
+        <f t="shared" si="124"/>
+        <v>9.5789672206925651</v>
+      </c>
+      <c r="BY28" s="48">
+        <f t="shared" si="124"/>
+        <v>11.340552493831131</v>
+      </c>
+      <c r="BZ28" s="48">
+        <f t="shared" si="124"/>
+        <v>13.028578356547937</v>
+      </c>
+      <c r="CA28" s="48">
+        <f t="shared" si="124"/>
+        <v>14.738948562576329</v>
+      </c>
+      <c r="CB28" s="48">
+        <f t="shared" ref="CB28:CD28" si="125">CB27/CB29</f>
+        <v>16.546266460417321</v>
+      </c>
+      <c r="CC28" s="48">
+        <f t="shared" si="125"/>
+        <v>5.4447005238266355</v>
+      </c>
+      <c r="CD28" s="48">
+        <f t="shared" si="125"/>
+        <v>1.5976127150681763</v>
+      </c>
+    </row>
+    <row r="29" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C29" s="28">
         <v>119727</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D29" s="28">
         <v>128291</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E29" s="28">
         <v>122189</v>
       </c>
-      <c r="F28" s="28">
-        <f>4*BK28-SUM(C28:E28)</f>
+      <c r="F29" s="28">
+        <f>4*BK29-SUM(C29:E29)</f>
         <v>116305</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G29" s="28">
         <v>123467</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H29" s="28">
         <v>125330</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I29" s="28">
         <v>126260</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J29" s="28">
         <v>126472</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K29" s="28">
         <v>128039</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L29" s="28">
         <v>130126</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28"/>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="28"/>
-      <c r="AR28" s="28"/>
-      <c r="AS28" s="28"/>
-      <c r="AT28" s="28">
-        <v>221.22800000000001</v>
-      </c>
-      <c r="AU28" s="28">
-        <v>221.86699999999999</v>
-      </c>
-      <c r="AV28" s="28">
-        <v>222.25</v>
-      </c>
-      <c r="AW28" s="28">
-        <v>222.24799999999999</v>
-      </c>
-      <c r="AX28" s="28">
-        <v>221.989</v>
-      </c>
-      <c r="AY28" s="28">
-        <v>222.95</v>
-      </c>
-      <c r="AZ28" s="28">
-        <v>223.661</v>
-      </c>
-      <c r="BA28" s="28">
-        <v>224.17500000000001</v>
-      </c>
-      <c r="BB28" s="28">
-        <f>+BA28</f>
-        <v>224.17500000000001</v>
-      </c>
-      <c r="BC28" s="28"/>
-      <c r="BD28" s="28"/>
-      <c r="BE28" s="28"/>
-      <c r="BF28" s="28"/>
-      <c r="BG28" s="28"/>
-      <c r="BH28" s="28"/>
-      <c r="BI28" s="9">
-        <v>89785</v>
-      </c>
-      <c r="BJ28" s="9">
-        <v>102943</v>
-      </c>
-      <c r="BK28" s="9">
-        <v>121628</v>
-      </c>
-      <c r="BL28" s="9">
-        <v>126388</v>
-      </c>
-      <c r="BM28" s="9">
-        <v>130000</v>
-      </c>
-      <c r="BN28" s="9">
-        <v>130000</v>
-      </c>
-      <c r="BO28" s="9">
-        <v>130000</v>
-      </c>
-      <c r="BP28" s="9">
-        <v>175000</v>
-      </c>
-      <c r="BW28" s="9">
-        <f>AVERAGE(AY28:BB28)</f>
-        <v>223.74025</v>
-      </c>
-      <c r="BX28" s="9">
-        <f>+BW28</f>
-        <v>223.74025</v>
-      </c>
-      <c r="BY28" s="9">
-        <f t="shared" ref="BY28:CD28" si="97">+BX28</f>
-        <v>223.74025</v>
-      </c>
-      <c r="BZ28" s="9">
-        <f t="shared" si="97"/>
-        <v>223.74025</v>
-      </c>
-      <c r="CA28" s="9">
-        <f t="shared" si="97"/>
-        <v>223.74025</v>
-      </c>
-      <c r="CB28" s="9">
-        <f t="shared" si="97"/>
-        <v>223.74025</v>
-      </c>
-      <c r="CC28" s="9">
-        <f t="shared" si="97"/>
-        <v>223.74025</v>
-      </c>
-      <c r="CD28" s="9">
-        <f t="shared" si="97"/>
-        <v>223.74025</v>
-      </c>
-      <c r="CG28" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="CH28" s="9">
-        <f>NPV(CH29,BX26:DY26)+Main!K5-Main!K6</f>
-        <v>16613.198098726672</v>
-      </c>
-      <c r="CI28" s="27">
-        <f>+CH28/Main!K3</f>
-        <v>74.674292172864071</v>
-      </c>
-    </row>
-    <row r="29" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
       <c r="M29" s="28"/>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
@@ -9275,32 +9467,120 @@
       <c r="AQ29" s="28"/>
       <c r="AR29" s="28"/>
       <c r="AS29" s="28"/>
-      <c r="AT29" s="28"/>
-      <c r="AU29" s="28"/>
-      <c r="AV29" s="28"/>
-      <c r="AW29" s="28"/>
-      <c r="AX29" s="28"/>
-      <c r="AY29" s="28"/>
-      <c r="AZ29" s="28"/>
-      <c r="BA29" s="28"/>
-      <c r="BB29" s="28"/>
-      <c r="BC29" s="28"/>
-      <c r="BD29" s="28"/>
-      <c r="BE29" s="28"/>
-      <c r="BF29" s="28"/>
+      <c r="AT29" s="28">
+        <v>221.22800000000001</v>
+      </c>
+      <c r="AU29" s="28">
+        <v>221.86699999999999</v>
+      </c>
+      <c r="AV29" s="28">
+        <v>222.25</v>
+      </c>
+      <c r="AW29" s="28">
+        <v>222.24799999999999</v>
+      </c>
+      <c r="AX29" s="28">
+        <v>221.989</v>
+      </c>
+      <c r="AY29" s="28">
+        <v>222.95</v>
+      </c>
+      <c r="AZ29" s="28">
+        <v>223.661</v>
+      </c>
+      <c r="BA29" s="28">
+        <v>224.17500000000001</v>
+      </c>
+      <c r="BB29" s="28">
+        <v>224.84</v>
+      </c>
+      <c r="BC29" s="28">
+        <v>225.589</v>
+      </c>
+      <c r="BD29" s="28">
+        <f>+BC29</f>
+        <v>225.589</v>
+      </c>
+      <c r="BE29" s="28">
+        <f t="shared" ref="BE29:BF29" si="126">+BD29</f>
+        <v>225.589</v>
+      </c>
+      <c r="BF29" s="28">
+        <f t="shared" si="126"/>
+        <v>225.589</v>
+      </c>
       <c r="BG29" s="28"/>
       <c r="BH29" s="28"/>
+      <c r="BI29" s="9">
+        <v>89785</v>
+      </c>
+      <c r="BJ29" s="9">
+        <v>102943</v>
+      </c>
+      <c r="BK29" s="9">
+        <v>121628</v>
+      </c>
+      <c r="BL29" s="9">
+        <v>126388</v>
+      </c>
+      <c r="BM29" s="9">
+        <v>130000</v>
+      </c>
+      <c r="BN29" s="9">
+        <v>130000</v>
+      </c>
+      <c r="BO29" s="9">
+        <v>130000</v>
+      </c>
+      <c r="BP29" s="9">
+        <v>175000</v>
+      </c>
+      <c r="BW29" s="9">
+        <f>AVERAGE(AY29:BB29)</f>
+        <v>223.90650000000002</v>
+      </c>
+      <c r="BX29" s="9">
+        <f>+BW29</f>
+        <v>223.90650000000002</v>
+      </c>
+      <c r="BY29" s="9">
+        <f t="shared" ref="BY29:CD29" si="127">+BX29</f>
+        <v>223.90650000000002</v>
+      </c>
+      <c r="BZ29" s="9">
+        <f t="shared" si="127"/>
+        <v>223.90650000000002</v>
+      </c>
+      <c r="CA29" s="9">
+        <f t="shared" si="127"/>
+        <v>223.90650000000002</v>
+      </c>
+      <c r="CB29" s="9">
+        <f t="shared" si="127"/>
+        <v>223.90650000000002</v>
+      </c>
+      <c r="CC29" s="9">
+        <f t="shared" si="127"/>
+        <v>223.90650000000002</v>
+      </c>
+      <c r="CD29" s="9">
+        <f t="shared" si="127"/>
+        <v>223.90650000000002</v>
+      </c>
       <c r="CG29" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="CH29" s="80">
-        <v>0.08</v>
+        <v>68</v>
+      </c>
+      <c r="CH29" s="9">
+        <f>NPV(CH30,BX27:DY27)+Main!K5-Main!K6</f>
+        <v>17050.615064435511</v>
+      </c>
+      <c r="CI29" s="27">
+        <f>+CH29/Main!K3</f>
+        <v>75.445199400157122</v>
       </c>
     </row>
     <row r="30" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="50" t="s">
-        <v>419</v>
-      </c>
+      <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
@@ -9348,182 +9628,102 @@
       <c r="AU30" s="28"/>
       <c r="AV30" s="28"/>
       <c r="AW30" s="28"/>
-      <c r="AX30" s="45">
-        <f>AX15/AT15-1</f>
-        <v>0.19623581144620617</v>
-      </c>
-      <c r="AY30" s="45">
-        <f>AY15/AU15-1</f>
-        <v>0.21252385409397401</v>
-      </c>
-      <c r="AZ30" s="45">
-        <f>AZ15/AV15-1</f>
-        <v>0.12316159560277828</v>
-      </c>
-      <c r="BA30" s="45">
-        <f>+BA15/AW15-1</f>
-        <v>5.824775992400899E-2</v>
-      </c>
-      <c r="BB30" s="45">
-        <f>+BB15/AX15-1</f>
-        <v>-8.624191581995766E-2</v>
-      </c>
+      <c r="AX30" s="28"/>
+      <c r="AY30" s="28"/>
+      <c r="AZ30" s="28"/>
+      <c r="BA30" s="28"/>
+      <c r="BB30" s="28"/>
       <c r="BC30" s="28"/>
       <c r="BD30" s="28"/>
       <c r="BE30" s="28"/>
       <c r="BF30" s="28"/>
       <c r="BG30" s="28"/>
       <c r="BH30" s="28"/>
-      <c r="BX30" s="26">
-        <f>+BX15/BW15-1</f>
-        <v>0.12509909805802999</v>
-      </c>
-      <c r="BY30" s="26">
-        <f t="shared" ref="BY30:CD30" si="98">+BY15/BX15-1</f>
-        <v>0.10434343738649288</v>
-      </c>
-      <c r="BZ30" s="26">
-        <f t="shared" si="98"/>
-        <v>9.6240371493567123E-2</v>
-      </c>
-      <c r="CA30" s="26">
-        <f t="shared" si="98"/>
-        <v>9.535175068306101E-2</v>
-      </c>
-      <c r="CB30" s="26">
-        <f t="shared" si="98"/>
-        <v>9.762393659941826E-2</v>
-      </c>
-      <c r="CC30" s="26">
-        <f t="shared" si="98"/>
-        <v>-0.63732037711851919</v>
-      </c>
-      <c r="CD30" s="26">
-        <f t="shared" si="98"/>
-        <v>-0.62667315359399089</v>
-      </c>
       <c r="CG30" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="CH30" s="80">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="2:129" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="AX31" s="82">
+        <f>AX16/AT16-1</f>
+        <v>0.19623581144620617</v>
+      </c>
+      <c r="AY31" s="82">
+        <f>AY16/AU16-1</f>
+        <v>0.21252385409397401</v>
+      </c>
+      <c r="AZ31" s="82">
+        <f>AZ16/AV16-1</f>
+        <v>0.12316159560277828</v>
+      </c>
+      <c r="BA31" s="82">
+        <f>+BA16/AW16-1</f>
+        <v>5.824775992400899E-2</v>
+      </c>
+      <c r="BB31" s="82">
+        <f>+BB16/AX16-1</f>
+        <v>0.10315149233625243</v>
+      </c>
+      <c r="BC31" s="82">
+        <f>+BC16/AY16-1</f>
+        <v>0.10288379578170748</v>
+      </c>
+      <c r="BD31" s="82">
+        <f t="shared" ref="BD31:BF31" si="128">+BD16/AZ16-1</f>
+        <v>9.5684255250531924E-2</v>
+      </c>
+      <c r="BE31" s="82">
+        <f t="shared" si="128"/>
+        <v>7.3008685745102442E-2</v>
+      </c>
+      <c r="BF31" s="82">
+        <f t="shared" si="128"/>
+        <v>4.4958960633433964E-2</v>
+      </c>
+      <c r="BX31" s="82">
+        <f>+BX16/BW16-1</f>
+        <v>0.11966747385902887</v>
+      </c>
+      <c r="BY31" s="82">
+        <f t="shared" ref="BY31:CD31" si="129">+BY16/BX16-1</f>
+        <v>9.9253295467552682E-2</v>
+      </c>
+      <c r="BZ31" s="82">
+        <f t="shared" si="129"/>
+        <v>9.2869441986157542E-2</v>
+      </c>
+      <c r="CA31" s="82">
+        <f t="shared" si="129"/>
+        <v>9.2364475690782211E-2</v>
+      </c>
+      <c r="CB31" s="82">
+        <f t="shared" si="129"/>
+        <v>9.4867770377491834E-2</v>
+      </c>
+      <c r="CC31" s="82">
+        <f t="shared" si="129"/>
+        <v>-0.64133833643557836</v>
+      </c>
+      <c r="CD31" s="82">
+        <f t="shared" si="129"/>
+        <v>-0.63554982725965181</v>
+      </c>
+      <c r="CG31" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="CH30" s="26">
+      <c r="CH31" s="82">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="50" t="s">
-        <v>602</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28"/>
-      <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28"/>
-      <c r="AT31" s="28"/>
-      <c r="AU31" s="28"/>
-      <c r="AV31" s="28"/>
-      <c r="AW31" s="45"/>
-      <c r="AX31" s="45">
-        <f t="shared" ref="AW31:BA31" si="99">+AX8/AT8-1</f>
-        <v>0.14604493869006863</v>
-      </c>
-      <c r="AY31" s="45">
-        <f t="shared" si="99"/>
-        <v>0.16910523716475945</v>
-      </c>
-      <c r="AZ31" s="45">
-        <f t="shared" si="99"/>
-        <v>0.12969918061449204</v>
-      </c>
-      <c r="BA31" s="45">
-        <f t="shared" si="99"/>
-        <v>0.13194293470814222</v>
-      </c>
-      <c r="BB31" s="45">
-        <f>+BB8/AX8-1</f>
-        <v>6.0600638114691741E-2</v>
-      </c>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="28"/>
-      <c r="BE31" s="28"/>
-      <c r="BF31" s="28"/>
-      <c r="BG31" s="28"/>
-      <c r="BH31" s="28"/>
-      <c r="BX31" s="26">
-        <f>+BX8/BW8-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="BY31" s="26">
-        <f t="shared" ref="BY31:CD31" si="100">+BY8/BX8-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="BZ31" s="26">
-        <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="CA31" s="26">
-        <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="CB31" s="26">
-        <f t="shared" si="100"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="CC31" s="26">
-        <f t="shared" si="100"/>
-        <v>-0.8</v>
-      </c>
-      <c r="CD31" s="26">
-        <f t="shared" si="100"/>
-        <v>-0.8</v>
-      </c>
-      <c r="CG31" s="50" t="s">
-        <v>626</v>
-      </c>
-      <c r="CH31" s="26">
-        <v>-0.05</v>
       </c>
     </row>
     <row r="32" spans="2:129" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="50" t="s">
-        <v>420</v>
+        <v>602</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
@@ -9568,80 +9768,87 @@
       <c r="AQ32" s="28"/>
       <c r="AR32" s="28"/>
       <c r="AS32" s="28"/>
-      <c r="AT32" s="45">
-        <f t="shared" ref="AT32:AU32" si="101">AT17/AT15</f>
-        <v>0.95483062034498445</v>
-      </c>
-      <c r="AU32" s="45">
-        <f>AU17/AU15</f>
-        <v>0.96098015934700143</v>
-      </c>
-      <c r="AV32" s="45">
-        <f>AV17/AV15</f>
-        <v>0.95356986799135268</v>
-      </c>
-      <c r="AW32" s="45">
-        <f>AW17/AW15</f>
-        <v>0.95634245816446795</v>
-      </c>
+      <c r="AT32" s="28"/>
+      <c r="AU32" s="28"/>
+      <c r="AV32" s="28"/>
+      <c r="AW32" s="45"/>
       <c r="AX32" s="45">
-        <f>AX17/AX15</f>
-        <v>0.95339132659902837</v>
+        <f t="shared" ref="AX32:BA32" si="130">+AX8/AT8-1</f>
+        <v>0.14604493869006863</v>
       </c>
       <c r="AY32" s="45">
-        <f>AY17/AY15</f>
-        <v>0.95005830327248419</v>
+        <f t="shared" si="130"/>
+        <v>0.16910523716475945</v>
       </c>
       <c r="AZ32" s="45">
-        <f>AZ17/AZ15</f>
-        <v>0.94295473363731874</v>
+        <f t="shared" si="130"/>
+        <v>0.12969918061449204</v>
       </c>
       <c r="BA32" s="45">
-        <f>BA17/BA15</f>
-        <v>0.9410654400627716</v>
-      </c>
-      <c r="BB32" s="28"/>
-      <c r="BC32" s="28"/>
-      <c r="BD32" s="28"/>
-      <c r="BE32" s="28"/>
-      <c r="BF32" s="28"/>
+        <f t="shared" si="130"/>
+        <v>0.13194293470814222</v>
+      </c>
+      <c r="BB32" s="45">
+        <f>+BB8/AX8-1</f>
+        <v>9.3055016290494175E-2</v>
+      </c>
+      <c r="BC32" s="45">
+        <f>+BC8/AY8-1</f>
+        <v>6.5210923036233881E-2</v>
+      </c>
+      <c r="BD32" s="45">
+        <f t="shared" ref="BD32:BF32" si="131">+BD8/AZ8-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BE32" s="45">
+        <f t="shared" si="131"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="BF32" s="45">
+        <f t="shared" si="131"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="BG32" s="28"/>
       <c r="BH32" s="28"/>
-      <c r="BW32" s="26">
-        <f>+BW17/BW15</f>
-        <v>0.95000000000000007</v>
-      </c>
       <c r="BX32" s="26">
-        <f t="shared" ref="BX32:CD32" si="102">+BX17/BX15</f>
-        <v>0.95</v>
+        <f>+BX8/BW8-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="BY32" s="26">
-        <f t="shared" si="102"/>
-        <v>0.95</v>
+        <f t="shared" ref="BY32:CD32" si="132">+BY8/BX8-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="BZ32" s="26">
-        <f t="shared" si="102"/>
-        <v>0.95000000000000007</v>
+        <f t="shared" si="132"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="CA32" s="26">
-        <f t="shared" si="102"/>
-        <v>0.95</v>
+        <f t="shared" si="132"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="CB32" s="26">
-        <f t="shared" si="102"/>
-        <v>0.95000000000000007</v>
+        <f t="shared" si="132"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="CC32" s="26">
-        <f t="shared" si="102"/>
-        <v>0.95</v>
+        <f t="shared" si="132"/>
+        <v>-0.8</v>
       </c>
       <c r="CD32" s="26">
-        <f t="shared" si="102"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="28"/>
+        <f t="shared" si="132"/>
+        <v>-0.79999999999999993</v>
+      </c>
+      <c r="CG32" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="CH32" s="26">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="2:82" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="50" t="s">
+        <v>420</v>
+      </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -9685,26 +9892,95 @@
       <c r="AQ33" s="28"/>
       <c r="AR33" s="28"/>
       <c r="AS33" s="28"/>
-      <c r="AT33" s="28"/>
-      <c r="AU33" s="28"/>
-      <c r="AV33" s="28"/>
-      <c r="AW33" s="28"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28"/>
-      <c r="AZ33" s="28"/>
-      <c r="BA33" s="28"/>
-      <c r="BB33" s="28"/>
-      <c r="BC33" s="28"/>
-      <c r="BD33" s="28"/>
-      <c r="BE33" s="28"/>
-      <c r="BF33" s="28"/>
+      <c r="AT33" s="45">
+        <f t="shared" ref="AT33" si="133">AT18/AT16</f>
+        <v>0.95483062034498445</v>
+      </c>
+      <c r="AU33" s="45">
+        <f t="shared" ref="AU33:BC33" si="134">AU18/AU16</f>
+        <v>0.96098015934700143</v>
+      </c>
+      <c r="AV33" s="45">
+        <f t="shared" si="134"/>
+        <v>0.95356986799135268</v>
+      </c>
+      <c r="AW33" s="45">
+        <f t="shared" si="134"/>
+        <v>0.95634245816446795</v>
+      </c>
+      <c r="AX33" s="45">
+        <f t="shared" si="134"/>
+        <v>0.95339132659902837</v>
+      </c>
+      <c r="AY33" s="45">
+        <f t="shared" si="134"/>
+        <v>0.95005830327248419</v>
+      </c>
+      <c r="AZ33" s="45">
+        <f t="shared" si="134"/>
+        <v>0.94295473363731874</v>
+      </c>
+      <c r="BA33" s="45">
+        <f t="shared" si="134"/>
+        <v>0.9410654400627716</v>
+      </c>
+      <c r="BB33" s="45">
+        <f t="shared" si="134"/>
+        <v>0.94086985613917695</v>
+      </c>
+      <c r="BC33" s="45">
+        <f t="shared" si="134"/>
+        <v>0.9373430298773423</v>
+      </c>
+      <c r="BD33" s="45">
+        <f t="shared" ref="BD33:BF33" si="135">BD18/BD16</f>
+        <v>0.95</v>
+      </c>
+      <c r="BE33" s="45">
+        <f t="shared" si="135"/>
+        <v>0.95</v>
+      </c>
+      <c r="BF33" s="45">
+        <f t="shared" si="135"/>
+        <v>0.95</v>
+      </c>
       <c r="BG33" s="28"/>
       <c r="BH33" s="28"/>
-    </row>
-    <row r="34" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="50" t="s">
-        <v>367</v>
-      </c>
+      <c r="BW33" s="26">
+        <f>+BW18/BW16</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="BX33" s="26">
+        <f t="shared" ref="BX33:CD33" si="136">+BX18/BX16</f>
+        <v>0.95</v>
+      </c>
+      <c r="BY33" s="26">
+        <f t="shared" si="136"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="BZ33" s="26">
+        <f t="shared" si="136"/>
+        <v>0.95</v>
+      </c>
+      <c r="CA33" s="26">
+        <f t="shared" si="136"/>
+        <v>0.95</v>
+      </c>
+      <c r="CB33" s="26">
+        <f t="shared" si="136"/>
+        <v>0.95</v>
+      </c>
+      <c r="CC33" s="26">
+        <f t="shared" si="136"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="CD33" s="26">
+        <f t="shared" si="136"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:82" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -9763,23 +10039,11 @@
       <c r="BF34" s="28"/>
       <c r="BG34" s="28"/>
       <c r="BH34" s="28"/>
-      <c r="BM34" s="9">
-        <v>265540</v>
-      </c>
-      <c r="BN34" s="9">
-        <v>380920</v>
-      </c>
-      <c r="BO34" s="9">
-        <v>503670</v>
-      </c>
-      <c r="BP34" s="9">
-        <v>746790</v>
-      </c>
-      <c r="BQ34" s="9">
-        <v>972400</v>
-      </c>
-    </row>
-    <row r="35" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:82" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="50" t="s">
+        <v>367</v>
+      </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -9838,11 +10102,23 @@
       <c r="BF35" s="28"/>
       <c r="BG35" s="28"/>
       <c r="BH35" s="28"/>
-    </row>
-    <row r="36" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="50" t="s">
-        <v>366</v>
-      </c>
+      <c r="BM35" s="9">
+        <v>265540</v>
+      </c>
+      <c r="BN35" s="9">
+        <v>380920</v>
+      </c>
+      <c r="BO35" s="9">
+        <v>503670</v>
+      </c>
+      <c r="BP35" s="9">
+        <v>746790</v>
+      </c>
+      <c r="BQ35" s="9">
+        <v>972400</v>
+      </c>
+    </row>
+    <row r="36" spans="2:82" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
@@ -9901,87 +10177,21 @@
       <c r="BF36" s="28"/>
       <c r="BG36" s="28"/>
       <c r="BH36" s="28"/>
-      <c r="BI36" s="9">
-        <f>BI37+BI38-BI57</f>
-        <v>-178384</v>
-      </c>
-      <c r="BJ36" s="9">
-        <f t="shared" ref="BJ36:BL36" si="103">BJ37+BJ38-BJ57</f>
-        <v>87016</v>
-      </c>
-      <c r="BK36" s="9">
-        <f t="shared" si="103"/>
-        <v>168612</v>
-      </c>
-      <c r="BL36" s="9">
-        <f t="shared" si="103"/>
-        <v>-19265</v>
-      </c>
-      <c r="BM36" s="9">
-        <f t="shared" ref="BM36:CD36" si="104">BL36+BM26</f>
-        <v>-16677.261999999988</v>
-      </c>
-      <c r="BN36" s="9">
-        <f t="shared" si="104"/>
-        <v>-194248.30959999998</v>
-      </c>
-      <c r="BO36" s="9">
-        <f t="shared" si="104"/>
-        <v>-298030.77815199998</v>
-      </c>
-      <c r="BP36" s="9">
-        <f t="shared" si="104"/>
-        <v>-298030.77815199998</v>
-      </c>
-      <c r="BQ36" s="9">
-        <f t="shared" si="104"/>
-        <v>-298030.77815199998</v>
-      </c>
-    </row>
-    <row r="37" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:82" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="28">
-        <f>404746+17494</f>
-        <v>422240</v>
-      </c>
-      <c r="D37" s="28">
-        <f>414088+8102</f>
-        <v>422190</v>
-      </c>
-      <c r="E37" s="28">
-        <f>388804+6781</f>
-        <v>395585</v>
-      </c>
-      <c r="F37" s="9">
-        <f>417912+6256</f>
-        <v>424168</v>
-      </c>
-      <c r="G37" s="28">
-        <f>377843+5783</f>
-        <v>383626</v>
-      </c>
-      <c r="H37" s="28">
-        <f>359074+5036</f>
-        <v>364110</v>
-      </c>
-      <c r="I37" s="28">
-        <f>312328+4647</f>
-        <v>316975</v>
-      </c>
-      <c r="J37" s="28">
-        <f>273164+4430</f>
-        <v>277594</v>
-      </c>
-      <c r="K37" s="28">
-        <f>231855+4556</f>
-        <v>236411</v>
-      </c>
-      <c r="L37" s="28">
-        <f>257563+4244</f>
-        <v>261807</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
@@ -10020,10 +10230,7 @@
       <c r="AV37" s="28"/>
       <c r="AW37" s="28"/>
       <c r="AX37" s="28"/>
-      <c r="AY37" s="28">
-        <f>2256.759+287.401+1.7+174.681</f>
-        <v>2720.5409999999997</v>
-      </c>
+      <c r="AY37" s="28"/>
       <c r="AZ37" s="28"/>
       <c r="BA37" s="28"/>
       <c r="BB37" s="28"/>
@@ -10034,61 +10241,85 @@
       <c r="BG37" s="28"/>
       <c r="BH37" s="28"/>
       <c r="BI37" s="9">
-        <f>178767+19257+19759</f>
-        <v>217783</v>
+        <f>BI38+BI39-BI58</f>
+        <v>-178384</v>
       </c>
       <c r="BJ37" s="9">
-        <f>449824+20594+3513</f>
-        <v>473931</v>
+        <f t="shared" ref="BJ37:BL37" si="137">BJ38+BJ39-BJ58</f>
+        <v>87016</v>
       </c>
       <c r="BK37" s="9">
+        <f t="shared" si="137"/>
+        <v>168612</v>
+      </c>
+      <c r="BL37" s="9">
+        <f t="shared" si="137"/>
+        <v>-19265</v>
+      </c>
+      <c r="BM37" s="9">
+        <f t="shared" ref="BM37:BQ37" si="138">BL37+BM27</f>
+        <v>-16677.261999999988</v>
+      </c>
+      <c r="BN37" s="9">
+        <f t="shared" si="138"/>
+        <v>-194248.30959999998</v>
+      </c>
+      <c r="BO37" s="9">
+        <f t="shared" si="138"/>
+        <v>-298030.77815199998</v>
+      </c>
+      <c r="BP37" s="9">
+        <f t="shared" si="138"/>
+        <v>-298030.77815199998</v>
+      </c>
+      <c r="BQ37" s="9">
+        <f t="shared" si="138"/>
+        <v>-298030.77815199998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:82" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="28">
+        <f>404746+17494</f>
+        <v>422240</v>
+      </c>
+      <c r="D38" s="28">
+        <f>414088+8102</f>
+        <v>422190</v>
+      </c>
+      <c r="E38" s="28">
+        <f>388804+6781</f>
+        <v>395585</v>
+      </c>
+      <c r="F38" s="9">
         <f>417912+6256</f>
         <v>424168</v>
       </c>
-      <c r="BL37" s="28">
+      <c r="G38" s="28">
+        <f>377843+5783</f>
+        <v>383626</v>
+      </c>
+      <c r="H38" s="28">
+        <f>359074+5036</f>
+        <v>364110</v>
+      </c>
+      <c r="I38" s="28">
+        <f>312328+4647</f>
+        <v>316975</v>
+      </c>
+      <c r="J38" s="28">
         <f>273164+4430</f>
         <v>277594</v>
       </c>
-    </row>
-    <row r="38" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="9">
-        <f>19045+37447+14</f>
-        <v>56506</v>
-      </c>
-      <c r="D38" s="9">
-        <f>18980+28267</f>
-        <v>47247</v>
-      </c>
-      <c r="E38" s="9">
-        <f>18993+28375</f>
-        <v>47368</v>
-      </c>
-      <c r="F38" s="9">
-        <f>18985+18891</f>
-        <v>37876</v>
-      </c>
-      <c r="G38" s="28">
-        <v>18994</v>
-      </c>
-      <c r="H38" s="28">
-        <f>18990+9971</f>
-        <v>28961</v>
-      </c>
-      <c r="I38" s="28">
-        <f>18997+9985</f>
-        <v>28982</v>
-      </c>
-      <c r="J38" s="28">
-        <v>19294</v>
-      </c>
       <c r="K38" s="28">
-        <v>19295</v>
+        <f>231855+4556</f>
+        <v>236411</v>
       </c>
       <c r="L38" s="28">
-        <v>9499</v>
+        <f>257563+4244</f>
+        <v>261807</v>
       </c>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -10129,7 +10360,8 @@
       <c r="AW38" s="28"/>
       <c r="AX38" s="28"/>
       <c r="AY38" s="28">
-        <v>0</v>
+        <f>2256.759+287.401+1.7+174.681</f>
+        <v>2720.5409999999997</v>
       </c>
       <c r="AZ38" s="28"/>
       <c r="BA38" s="28"/>
@@ -10141,54 +10373,61 @@
       <c r="BG38" s="28"/>
       <c r="BH38" s="28"/>
       <c r="BI38" s="9">
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="28">
-        <f>19032+37191</f>
-        <v>56223</v>
+        <f>178767+19257+19759</f>
+        <v>217783</v>
+      </c>
+      <c r="BJ38" s="9">
+        <f>449824+20594+3513</f>
+        <v>473931</v>
       </c>
       <c r="BK38" s="9">
+        <f>417912+6256</f>
+        <v>424168</v>
+      </c>
+      <c r="BL38" s="28">
+        <f>273164+4430</f>
+        <v>277594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:82" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="9">
+        <f>19045+37447+14</f>
+        <v>56506</v>
+      </c>
+      <c r="D39" s="9">
+        <f>18980+28267</f>
+        <v>47247</v>
+      </c>
+      <c r="E39" s="9">
+        <f>18993+28375</f>
+        <v>47368</v>
+      </c>
+      <c r="F39" s="9">
         <f>18985+18891</f>
         <v>37876</v>
       </c>
-      <c r="BL38" s="28">
+      <c r="G39" s="28">
+        <v>18994</v>
+      </c>
+      <c r="H39" s="28">
+        <f>18990+9971</f>
+        <v>28961</v>
+      </c>
+      <c r="I39" s="28">
+        <f>18997+9985</f>
+        <v>28982</v>
+      </c>
+      <c r="J39" s="28">
         <v>19294</v>
       </c>
-    </row>
-    <row r="39" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C39" s="9">
-        <v>5253</v>
-      </c>
-      <c r="D39" s="9">
-        <v>6360</v>
-      </c>
-      <c r="E39" s="9">
-        <v>4735</v>
-      </c>
-      <c r="F39" s="9">
-        <v>5701</v>
-      </c>
-      <c r="G39" s="28">
-        <f>16579+18911</f>
-        <v>35490</v>
-      </c>
-      <c r="H39" s="28">
-        <v>2376</v>
-      </c>
-      <c r="I39" s="28">
-        <v>2462</v>
-      </c>
-      <c r="J39" s="28">
-        <v>6415</v>
-      </c>
       <c r="K39" s="28">
-        <v>13010</v>
+        <v>19295</v>
       </c>
       <c r="L39" s="28">
-        <v>13841</v>
+        <v>9499</v>
       </c>
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
@@ -10229,7 +10468,7 @@
       <c r="AW39" s="28"/>
       <c r="AX39" s="28"/>
       <c r="AY39" s="28">
-        <v>562.34400000000005</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="28"/>
       <c r="BA39" s="28"/>
@@ -10241,467 +10480,471 @@
       <c r="BG39" s="28"/>
       <c r="BH39" s="28"/>
       <c r="BI39" s="9">
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="28">
+        <f>19032+37191</f>
+        <v>56223</v>
+      </c>
+      <c r="BK39" s="9">
+        <f>18985+18891</f>
+        <v>37876</v>
+      </c>
+      <c r="BL39" s="28">
+        <v>19294</v>
+      </c>
+    </row>
+    <row r="40" spans="2:82" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="9">
+        <v>5253</v>
+      </c>
+      <c r="D40" s="9">
+        <v>6360</v>
+      </c>
+      <c r="E40" s="9">
+        <v>4735</v>
+      </c>
+      <c r="F40" s="9">
+        <v>5701</v>
+      </c>
+      <c r="G40" s="28">
+        <f>16579+18911</f>
+        <v>35490</v>
+      </c>
+      <c r="H40" s="28">
+        <v>2376</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2462</v>
+      </c>
+      <c r="J40" s="28">
+        <v>6415</v>
+      </c>
+      <c r="K40" s="28">
+        <v>13010</v>
+      </c>
+      <c r="L40" s="28">
+        <v>13841</v>
+      </c>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="28"/>
+      <c r="AV40" s="28"/>
+      <c r="AW40" s="28"/>
+      <c r="AX40" s="28"/>
+      <c r="AY40" s="28">
+        <v>562.34400000000005</v>
+      </c>
+      <c r="AZ40" s="28"/>
+      <c r="BA40" s="28"/>
+      <c r="BB40" s="28"/>
+      <c r="BC40" s="28"/>
+      <c r="BD40" s="28"/>
+      <c r="BE40" s="28"/>
+      <c r="BF40" s="28"/>
+      <c r="BG40" s="28"/>
+      <c r="BH40" s="28"/>
+      <c r="BI40" s="9">
         <v>1050</v>
       </c>
-      <c r="BJ39" s="28">
+      <c r="BJ40" s="28">
         <v>163661</v>
       </c>
-      <c r="BK39" s="9">
+      <c r="BK40" s="9">
         <v>5701</v>
       </c>
-      <c r="BL39" s="28">
+      <c r="BL40" s="28">
         <v>6415</v>
       </c>
     </row>
-    <row r="40" spans="2:74" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="28" t="s">
+    <row r="41" spans="2:82" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C41" s="28">
         <v>4269</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D41" s="28">
         <v>3762</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E41" s="28">
         <v>3232</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F41" s="28">
         <v>6600</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G41" s="28">
         <v>6769</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H41" s="28">
         <v>6447</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I41" s="28">
         <v>7984</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J41" s="28">
         <v>7475</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K41" s="28">
         <v>7446</v>
       </c>
-      <c r="L40" s="28">
+      <c r="L41" s="28">
         <v>8823</v>
       </c>
-      <c r="AY40" s="28">
+      <c r="AY41" s="28">
         <v>146.13</v>
       </c>
-      <c r="BI40" s="28">
+      <c r="BI41" s="28">
         <v>6420</v>
       </c>
-      <c r="BJ40" s="28">
+      <c r="BJ41" s="28">
         <v>2944</v>
       </c>
-      <c r="BK40" s="28">
+      <c r="BK41" s="28">
         <v>6600</v>
       </c>
-      <c r="BL40" s="28">
+      <c r="BL41" s="28">
         <v>7475</v>
       </c>
     </row>
-    <row r="41" spans="2:74" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="28" t="s">
+    <row r="42" spans="2:82" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C42" s="28">
         <v>1808</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D42" s="28">
         <v>2159</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E42" s="28">
         <v>2385</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F42" s="28">
         <v>4804</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G42" s="28">
         <v>4934</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H42" s="28">
         <v>5500</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I42" s="28">
         <v>6077</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J42" s="28">
         <v>6431</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K42" s="28">
         <v>6232</v>
       </c>
-      <c r="L41" s="28">
+      <c r="L42" s="28">
         <v>6515</v>
       </c>
-      <c r="AY41" s="28">
+      <c r="AY42" s="28">
         <v>729.21699999999998</v>
       </c>
-      <c r="BI41" s="28">
+      <c r="BI42" s="28">
         <v>2796</v>
       </c>
-      <c r="BJ41" s="28">
+      <c r="BJ42" s="28">
         <v>1752</v>
       </c>
-      <c r="BK41" s="28">
+      <c r="BK42" s="28">
         <v>4804</v>
       </c>
-      <c r="BL41" s="28">
+      <c r="BL42" s="28">
         <v>6431</v>
       </c>
-      <c r="BV41" s="45"/>
-    </row>
-    <row r="42" spans="2:74" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="50" t="s">
+      <c r="BV42" s="45"/>
+    </row>
+    <row r="43" spans="2:82" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J43" s="28">
         <v>3536</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K43" s="28">
         <v>3513</v>
       </c>
-      <c r="L42" s="28">
+      <c r="L43" s="28">
         <f>188+4144</f>
         <v>4332</v>
       </c>
-      <c r="AY42" s="28">
+      <c r="AY43" s="28">
         <f>35.457+35.384</f>
         <v>70.841000000000008</v>
       </c>
-      <c r="BL42" s="28">
+      <c r="BL43" s="28">
         <v>3536</v>
       </c>
     </row>
-    <row r="43" spans="2:74" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="50" t="s">
+    <row r="44" spans="2:82" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="AY43" s="28">
+      <c r="AY44" s="28">
         <v>27.391999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:74" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="50" t="s">
+    <row r="45" spans="2:82" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="AY44" s="28">
+      <c r="AY45" s="28">
         <f>155.593+145.371</f>
         <v>300.964</v>
       </c>
     </row>
-    <row r="45" spans="2:74" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="50" t="s">
+    <row r="46" spans="2:82" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="AY45" s="28">
+      <c r="AY46" s="28">
         <v>465.36900000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:74" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="28" t="s">
+    <row r="47" spans="2:82" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C47" s="9">
         <v>12587</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>11962</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>11335</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F47" s="28">
         <v>10432</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>9793</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="9">
         <v>9269</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="9">
         <v>8744</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J47" s="9">
         <v>8217</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K47" s="9">
         <v>7686</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L47" s="9">
         <v>7154</v>
       </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="9"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="9"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="9"/>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="9"/>
-      <c r="AQ46" s="9"/>
-      <c r="AR46" s="9"/>
-      <c r="AS46" s="9"/>
-      <c r="AT46" s="9"/>
-      <c r="AU46" s="9"/>
-      <c r="AV46" s="9"/>
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="9"/>
-      <c r="AY46" s="9">
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="9"/>
+      <c r="AP47" s="9"/>
+      <c r="AQ47" s="9"/>
+      <c r="AR47" s="9"/>
+      <c r="AS47" s="9"/>
+      <c r="AT47" s="9"/>
+      <c r="AU47" s="9"/>
+      <c r="AV47" s="9"/>
+      <c r="AW47" s="9"/>
+      <c r="AX47" s="9"/>
+      <c r="AY47" s="9">
         <v>31.422999999999998</v>
       </c>
-      <c r="AZ46" s="9"/>
-      <c r="BA46" s="9"/>
-      <c r="BB46" s="9"/>
-      <c r="BC46" s="9"/>
-      <c r="BD46" s="9"/>
-      <c r="BE46" s="9"/>
-      <c r="BF46" s="9"/>
-      <c r="BG46" s="9"/>
-      <c r="BI46" s="28">
+      <c r="AZ47" s="9"/>
+      <c r="BA47" s="9"/>
+      <c r="BB47" s="9"/>
+      <c r="BC47" s="9"/>
+      <c r="BD47" s="9"/>
+      <c r="BE47" s="9"/>
+      <c r="BF47" s="9"/>
+      <c r="BG47" s="9"/>
+      <c r="BI47" s="28">
         <v>4339</v>
       </c>
-      <c r="BJ46" s="28">
+      <c r="BJ47" s="28">
         <v>13879</v>
       </c>
-      <c r="BK46" s="28">
+      <c r="BK47" s="28">
         <v>10432</v>
       </c>
-      <c r="BL46" s="9">
+      <c r="BL47" s="9">
         <v>8217</v>
       </c>
-      <c r="BU46" s="28" t="s">
+      <c r="BU47" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="BV46" s="28">
-        <f>BV42/AVERAGE(BL28:CA28)</f>
+      <c r="BV47" s="28">
+        <f>BV43/AVERAGE(BL29:CA29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:74" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="50" t="s">
+    <row r="48" spans="2:82" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="C47" s="50">
-        <f>SUM(C37:C46)</f>
+      <c r="C48" s="50">
+        <f>SUM(C38:C47)</f>
         <v>502663</v>
       </c>
-      <c r="D47" s="50">
-        <f t="shared" ref="D47:L47" si="105">SUM(D37:D46)</f>
+      <c r="D48" s="50">
+        <f t="shared" ref="D48:L48" si="139">SUM(D38:D47)</f>
         <v>493680</v>
       </c>
-      <c r="E47" s="50">
-        <f t="shared" si="105"/>
+      <c r="E48" s="50">
+        <f t="shared" si="139"/>
         <v>464640</v>
       </c>
-      <c r="F47" s="50">
-        <f t="shared" ref="F47" si="106">SUM(F37:F46)</f>
+      <c r="F48" s="50">
+        <f t="shared" ref="F48" si="140">SUM(F38:F47)</f>
         <v>489581</v>
       </c>
-      <c r="G47" s="50">
-        <f t="shared" si="105"/>
+      <c r="G48" s="50">
+        <f t="shared" si="139"/>
         <v>459606</v>
       </c>
-      <c r="H47" s="50">
-        <f t="shared" si="105"/>
+      <c r="H48" s="50">
+        <f t="shared" si="139"/>
         <v>416663</v>
       </c>
-      <c r="I47" s="50">
-        <f t="shared" si="105"/>
+      <c r="I48" s="50">
+        <f t="shared" si="139"/>
         <v>371224</v>
       </c>
-      <c r="J47" s="50">
-        <f t="shared" si="105"/>
+      <c r="J48" s="50">
+        <f t="shared" si="139"/>
         <v>328962</v>
       </c>
-      <c r="K47" s="50">
-        <f t="shared" si="105"/>
+      <c r="K48" s="50">
+        <f t="shared" si="139"/>
         <v>293593</v>
       </c>
-      <c r="L47" s="50">
-        <f t="shared" si="105"/>
+      <c r="L48" s="50">
+        <f t="shared" si="139"/>
         <v>311971</v>
       </c>
-      <c r="AY47" s="50">
-        <f>SUM(AY37:AY46)</f>
+      <c r="AY48" s="50">
+        <f>SUM(AY38:AY47)</f>
         <v>5054.2209999999995</v>
       </c>
-      <c r="BI47" s="50">
-        <f>SUM(BI37:BI46)</f>
+      <c r="BI48" s="50">
+        <f>SUM(BI38:BI47)</f>
         <v>232388</v>
       </c>
-      <c r="BJ47" s="50">
-        <f t="shared" ref="BJ47:BL47" si="107">SUM(BJ37:BJ46)</f>
+      <c r="BJ48" s="50">
+        <f t="shared" ref="BJ48:BL48" si="141">SUM(BJ38:BJ47)</f>
         <v>712390</v>
       </c>
-      <c r="BK47" s="50">
-        <f t="shared" si="107"/>
+      <c r="BK48" s="50">
+        <f t="shared" si="141"/>
         <v>489581</v>
       </c>
-      <c r="BL47" s="50">
-        <f t="shared" si="107"/>
+      <c r="BL48" s="50">
+        <f t="shared" si="141"/>
         <v>328962</v>
       </c>
     </row>
-    <row r="48" spans="2:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="BU48" s="28"/>
-      <c r="BV48" s="28"/>
-    </row>
-    <row r="49" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="50" t="s">
-        <v>424</v>
-      </c>
-      <c r="C49" s="9">
-        <v>13304</v>
-      </c>
-      <c r="D49" s="9">
-        <v>9158</v>
-      </c>
-      <c r="E49" s="9">
-        <v>7750</v>
-      </c>
-      <c r="F49" s="28">
-        <v>10773</v>
-      </c>
-      <c r="G49" s="9">
-        <v>7791</v>
-      </c>
-      <c r="H49" s="9">
-        <v>8788</v>
-      </c>
-      <c r="I49" s="9">
-        <v>11038</v>
-      </c>
-      <c r="J49" s="9">
-        <v>14939</v>
-      </c>
-      <c r="K49" s="9">
-        <v>13174</v>
-      </c>
-      <c r="L49" s="9">
-        <v>11102</v>
-      </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
-      <c r="Z49" s="9"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
-      <c r="AC49" s="9"/>
-      <c r="AD49" s="9"/>
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="9"/>
-      <c r="AG49" s="9"/>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="9"/>
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="9"/>
-      <c r="AL49" s="9"/>
-      <c r="AM49" s="9"/>
-      <c r="AN49" s="9"/>
-      <c r="AO49" s="9"/>
-      <c r="AP49" s="9"/>
-      <c r="AQ49" s="9"/>
-      <c r="AR49" s="9"/>
-      <c r="AS49" s="9"/>
-      <c r="AT49" s="9"/>
-      <c r="AU49" s="9"/>
-      <c r="AV49" s="9"/>
-      <c r="AW49" s="9"/>
-      <c r="AX49" s="9"/>
-      <c r="AY49" s="9">
-        <v>152.547</v>
-      </c>
-      <c r="AZ49" s="9"/>
-      <c r="BA49" s="9"/>
-      <c r="BB49" s="9"/>
-      <c r="BC49" s="9"/>
-      <c r="BD49" s="9"/>
-      <c r="BE49" s="9"/>
-      <c r="BF49" s="9"/>
-      <c r="BG49" s="9"/>
-      <c r="BI49" s="28">
-        <v>15679</v>
-      </c>
-      <c r="BJ49" s="28">
-        <v>20964</v>
-      </c>
-      <c r="BK49" s="28">
-        <v>10773</v>
-      </c>
-      <c r="BL49" s="9">
-        <v>14939</v>
-      </c>
+    <row r="49" spans="2:79" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BU49" s="28"/>
+      <c r="BV49" s="28"/>
     </row>
     <row r="50" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="50" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C50" s="9">
-        <v>7842</v>
+        <v>13304</v>
       </c>
       <c r="D50" s="9">
-        <v>8019</v>
+        <v>9158</v>
       </c>
       <c r="E50" s="9">
-        <v>10920</v>
+        <v>7750</v>
       </c>
       <c r="F50" s="28">
-        <v>14678</v>
+        <v>10773</v>
       </c>
       <c r="G50" s="9">
-        <v>9085</v>
+        <v>7791</v>
       </c>
       <c r="H50" s="9">
-        <v>10099</v>
+        <v>8788</v>
       </c>
       <c r="I50" s="9">
-        <v>13608</v>
+        <v>11038</v>
       </c>
       <c r="J50" s="9">
-        <v>21856</v>
+        <v>14939</v>
       </c>
       <c r="K50" s="9">
-        <v>11981</v>
+        <v>13174</v>
       </c>
       <c r="L50" s="9">
-        <v>13122</v>
+        <v>11102</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -10742,7 +10985,7 @@
       <c r="AW50" s="9"/>
       <c r="AX50" s="9"/>
       <c r="AY50" s="9">
-        <v>83.656999999999996</v>
+        <v>152.547</v>
       </c>
       <c r="AZ50" s="9"/>
       <c r="BA50" s="9"/>
@@ -10753,51 +10996,51 @@
       <c r="BF50" s="9"/>
       <c r="BG50" s="9"/>
       <c r="BI50" s="28">
-        <v>9330</v>
+        <v>15679</v>
       </c>
       <c r="BJ50" s="28">
-        <v>13418</v>
+        <v>20964</v>
       </c>
       <c r="BK50" s="28">
+        <v>10773</v>
+      </c>
+      <c r="BL50" s="9">
+        <v>14939</v>
+      </c>
+    </row>
+    <row r="51" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="C51" s="9">
+        <v>7842</v>
+      </c>
+      <c r="D51" s="9">
+        <v>8019</v>
+      </c>
+      <c r="E51" s="9">
+        <v>10920</v>
+      </c>
+      <c r="F51" s="28">
         <v>14678</v>
       </c>
-      <c r="BL50" s="9">
+      <c r="G51" s="9">
+        <v>9085</v>
+      </c>
+      <c r="H51" s="9">
+        <v>10099</v>
+      </c>
+      <c r="I51" s="9">
+        <v>13608</v>
+      </c>
+      <c r="J51" s="9">
         <v>21856</v>
       </c>
-    </row>
-    <row r="51" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="9">
-        <v>9553</v>
-      </c>
-      <c r="D51" s="9">
-        <v>4750</v>
-      </c>
-      <c r="E51" s="9">
-        <v>9500</v>
-      </c>
-      <c r="F51" s="28">
-        <v>4750</v>
-      </c>
-      <c r="G51" s="9">
-        <v>9500</v>
-      </c>
-      <c r="H51" s="9">
-        <v>4750</v>
-      </c>
-      <c r="I51" s="9">
-        <v>9500</v>
-      </c>
-      <c r="J51" s="9">
-        <v>4750</v>
-      </c>
       <c r="K51" s="9">
-        <v>9500</v>
+        <v>11981</v>
       </c>
       <c r="L51" s="9">
-        <v>4750</v>
+        <v>13122</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -10838,7 +11081,7 @@
       <c r="AW51" s="9"/>
       <c r="AX51" s="9"/>
       <c r="AY51" s="9">
-        <v>0</v>
+        <v>83.656999999999996</v>
       </c>
       <c r="AZ51" s="9"/>
       <c r="BA51" s="9"/>
@@ -10849,129 +11092,150 @@
       <c r="BF51" s="9"/>
       <c r="BG51" s="9"/>
       <c r="BI51" s="28">
+        <v>9330</v>
+      </c>
+      <c r="BJ51" s="28">
+        <v>13418</v>
+      </c>
+      <c r="BK51" s="28">
+        <v>14678</v>
+      </c>
+      <c r="BL51" s="9">
+        <v>21856</v>
+      </c>
+    </row>
+    <row r="52" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="9">
+        <v>9553</v>
+      </c>
+      <c r="D52" s="9">
+        <v>4750</v>
+      </c>
+      <c r="E52" s="9">
+        <v>9500</v>
+      </c>
+      <c r="F52" s="28">
+        <v>4750</v>
+      </c>
+      <c r="G52" s="9">
+        <v>9500</v>
+      </c>
+      <c r="H52" s="9">
+        <v>4750</v>
+      </c>
+      <c r="I52" s="9">
+        <v>9500</v>
+      </c>
+      <c r="J52" s="9">
+        <v>4750</v>
+      </c>
+      <c r="K52" s="9">
+        <v>9500</v>
+      </c>
+      <c r="L52" s="9">
+        <v>4750</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="9"/>
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="9"/>
+      <c r="AP52" s="9"/>
+      <c r="AQ52" s="9"/>
+      <c r="AR52" s="9"/>
+      <c r="AS52" s="9"/>
+      <c r="AT52" s="9"/>
+      <c r="AU52" s="9"/>
+      <c r="AV52" s="9"/>
+      <c r="AW52" s="9"/>
+      <c r="AX52" s="9"/>
+      <c r="AY52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="9"/>
+      <c r="BA52" s="9"/>
+      <c r="BB52" s="9"/>
+      <c r="BC52" s="9"/>
+      <c r="BD52" s="9"/>
+      <c r="BE52" s="9"/>
+      <c r="BF52" s="9"/>
+      <c r="BG52" s="9"/>
+      <c r="BI52" s="28">
         <v>5273</v>
       </c>
-      <c r="BJ51" s="28">
+      <c r="BJ52" s="28">
         <v>7094</v>
       </c>
-      <c r="BK51" s="28">
+      <c r="BK52" s="28">
         <v>4750</v>
       </c>
-      <c r="BL51" s="9">
+      <c r="BL52" s="9">
         <v>4750</v>
       </c>
-      <c r="BU51" s="9"/>
-      <c r="BV51" s="9"/>
-    </row>
-    <row r="52" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="C52" s="9">
-        <v>14537</v>
-      </c>
-      <c r="D52" s="9">
-        <v>17740</v>
-      </c>
-      <c r="E52" s="9">
-        <v>20708</v>
-      </c>
-      <c r="F52" s="9">
-        <v>15703</v>
-      </c>
-      <c r="G52" s="28">
-        <v>16828</v>
-      </c>
-      <c r="H52" s="28">
-        <v>20054</v>
-      </c>
-      <c r="I52" s="28">
-        <v>19838</v>
-      </c>
-      <c r="J52" s="28">
-        <v>24766</v>
-      </c>
-      <c r="K52" s="28">
-        <v>25115</v>
-      </c>
-      <c r="L52" s="28">
-        <v>25108</v>
-      </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28"/>
-      <c r="AH52" s="28"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="28"/>
-      <c r="AK52" s="28"/>
-      <c r="AL52" s="28"/>
-      <c r="AM52" s="28"/>
-      <c r="AN52" s="28"/>
-      <c r="AO52" s="28"/>
-      <c r="AP52" s="28"/>
-      <c r="AQ52" s="28"/>
-      <c r="AR52" s="28"/>
-      <c r="AS52" s="28"/>
-      <c r="AT52" s="28"/>
-      <c r="AU52" s="28"/>
-      <c r="AV52" s="28"/>
-      <c r="AW52" s="28"/>
-      <c r="AX52" s="28"/>
-      <c r="AY52" s="28">
-        <v>609.29</v>
-      </c>
-      <c r="AZ52" s="28"/>
-      <c r="BA52" s="28"/>
-      <c r="BB52" s="28"/>
-      <c r="BC52" s="28"/>
-      <c r="BD52" s="28"/>
-      <c r="BE52" s="28"/>
-      <c r="BF52" s="28"/>
-      <c r="BG52" s="28"/>
-      <c r="BH52" s="28"/>
-      <c r="BI52" s="9">
-        <v>14893</v>
-      </c>
-      <c r="BJ52" s="28">
-        <v>17441</v>
-      </c>
-      <c r="BK52" s="9">
-        <v>15703</v>
-      </c>
-      <c r="BL52" s="28">
-        <v>24766</v>
-      </c>
-      <c r="BU52" s="28"/>
-      <c r="BV52" s="28"/>
+      <c r="BU52" s="9"/>
+      <c r="BV52" s="9"/>
     </row>
     <row r="53" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
+        <v>426</v>
+      </c>
+      <c r="C53" s="9">
+        <v>14537</v>
+      </c>
+      <c r="D53" s="9">
+        <v>17740</v>
+      </c>
+      <c r="E53" s="9">
+        <v>20708</v>
+      </c>
+      <c r="F53" s="9">
+        <v>15703</v>
+      </c>
+      <c r="G53" s="28">
+        <v>16828</v>
+      </c>
+      <c r="H53" s="28">
+        <v>20054</v>
+      </c>
+      <c r="I53" s="28">
+        <v>19838</v>
+      </c>
+      <c r="J53" s="28">
+        <v>24766</v>
+      </c>
+      <c r="K53" s="28">
+        <v>25115</v>
+      </c>
+      <c r="L53" s="28">
+        <v>25108</v>
+      </c>
       <c r="M53" s="28"/>
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
@@ -11011,8 +11275,7 @@
       <c r="AW53" s="28"/>
       <c r="AX53" s="28"/>
       <c r="AY53" s="28">
-        <f>2.796+31.385</f>
-        <v>34.181000000000004</v>
+        <v>609.29</v>
       </c>
       <c r="AZ53" s="28"/>
       <c r="BA53" s="28"/>
@@ -11023,98 +11286,151 @@
       <c r="BF53" s="28"/>
       <c r="BG53" s="28"/>
       <c r="BH53" s="28"/>
-      <c r="BJ53" s="28"/>
-      <c r="BL53" s="28"/>
+      <c r="BI53" s="9">
+        <v>14893</v>
+      </c>
+      <c r="BJ53" s="28">
+        <v>17441</v>
+      </c>
+      <c r="BK53" s="9">
+        <v>15703</v>
+      </c>
+      <c r="BL53" s="28">
+        <v>24766</v>
+      </c>
       <c r="BU53" s="28"/>
       <c r="BV53" s="28"/>
     </row>
     <row r="54" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28"/>
+      <c r="AN54" s="28"/>
+      <c r="AO54" s="28"/>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28"/>
+      <c r="AR54" s="28"/>
+      <c r="AS54" s="28"/>
+      <c r="AT54" s="28"/>
+      <c r="AU54" s="28"/>
+      <c r="AV54" s="28"/>
+      <c r="AW54" s="28"/>
+      <c r="AX54" s="28"/>
+      <c r="AY54" s="28">
+        <f>2.796+31.385</f>
+        <v>34.181000000000004</v>
+      </c>
+      <c r="AZ54" s="28"/>
+      <c r="BA54" s="28"/>
+      <c r="BB54" s="28"/>
+      <c r="BC54" s="28"/>
+      <c r="BD54" s="28"/>
+      <c r="BE54" s="28"/>
+      <c r="BF54" s="28"/>
+      <c r="BG54" s="28"/>
+      <c r="BH54" s="28"/>
+      <c r="BJ54" s="28"/>
+      <c r="BL54" s="28"/>
+      <c r="BU54" s="28"/>
+      <c r="BV54" s="28"/>
+    </row>
+    <row r="55" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C55" s="9">
         <f>67020+221432</f>
         <v>288452</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <f>67000+204695</f>
         <v>271695</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <f>66980+187958</f>
         <v>254938</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <f>66973+171220</f>
         <v>238193</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <f>66978+154483</f>
         <v>221461</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H55" s="9">
         <f>66976+137746</f>
         <v>204722</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I55" s="9">
         <f>66973+121010</f>
         <v>187983</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J55" s="9">
         <f>2332+66970+104272</f>
         <v>173574</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K55" s="9">
         <f>66978+6005+87535</f>
         <v>160518</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L55" s="9">
         <f>8993+66976+70798</f>
         <v>146767</v>
       </c>
-      <c r="AY54" s="9">
+      <c r="AY55" s="9">
         <v>0</v>
       </c>
-      <c r="BH54" s="28"/>
-      <c r="BI54" s="28">
+      <c r="BH55" s="28"/>
+      <c r="BI55" s="28">
         <f>62+0</f>
         <v>62</v>
       </c>
-      <c r="BJ54" s="28">
+      <c r="BJ55" s="28">
         <f>67030+238169</f>
         <v>305199</v>
       </c>
-      <c r="BK54" s="9">
+      <c r="BK55" s="9">
         <f>66973+171220</f>
         <v>238193</v>
       </c>
-      <c r="BL54" s="9">
+      <c r="BL55" s="9">
         <f>2332+66970+104272</f>
         <v>173574</v>
       </c>
-      <c r="BM54" s="28"/>
-      <c r="BN54" s="28"/>
-      <c r="BO54" s="28"/>
-      <c r="BP54" s="28"/>
-      <c r="BQ54" s="28"/>
-      <c r="BR54" s="28"/>
-      <c r="BS54" s="28"/>
-      <c r="BT54" s="28"/>
-      <c r="BU54" s="28"/>
-      <c r="BV54" s="28"/>
-      <c r="BW54" s="28"/>
-    </row>
-    <row r="55" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="AY55" s="9">
-        <f>37.873+204.127</f>
-        <v>242</v>
-      </c>
-      <c r="BH55" s="28"/>
-      <c r="BI55" s="28"/>
-      <c r="BJ55" s="28"/>
       <c r="BM55" s="28"/>
       <c r="BN55" s="28"/>
       <c r="BO55" s="28"/>
@@ -11128,38 +11444,16 @@
       <c r="BW55" s="28"/>
     </row>
     <row r="56" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="9">
-        <v>5688</v>
-      </c>
-      <c r="D56" s="9">
-        <v>4277</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1664</v>
-      </c>
-      <c r="F56" s="28">
-        <v>696</v>
-      </c>
-      <c r="H56" s="28"/>
-      <c r="I56" s="9">
-        <v>0</v>
+      <c r="B56" s="50" t="s">
+        <v>428</v>
       </c>
       <c r="AY56" s="9">
-        <v>0</v>
+        <f>37.873+204.127</f>
+        <v>242</v>
       </c>
       <c r="BH56" s="28"/>
-      <c r="BI56" s="28">
-        <v>5100</v>
-      </c>
-      <c r="BJ56" s="28">
-        <v>6879</v>
-      </c>
-      <c r="BK56" s="28">
-        <v>696</v>
-      </c>
+      <c r="BI56" s="28"/>
+      <c r="BJ56" s="28"/>
       <c r="BM56" s="28"/>
       <c r="BN56" s="28"/>
       <c r="BO56" s="28"/>
@@ -11172,212 +11466,196 @@
       <c r="BV56" s="28"/>
       <c r="BW56" s="28"/>
     </row>
-    <row r="57" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="9">
+        <v>5688</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4277</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1664</v>
+      </c>
+      <c r="F57" s="28">
+        <v>696</v>
+      </c>
+      <c r="H57" s="28"/>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH57" s="28"/>
+      <c r="BI57" s="28">
+        <v>5100</v>
+      </c>
+      <c r="BJ57" s="28">
+        <v>6879</v>
+      </c>
+      <c r="BK57" s="28">
+        <v>696</v>
+      </c>
+      <c r="BM57" s="28"/>
+      <c r="BN57" s="28"/>
+      <c r="BO57" s="28"/>
+      <c r="BP57" s="28"/>
+      <c r="BQ57" s="28"/>
+      <c r="BR57" s="28"/>
+      <c r="BS57" s="28"/>
+      <c r="BT57" s="28"/>
+      <c r="BU57" s="28"/>
+      <c r="BV57" s="28"/>
+      <c r="BW57" s="28"/>
+    </row>
+    <row r="58" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C58" s="28">
         <f>261408+16292</f>
         <v>277700</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D58" s="28">
         <f>266304+16521</f>
         <v>282825</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E58" s="28">
         <f>271315+16753</f>
         <v>288068</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F58" s="28">
         <f>276445+16987</f>
         <v>293432</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G58" s="28">
         <f>281694+17225</f>
         <v>298919</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H58" s="28">
         <f>287067+17467</f>
         <v>304534</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I58" s="28">
         <f>292566+17711</f>
         <v>310277</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J58" s="28">
         <f>298193+17960</f>
         <v>316153</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K58" s="28">
         <f>9546+8664+303952</f>
         <v>322162</v>
       </c>
-      <c r="L57" s="28">
+      <c r="L58" s="28">
         <f>309844+8786+9680</f>
         <v>328310</v>
       </c>
-      <c r="AY57" s="28">
+      <c r="AY58" s="28">
         <v>0</v>
       </c>
-      <c r="BI57" s="28">
+      <c r="BI58" s="28">
         <f>130969+265198</f>
         <v>396167</v>
       </c>
-      <c r="BJ57" s="28">
+      <c r="BJ58" s="28">
         <f>308059+135079</f>
         <v>443138</v>
       </c>
-      <c r="BK57" s="28">
+      <c r="BK58" s="28">
         <f>276445+16987</f>
         <v>293432</v>
       </c>
-      <c r="BL57" s="28">
+      <c r="BL58" s="28">
         <f>298193+17960</f>
         <v>316153</v>
       </c>
     </row>
-    <row r="58" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="28" t="s">
+    <row r="59" spans="2:79" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D59" s="28">
         <v>0</v>
       </c>
-      <c r="AY58" s="28">
+      <c r="AY59" s="28">
         <v>69.474000000000004</v>
       </c>
-      <c r="BI58" s="28">
+      <c r="BI59" s="28">
         <v>6634</v>
       </c>
-      <c r="BJ58" s="28">
+      <c r="BJ59" s="28">
         <v>641</v>
       </c>
-    </row>
-    <row r="59" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="9">
-        <f>SUM(C49:C57)</f>
-        <v>617076</v>
-      </c>
-      <c r="D59" s="9">
-        <f>SUM(D49:D58)</f>
-        <v>598464</v>
-      </c>
-      <c r="E59" s="9">
-        <f t="shared" ref="E59:L59" si="108">SUM(E49:E57)</f>
-        <v>593548</v>
-      </c>
-      <c r="F59" s="28">
-        <f t="shared" ref="F59" si="109">SUM(F49:F58)</f>
-        <v>578225</v>
-      </c>
-      <c r="G59" s="9">
-        <f t="shared" si="108"/>
-        <v>563584</v>
-      </c>
-      <c r="H59" s="9">
-        <f t="shared" si="108"/>
-        <v>552947</v>
-      </c>
-      <c r="I59" s="9">
-        <f t="shared" si="108"/>
-        <v>552244</v>
-      </c>
-      <c r="J59" s="9">
-        <f t="shared" si="108"/>
-        <v>556038</v>
-      </c>
-      <c r="K59" s="9">
-        <f t="shared" si="108"/>
-        <v>542450</v>
-      </c>
-      <c r="L59" s="9">
-        <f t="shared" si="108"/>
-        <v>529159</v>
-      </c>
-      <c r="AY59" s="9">
-        <f>SUM(AY49:AY58)</f>
-        <v>1191.1489999999999</v>
-      </c>
-      <c r="BH59" s="28"/>
-      <c r="BI59" s="28">
-        <f>SUM(BI49:BI58)</f>
-        <v>453138</v>
-      </c>
-      <c r="BJ59" s="28">
-        <f t="shared" ref="BJ59:BK59" si="110">SUM(BJ49:BJ58)</f>
-        <v>814774</v>
-      </c>
-      <c r="BK59" s="28">
-        <f t="shared" si="110"/>
-        <v>578225</v>
-      </c>
-      <c r="BL59" s="9">
-        <f t="shared" ref="BL59" si="111">SUM(BL49:BL57)</f>
-        <v>556038</v>
-      </c>
-      <c r="BM59" s="28"/>
-      <c r="BN59" s="28"/>
-      <c r="BO59" s="28"/>
-      <c r="BP59" s="28"/>
-      <c r="BQ59" s="28"/>
-      <c r="BR59" s="28"/>
-      <c r="BS59" s="28"/>
-      <c r="BT59" s="28"/>
-      <c r="BU59" s="28"/>
-      <c r="BV59" s="28"/>
-      <c r="BW59" s="28"/>
     </row>
     <row r="60" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="28" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="C60" s="9">
-        <v>121</v>
+        <f>SUM(C50:C58)</f>
+        <v>617076</v>
       </c>
       <c r="D60" s="9">
-        <v>122</v>
+        <f>SUM(D50:D59)</f>
+        <v>598464</v>
       </c>
       <c r="E60" s="9">
-        <v>122</v>
+        <f t="shared" ref="E60:L60" si="142">SUM(E50:E58)</f>
+        <v>593548</v>
       </c>
       <c r="F60" s="28">
-        <v>123</v>
+        <f t="shared" ref="F60" si="143">SUM(F50:F59)</f>
+        <v>578225</v>
       </c>
       <c r="G60" s="9">
-        <v>124</v>
+        <f t="shared" si="142"/>
+        <v>563584</v>
       </c>
       <c r="H60" s="9">
-        <v>126</v>
+        <f t="shared" si="142"/>
+        <v>552947</v>
       </c>
       <c r="I60" s="9">
-        <v>126</v>
+        <f t="shared" si="142"/>
+        <v>552244</v>
       </c>
       <c r="J60" s="9">
-        <v>126</v>
+        <f t="shared" si="142"/>
+        <v>556038</v>
       </c>
       <c r="K60" s="9">
-        <v>128</v>
+        <f t="shared" si="142"/>
+        <v>542450</v>
       </c>
       <c r="L60" s="9">
-        <v>130</v>
+        <f t="shared" si="142"/>
+        <v>529159</v>
       </c>
       <c r="AY60" s="9">
-        <v>0.221</v>
-      </c>
+        <f>SUM(AY50:AY59)</f>
+        <v>1191.1489999999999</v>
+      </c>
+      <c r="BH60" s="28"/>
       <c r="BI60" s="28">
-        <v>97</v>
+        <f>SUM(BI50:BI59)</f>
+        <v>453138</v>
       </c>
       <c r="BJ60" s="28">
-        <v>119</v>
+        <f t="shared" ref="BJ60:BK60" si="144">SUM(BJ50:BJ59)</f>
+        <v>814774</v>
       </c>
       <c r="BK60" s="28">
-        <v>123</v>
+        <f t="shared" si="144"/>
+        <v>578225</v>
       </c>
       <c r="BL60" s="9">
-        <v>126</v>
+        <f t="shared" ref="BL60" si="145">SUM(BL50:BL58)</f>
+        <v>556038</v>
       </c>
       <c r="BM60" s="28"/>
       <c r="BN60" s="28"/>
@@ -11387,522 +11665,580 @@
       <c r="BR60" s="28"/>
       <c r="BS60" s="28"/>
       <c r="BT60" s="28"/>
+      <c r="BU60" s="28"/>
+      <c r="BV60" s="28"/>
       <c r="BW60" s="28"/>
     </row>
     <row r="61" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" s="9">
-        <v>1311181</v>
+        <v>121</v>
       </c>
       <c r="D61" s="9">
-        <v>1317169</v>
+        <v>122</v>
       </c>
       <c r="E61" s="9">
-        <v>1324611</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1332277</v>
+        <v>122</v>
+      </c>
+      <c r="F61" s="28">
+        <v>123</v>
       </c>
       <c r="G61" s="9">
-        <v>1343351</v>
+        <v>124</v>
       </c>
       <c r="H61" s="9">
-        <v>1363052</v>
+        <v>126</v>
       </c>
       <c r="I61" s="9">
-        <v>1371524</v>
+        <v>126</v>
       </c>
       <c r="J61" s="9">
-        <v>1380725</v>
+        <v>126</v>
       </c>
       <c r="K61" s="9">
-        <v>1404076</v>
+        <v>128</v>
       </c>
       <c r="L61" s="9">
-        <v>1431921</v>
+        <v>130</v>
       </c>
       <c r="AY61" s="9">
-        <v>4625.78</v>
-      </c>
-      <c r="BI61" s="9">
-        <v>961214</v>
-      </c>
-      <c r="BJ61" s="9">
-        <v>1287974</v>
-      </c>
-      <c r="BK61" s="9">
-        <v>1332277</v>
+        <v>0.221</v>
+      </c>
+      <c r="BI61" s="28">
+        <v>97</v>
+      </c>
+      <c r="BJ61" s="28">
+        <v>119</v>
+      </c>
+      <c r="BK61" s="28">
+        <v>123</v>
       </c>
       <c r="BL61" s="9">
-        <v>1380725</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BM61" s="28"/>
+      <c r="BN61" s="28"/>
+      <c r="BO61" s="28"/>
+      <c r="BP61" s="28"/>
+      <c r="BQ61" s="28"/>
+      <c r="BR61" s="28"/>
+      <c r="BS61" s="28"/>
+      <c r="BT61" s="28"/>
+      <c r="BW61" s="28"/>
     </row>
     <row r="62" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="9">
-        <v>1198</v>
+        <v>1311181</v>
       </c>
       <c r="D62" s="9">
-        <v>1795</v>
+        <v>1317169</v>
       </c>
       <c r="E62" s="9">
-        <v>1930</v>
+        <v>1324611</v>
       </c>
       <c r="F62" s="9">
-        <v>1986</v>
+        <v>1332277</v>
       </c>
       <c r="G62" s="9">
-        <v>2089</v>
+        <v>1343351</v>
       </c>
       <c r="H62" s="9">
-        <v>1951</v>
+        <v>1363052</v>
       </c>
       <c r="I62" s="9">
-        <v>1821</v>
+        <v>1371524</v>
       </c>
       <c r="J62" s="9">
-        <v>1642</v>
+        <v>1380725</v>
       </c>
       <c r="K62" s="9">
-        <v>1935</v>
+        <v>1404076</v>
       </c>
       <c r="L62" s="9">
-        <v>1720</v>
+        <v>1431921</v>
       </c>
       <c r="AY62" s="9">
-        <v>-23.047000000000001</v>
+        <v>4625.78</v>
       </c>
       <c r="BI62" s="9">
-        <v>-2747</v>
+        <v>961214</v>
       </c>
       <c r="BJ62" s="9">
-        <v>707</v>
+        <v>1287974</v>
       </c>
       <c r="BK62" s="9">
-        <v>1986</v>
+        <v>1332277</v>
       </c>
       <c r="BL62" s="9">
-        <v>1642</v>
-      </c>
-      <c r="BU62" s="9">
-        <f>BT63+BU26</f>
-        <v>-1888335.7781520002</v>
-      </c>
-      <c r="BV62" s="9">
-        <f>BU62+BV26</f>
-        <v>-1888335.7781520002</v>
-      </c>
-      <c r="BY62" s="28"/>
+        <v>1380725</v>
+      </c>
     </row>
     <row r="63" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="9">
-        <v>-1426913</v>
+        <v>1198</v>
       </c>
       <c r="D63" s="9">
-        <v>-1423869</v>
+        <v>1795</v>
       </c>
       <c r="E63" s="9">
-        <v>-1455571</v>
+        <v>1930</v>
       </c>
       <c r="F63" s="9">
-        <v>-1423030</v>
+        <v>1986</v>
       </c>
       <c r="G63" s="9">
-        <v>-1449542</v>
+        <v>2089</v>
       </c>
       <c r="H63" s="9">
-        <v>-1501413</v>
+        <v>1951</v>
       </c>
       <c r="I63" s="9">
-        <v>-1554491</v>
+        <v>1821</v>
       </c>
       <c r="J63" s="9">
-        <v>-1609570</v>
+        <v>1642</v>
       </c>
       <c r="K63" s="9">
-        <v>-1654996</v>
+        <v>1935</v>
       </c>
       <c r="L63" s="9">
-        <v>-1650959</v>
+        <v>1720</v>
       </c>
       <c r="AY63" s="9">
-        <v>-739.88199999999995</v>
+        <v>-23.047000000000001</v>
       </c>
       <c r="BI63" s="9">
-        <v>-1179314</v>
+        <v>-2747</v>
       </c>
       <c r="BJ63" s="9">
-        <v>-1391184</v>
+        <v>707</v>
       </c>
       <c r="BK63" s="9">
-        <v>-1423030</v>
+        <v>1986</v>
       </c>
       <c r="BL63" s="9">
-        <v>-1609570</v>
-      </c>
-      <c r="BM63" s="9">
-        <f t="shared" ref="BM63:BT63" si="112">BL63+BM26</f>
-        <v>-1606982.2620000001</v>
-      </c>
-      <c r="BN63" s="9">
-        <f t="shared" si="112"/>
-        <v>-1784553.3096</v>
-      </c>
-      <c r="BO63" s="9">
-        <f t="shared" si="112"/>
+        <v>1642</v>
+      </c>
+      <c r="BU63" s="9">
+        <f>BT64+BU27</f>
         <v>-1888335.7781520002</v>
       </c>
-      <c r="BP63" s="9">
-        <f t="shared" si="112"/>
+      <c r="BV63" s="9">
+        <f>BU63+BV27</f>
         <v>-1888335.7781520002</v>
       </c>
-      <c r="BQ63" s="9">
-        <f t="shared" si="112"/>
-        <v>-1888335.7781520002</v>
-      </c>
-      <c r="BR63" s="9">
-        <f t="shared" si="112"/>
-        <v>-1888335.7781520002</v>
-      </c>
-      <c r="BS63" s="9">
-        <f t="shared" si="112"/>
-        <v>-1888335.7781520002</v>
-      </c>
-      <c r="BT63" s="9">
-        <f t="shared" si="112"/>
-        <v>-1888335.7781520002</v>
-      </c>
-      <c r="BW63" s="9">
-        <f>BV62+BW26</f>
-        <v>-1887566.3557520001</v>
-      </c>
-      <c r="BX63" s="9">
-        <f>BW63+BX26</f>
-        <v>-1885530.3853296002</v>
-      </c>
-      <c r="BY63" s="9">
-        <f>BX63+BY26</f>
-        <v>-1883099.9018632241</v>
-      </c>
-      <c r="BZ63" s="9">
-        <f>BY63+BZ26</f>
-        <v>-1880293.727566988</v>
-      </c>
-      <c r="CA63" s="9">
-        <f>BZ63+CA26</f>
-        <v>-1877106.8957144374</v>
-      </c>
+      <c r="BY63" s="28"/>
     </row>
     <row r="64" spans="2:79" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="9">
+        <v>-1426913</v>
+      </c>
+      <c r="D64" s="9">
+        <v>-1423869</v>
+      </c>
+      <c r="E64" s="9">
+        <v>-1455571</v>
+      </c>
+      <c r="F64" s="9">
+        <v>-1423030</v>
+      </c>
+      <c r="G64" s="9">
+        <v>-1449542</v>
+      </c>
+      <c r="H64" s="9">
+        <v>-1501413</v>
+      </c>
+      <c r="I64" s="9">
+        <v>-1554491</v>
+      </c>
+      <c r="J64" s="9">
+        <v>-1609570</v>
+      </c>
+      <c r="K64" s="9">
+        <v>-1654996</v>
+      </c>
+      <c r="L64" s="9">
+        <v>-1650959</v>
+      </c>
+      <c r="AY64" s="9">
+        <v>-739.88199999999995</v>
+      </c>
+      <c r="BI64" s="9">
+        <v>-1179314</v>
+      </c>
+      <c r="BJ64" s="9">
+        <v>-1391184</v>
+      </c>
+      <c r="BK64" s="9">
+        <v>-1423030</v>
+      </c>
+      <c r="BL64" s="9">
+        <v>-1609570</v>
+      </c>
+      <c r="BM64" s="9">
+        <f t="shared" ref="BM64:BT64" si="146">BL64+BM27</f>
+        <v>-1606982.2620000001</v>
+      </c>
+      <c r="BN64" s="9">
+        <f t="shared" si="146"/>
+        <v>-1784553.3096</v>
+      </c>
+      <c r="BO64" s="9">
+        <f t="shared" si="146"/>
+        <v>-1888335.7781520002</v>
+      </c>
+      <c r="BP64" s="9">
+        <f t="shared" si="146"/>
+        <v>-1888335.7781520002</v>
+      </c>
+      <c r="BQ64" s="9">
+        <f t="shared" si="146"/>
+        <v>-1888335.7781520002</v>
+      </c>
+      <c r="BR64" s="9">
+        <f t="shared" si="146"/>
+        <v>-1888335.7781520002</v>
+      </c>
+      <c r="BS64" s="9">
+        <f t="shared" si="146"/>
+        <v>-1888335.7781520002</v>
+      </c>
+      <c r="BT64" s="9">
+        <f t="shared" si="146"/>
+        <v>-1888335.7781520002</v>
+      </c>
+      <c r="BW64" s="9">
+        <f>BV63+BW27</f>
+        <v>-1887836.0553520001</v>
+      </c>
+      <c r="BX64" s="9">
+        <f>BW64+BX27</f>
+        <v>-1885691.262328</v>
+      </c>
+      <c r="BY64" s="9">
+        <f>BX64+BY27</f>
+        <v>-1883152.0389110399</v>
+      </c>
+      <c r="BZ64" s="9">
+        <f>BY64+BZ27</f>
+        <v>-1880234.8555312494</v>
+      </c>
+      <c r="CA64" s="9">
+        <f>BZ64+CA27</f>
+        <v>-1876934.7091449229</v>
+      </c>
+    </row>
+    <row r="65" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="9">
-        <f>SUM(C60:C63)</f>
+      <c r="C65" s="9">
+        <f>SUM(C61:C64)</f>
         <v>-114413</v>
       </c>
-      <c r="D64" s="9">
-        <f t="shared" ref="D64:I64" si="113">SUM(D60:D63)</f>
+      <c r="D65" s="9">
+        <f t="shared" ref="D65:I65" si="147">SUM(D61:D64)</f>
         <v>-104783</v>
       </c>
-      <c r="E64" s="9">
-        <f t="shared" si="113"/>
+      <c r="E65" s="9">
+        <f t="shared" si="147"/>
         <v>-128908</v>
       </c>
-      <c r="F64" s="9">
-        <f t="shared" ref="F64" si="114">SUM(F60:F63)</f>
+      <c r="F65" s="9">
+        <f t="shared" ref="F65" si="148">SUM(F61:F64)</f>
         <v>-88644</v>
       </c>
-      <c r="G64" s="9">
-        <f t="shared" si="113"/>
+      <c r="G65" s="9">
+        <f t="shared" si="147"/>
         <v>-103978</v>
       </c>
-      <c r="H64" s="9">
-        <f t="shared" si="113"/>
+      <c r="H65" s="9">
+        <f t="shared" si="147"/>
         <v>-136284</v>
       </c>
-      <c r="I64" s="9">
-        <f t="shared" si="113"/>
+      <c r="I65" s="9">
+        <f t="shared" si="147"/>
         <v>-181020</v>
       </c>
-      <c r="J64" s="9">
-        <f t="shared" ref="J64:L64" si="115">SUM(J60:J63)</f>
+      <c r="J65" s="9">
+        <f t="shared" ref="J65:L65" si="149">SUM(J61:J64)</f>
         <v>-227077</v>
       </c>
-      <c r="K64" s="9">
-        <f t="shared" si="115"/>
+      <c r="K65" s="9">
+        <f t="shared" si="149"/>
         <v>-248857</v>
       </c>
-      <c r="L64" s="9">
-        <f t="shared" si="115"/>
+      <c r="L65" s="9">
+        <f t="shared" si="149"/>
         <v>-217188</v>
       </c>
-      <c r="AY64" s="9">
-        <f>SUM(AY60:AY63)</f>
+      <c r="AY65" s="9">
+        <f>SUM(AY61:AY64)</f>
         <v>3863.0719999999997</v>
       </c>
-      <c r="BI64" s="9">
-        <f>SUM(BI60:BI63)</f>
+      <c r="BI65" s="9">
+        <f>SUM(BI61:BI64)</f>
         <v>-220750</v>
       </c>
-      <c r="BJ64" s="9">
-        <f t="shared" ref="BJ64:BL64" si="116">SUM(BJ60:BJ63)</f>
+      <c r="BJ65" s="9">
+        <f t="shared" ref="BJ65:BL65" si="150">SUM(BJ61:BJ64)</f>
         <v>-102384</v>
       </c>
-      <c r="BK64" s="9">
-        <f t="shared" si="116"/>
+      <c r="BK65" s="9">
+        <f t="shared" si="150"/>
         <v>-88644</v>
       </c>
-      <c r="BL64" s="9">
-        <f t="shared" si="116"/>
+      <c r="BL65" s="9">
+        <f t="shared" si="150"/>
         <v>-227077</v>
       </c>
-      <c r="BY64" s="28"/>
-    </row>
-    <row r="65" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="50" t="s">
+      <c r="BY65" s="28"/>
+    </row>
+    <row r="66" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="50" t="s">
         <v>429</v>
       </c>
-      <c r="C65" s="9">
-        <f>C64+C59</f>
+      <c r="C66" s="9">
+        <f>C65+C60</f>
         <v>502663</v>
       </c>
-      <c r="D65" s="9">
-        <f t="shared" ref="D65:I65" si="117">D64+D59</f>
+      <c r="D66" s="9">
+        <f t="shared" ref="D66:I66" si="151">D65+D60</f>
         <v>493681</v>
       </c>
-      <c r="E65" s="9">
-        <f t="shared" si="117"/>
+      <c r="E66" s="9">
+        <f t="shared" si="151"/>
         <v>464640</v>
       </c>
-      <c r="F65" s="9">
-        <f t="shared" si="117"/>
+      <c r="F66" s="9">
+        <f t="shared" si="151"/>
         <v>489581</v>
       </c>
-      <c r="G65" s="9">
-        <f t="shared" si="117"/>
+      <c r="G66" s="9">
+        <f t="shared" si="151"/>
         <v>459606</v>
       </c>
-      <c r="H65" s="9">
-        <f t="shared" si="117"/>
+      <c r="H66" s="9">
+        <f t="shared" si="151"/>
         <v>416663</v>
       </c>
-      <c r="I65" s="9">
-        <f t="shared" si="117"/>
+      <c r="I66" s="9">
+        <f t="shared" si="151"/>
         <v>371224</v>
       </c>
-      <c r="J65" s="9">
-        <f t="shared" ref="J65:L65" si="118">J64+J59</f>
+      <c r="J66" s="9">
+        <f t="shared" ref="J66:L66" si="152">J65+J60</f>
         <v>328961</v>
       </c>
-      <c r="K65" s="9">
-        <f t="shared" si="118"/>
+      <c r="K66" s="9">
+        <f t="shared" si="152"/>
         <v>293593</v>
       </c>
-      <c r="L65" s="9">
-        <f t="shared" si="118"/>
+      <c r="L66" s="9">
+        <f t="shared" si="152"/>
         <v>311971</v>
       </c>
-      <c r="AY65" s="9">
-        <f>AY64+AY59</f>
+      <c r="AY66" s="9">
+        <f>AY65+AY60</f>
         <v>5054.2209999999995</v>
       </c>
-      <c r="BI65" s="9">
-        <f>BI64+BI59</f>
+      <c r="BI66" s="9">
+        <f>BI65+BI60</f>
         <v>232388</v>
       </c>
-      <c r="BJ65" s="9">
-        <f t="shared" ref="BJ65:BL65" si="119">BJ64+BJ59</f>
+      <c r="BJ66" s="9">
+        <f t="shared" ref="BJ66:BL66" si="153">BJ65+BJ60</f>
         <v>712390</v>
       </c>
-      <c r="BK65" s="9">
-        <f t="shared" si="119"/>
+      <c r="BK66" s="9">
+        <f t="shared" si="153"/>
         <v>489581</v>
       </c>
-      <c r="BL65" s="9">
-        <f t="shared" si="119"/>
+      <c r="BL66" s="9">
+        <f t="shared" si="153"/>
         <v>328961</v>
       </c>
-      <c r="BY65" s="28"/>
-    </row>
-    <row r="66" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="AY67" s="9">
-        <f>AY26</f>
-        <v>144.9259999999999</v>
-      </c>
-    </row>
+      <c r="BY66" s="28"/>
+    </row>
+    <row r="67" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="68" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="50" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AY68" s="9">
-        <v>37.991999999999997</v>
+        <f>AY27</f>
+        <v>144.9259999999999</v>
       </c>
     </row>
     <row r="69" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="50" t="s">
-        <v>220</v>
+        <v>436</v>
       </c>
       <c r="AY69" s="9">
-        <v>16.437999999999999</v>
+        <v>37.991999999999997</v>
       </c>
     </row>
     <row r="70" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="50" t="s">
-        <v>432</v>
+        <v>220</v>
       </c>
       <c r="AY70" s="9">
-        <v>43.841000000000001</v>
+        <v>16.437999999999999</v>
       </c>
     </row>
     <row r="71" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AY71" s="9">
-        <v>2.1059999999999999</v>
+        <v>43.841000000000001</v>
       </c>
     </row>
     <row r="72" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="50" t="s">
-        <v>163</v>
+        <v>433</v>
       </c>
       <c r="AY72" s="9">
-        <v>2.0910000000000002</v>
+        <v>2.1059999999999999</v>
       </c>
     </row>
     <row r="73" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="50" t="s">
-        <v>434</v>
+        <v>163</v>
       </c>
       <c r="AY73" s="9">
-        <v>46.585000000000001</v>
+        <v>2.0910000000000002</v>
       </c>
     </row>
     <row r="74" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="50" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AY74" s="9">
-        <v>6.3819999999999997</v>
+        <v>46.585000000000001</v>
       </c>
     </row>
     <row r="75" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="AY75" s="9">
+        <v>6.3819999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="AY75" s="9">
+      <c r="AY76" s="9">
         <f>53.956-13.971-13.903-19.563+53.787</f>
         <v>60.305999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="50" t="s">
+    <row r="77" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="50" t="s">
         <v>431</v>
       </c>
-      <c r="AY76" s="9">
-        <f>SUM(AY68:AY75)</f>
+      <c r="AY77" s="9">
+        <f>SUM(AY69:AY76)</f>
         <v>215.74099999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="AY78" s="9">
-        <v>-17.006</v>
-      </c>
-    </row>
+    <row r="78" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="50" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AY79" s="9">
-        <v>0.25800000000000001</v>
+        <v>-17.006</v>
       </c>
     </row>
     <row r="80" spans="2:77" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="AY80" s="9">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AY80" s="9">
-        <f>+AY78+AY79</f>
+      <c r="AY81" s="9">
+        <f>+AY79+AY80</f>
         <v>-16.748000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="AY82" s="9">
-        <v>16.398</v>
-      </c>
-    </row>
+    <row r="82" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="50" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AY83" s="9">
-        <v>-2.161</v>
+        <v>16.398</v>
       </c>
     </row>
     <row r="84" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="50" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="AY84" s="9">
-        <v>-0.66800000000000004</v>
+        <v>-2.161</v>
       </c>
     </row>
     <row r="85" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="50" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="AY85" s="9">
-        <v>-13.473000000000001</v>
+        <v>-0.66800000000000004</v>
       </c>
     </row>
     <row r="86" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="50" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="AY86" s="9">
-        <f>SUM(AY82:AY85)</f>
-        <v>9.6000000000000085E-2</v>
+        <v>-13.473000000000001</v>
       </c>
     </row>
     <row r="87" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="50" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AY87" s="9">
-        <v>0.21</v>
+        <f>SUM(AY83:AY86)</f>
+        <v>9.6000000000000085E-2</v>
       </c>
     </row>
     <row r="88" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY88" s="9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="89" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AY88" s="9">
-        <f>+AY87+AY86+AY80+AY76</f>
+      <c r="AY89" s="9">
+        <f>+AY88+AY87+AY81+AY77</f>
         <v>199.29899999999998</v>
       </c>
-    </row>
-    <row r="89" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="28"/>
     </row>
     <row r="90" spans="2:51" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="28"/>
@@ -11926,69 +12262,69 @@
       <c r="B96" s="28"/>
     </row>
     <row r="97" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-      <c r="R97" s="10"/>
-      <c r="S97" s="10"/>
-      <c r="T97" s="10"/>
-      <c r="U97" s="10"/>
-      <c r="V97" s="10"/>
-      <c r="W97" s="10"/>
-      <c r="X97" s="10"/>
-      <c r="Y97" s="10"/>
-      <c r="Z97" s="10"/>
-      <c r="AA97" s="10"/>
-      <c r="AB97" s="10"/>
-      <c r="AC97" s="10"/>
-      <c r="AD97" s="10"/>
-      <c r="AE97" s="10"/>
-      <c r="AF97" s="10"/>
-      <c r="AG97" s="10"/>
-      <c r="AH97" s="10"/>
-      <c r="AI97" s="10"/>
-      <c r="AJ97" s="10"/>
-      <c r="AK97" s="10"/>
-      <c r="AL97" s="10"/>
-      <c r="AM97" s="10"/>
-      <c r="AN97" s="10"/>
-      <c r="AO97" s="10"/>
-      <c r="AP97" s="10"/>
-      <c r="AQ97" s="10"/>
-      <c r="AR97" s="10"/>
-      <c r="AS97" s="10"/>
-      <c r="AT97" s="10"/>
-      <c r="AU97" s="10"/>
-      <c r="AV97" s="10"/>
-      <c r="AW97" s="10"/>
-      <c r="AX97" s="10"/>
-      <c r="AY97" s="10"/>
-      <c r="AZ97" s="10"/>
-      <c r="BA97" s="10"/>
-      <c r="BB97" s="10"/>
-      <c r="BC97" s="10"/>
-      <c r="BD97" s="10"/>
-      <c r="BE97" s="10"/>
-      <c r="BF97" s="10"/>
-      <c r="BG97" s="10"/>
-      <c r="BJ97" s="10"/>
-      <c r="BK97" s="10"/>
+      <c r="B97" s="28"/>
     </row>
     <row r="98" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="28"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="10"/>
+      <c r="AH98" s="10"/>
+      <c r="AI98" s="10"/>
+      <c r="AJ98" s="10"/>
+      <c r="AK98" s="10"/>
+      <c r="AL98" s="10"/>
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
+      <c r="AO98" s="10"/>
+      <c r="AP98" s="10"/>
+      <c r="AQ98" s="10"/>
+      <c r="AR98" s="10"/>
+      <c r="AS98" s="10"/>
+      <c r="AT98" s="10"/>
+      <c r="AU98" s="10"/>
+      <c r="AV98" s="10"/>
+      <c r="AW98" s="10"/>
+      <c r="AX98" s="10"/>
+      <c r="AY98" s="10"/>
+      <c r="AZ98" s="10"/>
+      <c r="BA98" s="10"/>
+      <c r="BB98" s="10"/>
+      <c r="BC98" s="10"/>
+      <c r="BD98" s="10"/>
+      <c r="BE98" s="10"/>
+      <c r="BF98" s="10"/>
+      <c r="BG98" s="10"/>
+      <c r="BJ98" s="10"/>
+      <c r="BK98" s="10"/>
     </row>
     <row r="99" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="28"/>
@@ -11997,69 +12333,69 @@
       <c r="B100" s="28"/>
     </row>
     <row r="101" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
-      <c r="Z101" s="10"/>
-      <c r="AA101" s="10"/>
-      <c r="AB101" s="10"/>
-      <c r="AC101" s="10"/>
-      <c r="AD101" s="10"/>
-      <c r="AE101" s="10"/>
-      <c r="AF101" s="10"/>
-      <c r="AG101" s="10"/>
-      <c r="AH101" s="10"/>
-      <c r="AI101" s="10"/>
-      <c r="AJ101" s="10"/>
-      <c r="AK101" s="10"/>
-      <c r="AL101" s="10"/>
-      <c r="AM101" s="10"/>
-      <c r="AN101" s="10"/>
-      <c r="AO101" s="10"/>
-      <c r="AP101" s="10"/>
-      <c r="AQ101" s="10"/>
-      <c r="AR101" s="10"/>
-      <c r="AS101" s="10"/>
-      <c r="AT101" s="10"/>
-      <c r="AU101" s="10"/>
-      <c r="AV101" s="10"/>
-      <c r="AW101" s="10"/>
-      <c r="AX101" s="10"/>
-      <c r="AY101" s="10"/>
-      <c r="AZ101" s="10"/>
-      <c r="BA101" s="10"/>
-      <c r="BB101" s="10"/>
-      <c r="BC101" s="10"/>
-      <c r="BD101" s="10"/>
-      <c r="BE101" s="10"/>
-      <c r="BF101" s="10"/>
-      <c r="BG101" s="10"/>
-      <c r="BJ101" s="10"/>
-      <c r="BK101" s="10"/>
+      <c r="B101" s="28"/>
     </row>
     <row r="102" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="28"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+      <c r="Z102" s="10"/>
+      <c r="AA102" s="10"/>
+      <c r="AB102" s="10"/>
+      <c r="AC102" s="10"/>
+      <c r="AD102" s="10"/>
+      <c r="AE102" s="10"/>
+      <c r="AF102" s="10"/>
+      <c r="AG102" s="10"/>
+      <c r="AH102" s="10"/>
+      <c r="AI102" s="10"/>
+      <c r="AJ102" s="10"/>
+      <c r="AK102" s="10"/>
+      <c r="AL102" s="10"/>
+      <c r="AM102" s="10"/>
+      <c r="AN102" s="10"/>
+      <c r="AO102" s="10"/>
+      <c r="AP102" s="10"/>
+      <c r="AQ102" s="10"/>
+      <c r="AR102" s="10"/>
+      <c r="AS102" s="10"/>
+      <c r="AT102" s="10"/>
+      <c r="AU102" s="10"/>
+      <c r="AV102" s="10"/>
+      <c r="AW102" s="10"/>
+      <c r="AX102" s="10"/>
+      <c r="AY102" s="10"/>
+      <c r="AZ102" s="10"/>
+      <c r="BA102" s="10"/>
+      <c r="BB102" s="10"/>
+      <c r="BC102" s="10"/>
+      <c r="BD102" s="10"/>
+      <c r="BE102" s="10"/>
+      <c r="BF102" s="10"/>
+      <c r="BG102" s="10"/>
+      <c r="BJ102" s="10"/>
+      <c r="BK102" s="10"/>
     </row>
     <row r="103" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="28"/>
@@ -12071,133 +12407,74 @@
       <c r="B105" s="28"/>
     </row>
     <row r="106" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
-      <c r="X106" s="10"/>
-      <c r="Y106" s="10"/>
-      <c r="Z106" s="10"/>
-      <c r="AA106" s="10"/>
-      <c r="AB106" s="10"/>
-      <c r="AC106" s="10"/>
-      <c r="AD106" s="10"/>
-      <c r="AE106" s="10"/>
-      <c r="AF106" s="10"/>
-      <c r="AG106" s="10"/>
-      <c r="AH106" s="10"/>
-      <c r="AI106" s="10"/>
-      <c r="AJ106" s="10"/>
-      <c r="AK106" s="10"/>
-      <c r="AL106" s="10"/>
-      <c r="AM106" s="10"/>
-      <c r="AN106" s="10"/>
-      <c r="AO106" s="10"/>
-      <c r="AP106" s="10"/>
-      <c r="AQ106" s="10"/>
-      <c r="AR106" s="10"/>
-      <c r="AS106" s="10"/>
-      <c r="AT106" s="10"/>
-      <c r="AU106" s="10"/>
-      <c r="AV106" s="10"/>
-      <c r="AW106" s="10"/>
-      <c r="AX106" s="10"/>
-      <c r="AY106" s="10"/>
-      <c r="AZ106" s="10"/>
-      <c r="BA106" s="10"/>
-      <c r="BB106" s="10"/>
-      <c r="BC106" s="10"/>
-      <c r="BD106" s="10"/>
-      <c r="BE106" s="10"/>
-      <c r="BF106" s="10"/>
-      <c r="BG106" s="10"/>
-      <c r="BJ106" s="10"/>
-      <c r="BK106" s="10"/>
+      <c r="B106" s="28"/>
     </row>
     <row r="107" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="28"/>
-      <c r="BU107"/>
-      <c r="BV107"/>
-    </row>
-    <row r="108" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B108" s="31"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="33"/>
-      <c r="N108" s="33"/>
-      <c r="O108" s="33"/>
-      <c r="P108" s="33"/>
-      <c r="Q108" s="33"/>
-      <c r="R108" s="33"/>
-      <c r="S108" s="33"/>
-      <c r="T108" s="33"/>
-      <c r="U108" s="33"/>
-      <c r="V108" s="33"/>
-      <c r="W108" s="33"/>
-      <c r="X108" s="33"/>
-      <c r="Y108" s="33"/>
-      <c r="Z108" s="33"/>
-      <c r="AA108" s="33"/>
-      <c r="AB108" s="33"/>
-      <c r="AC108" s="33"/>
-      <c r="AD108" s="33"/>
-      <c r="AE108" s="33"/>
-      <c r="AF108" s="33"/>
-      <c r="AG108" s="33"/>
-      <c r="AH108" s="33"/>
-      <c r="AI108" s="33"/>
-      <c r="AJ108" s="33"/>
-      <c r="AK108" s="33"/>
-      <c r="AL108" s="33"/>
-      <c r="AM108" s="33"/>
-      <c r="AN108" s="33"/>
-      <c r="AO108" s="33"/>
-      <c r="AP108" s="33"/>
-      <c r="AQ108" s="33"/>
-      <c r="AR108" s="33"/>
-      <c r="AS108" s="33"/>
-      <c r="AT108" s="33"/>
-      <c r="AU108" s="33"/>
-      <c r="AV108" s="33"/>
-      <c r="AW108" s="33"/>
-      <c r="AX108" s="33"/>
-      <c r="AY108" s="33"/>
-      <c r="AZ108" s="33"/>
-      <c r="BA108" s="33"/>
-      <c r="BB108" s="33"/>
-      <c r="BC108" s="33"/>
-      <c r="BD108" s="33"/>
-      <c r="BE108" s="33"/>
-      <c r="BF108" s="33"/>
-      <c r="BG108" s="33"/>
-      <c r="BJ108" s="33"/>
-      <c r="BK108" s="33"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="10"/>
+      <c r="Z107" s="10"/>
+      <c r="AA107" s="10"/>
+      <c r="AB107" s="10"/>
+      <c r="AC107" s="10"/>
+      <c r="AD107" s="10"/>
+      <c r="AE107" s="10"/>
+      <c r="AF107" s="10"/>
+      <c r="AG107" s="10"/>
+      <c r="AH107" s="10"/>
+      <c r="AI107" s="10"/>
+      <c r="AJ107" s="10"/>
+      <c r="AK107" s="10"/>
+      <c r="AL107" s="10"/>
+      <c r="AM107" s="10"/>
+      <c r="AN107" s="10"/>
+      <c r="AO107" s="10"/>
+      <c r="AP107" s="10"/>
+      <c r="AQ107" s="10"/>
+      <c r="AR107" s="10"/>
+      <c r="AS107" s="10"/>
+      <c r="AT107" s="10"/>
+      <c r="AU107" s="10"/>
+      <c r="AV107" s="10"/>
+      <c r="AW107" s="10"/>
+      <c r="AX107" s="10"/>
+      <c r="AY107" s="10"/>
+      <c r="AZ107" s="10"/>
+      <c r="BA107" s="10"/>
+      <c r="BB107" s="10"/>
+      <c r="BC107" s="10"/>
+      <c r="BD107" s="10"/>
+      <c r="BE107" s="10"/>
+      <c r="BF107" s="10"/>
+      <c r="BG107" s="10"/>
+      <c r="BJ107" s="10"/>
+      <c r="BK107" s="10"/>
+    </row>
+    <row r="108" spans="2:74" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="28"/>
+      <c r="BU108"/>
+      <c r="BV108"/>
     </row>
     <row r="109" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B109" s="31"/>
@@ -12261,6 +12538,68 @@
       <c r="BJ109" s="33"/>
       <c r="BK109" s="33"/>
     </row>
+    <row r="110" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B110" s="31"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="33"/>
+      <c r="L110" s="33"/>
+      <c r="M110" s="33"/>
+      <c r="N110" s="33"/>
+      <c r="O110" s="33"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="33"/>
+      <c r="S110" s="33"/>
+      <c r="T110" s="33"/>
+      <c r="U110" s="33"/>
+      <c r="V110" s="33"/>
+      <c r="W110" s="33"/>
+      <c r="X110" s="33"/>
+      <c r="Y110" s="33"/>
+      <c r="Z110" s="33"/>
+      <c r="AA110" s="33"/>
+      <c r="AB110" s="33"/>
+      <c r="AC110" s="33"/>
+      <c r="AD110" s="33"/>
+      <c r="AE110" s="33"/>
+      <c r="AF110" s="33"/>
+      <c r="AG110" s="33"/>
+      <c r="AH110" s="33"/>
+      <c r="AI110" s="33"/>
+      <c r="AJ110" s="33"/>
+      <c r="AK110" s="33"/>
+      <c r="AL110" s="33"/>
+      <c r="AM110" s="33"/>
+      <c r="AN110" s="33"/>
+      <c r="AO110" s="33"/>
+      <c r="AP110" s="33"/>
+      <c r="AQ110" s="33"/>
+      <c r="AR110" s="33"/>
+      <c r="AS110" s="33"/>
+      <c r="AT110" s="33"/>
+      <c r="AU110" s="33"/>
+      <c r="AV110" s="33"/>
+      <c r="AW110" s="33"/>
+      <c r="AX110" s="33"/>
+      <c r="AY110" s="33"/>
+      <c r="AZ110" s="33"/>
+      <c r="BA110" s="33"/>
+      <c r="BB110" s="33"/>
+      <c r="BC110" s="33"/>
+      <c r="BD110" s="33"/>
+      <c r="BE110" s="33"/>
+      <c r="BF110" s="33"/>
+      <c r="BG110" s="33"/>
+      <c r="BJ110" s="33"/>
+      <c r="BK110" s="33"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -18848,12 +19187,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18971,15 +19307,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25317B7F-B4C1-44E7-BEEE-569C53B5B056}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F600B-2292-4B54-9B9B-0627F8C06A82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19001,10 +19341,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F600B-2292-4B54-9B9B-0627F8C06A82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25317B7F-B4C1-44E7-BEEE-569C53B5B056}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/INCY.xlsx
+++ b/INCY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA3303F-43E7-4F8B-93E7-21022A37BFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2E5E9D-4A4D-44E4-ADD1-F97EF3120823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51645" yWindow="0" windowWidth="25365" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44550" yWindow="1440" windowWidth="41535" windowHeight="17685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2283,7 +2283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2683,7 +2683,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{DC6899F4-49FA-47C0-A243-CA7720C1A51B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3437,7 +3439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -5244,11 +5246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DY110"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AW14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD27" sqref="BD27:BF27"/>
+      <selection pane="bottomRight" activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7062,7 +7064,7 @@
         <v>679.50900000000001</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" ref="AU16:BB16" si="37">SUM(AU9:AU15)</f>
+        <f t="shared" ref="AU16:BA16" si="37">SUM(AU9:AU15)</f>
         <v>604.71800000000007</v>
       </c>
       <c r="AV16" s="10">
@@ -7752,7 +7754,7 @@
         <v>294.017</v>
       </c>
       <c r="BE20" s="28">
-        <f t="shared" ref="BE20:BG20" si="60">+BD20</f>
+        <f t="shared" ref="BE20:BF20" si="60">+BD20</f>
         <v>294.017</v>
       </c>
       <c r="BF20" s="28">
@@ -8192,7 +8194,7 @@
         <v>120.89800000000002</v>
       </c>
       <c r="AU23" s="28">
-        <f t="shared" ref="AU23:BC23" si="77">+AU18-AU22</f>
+        <f t="shared" ref="AU23:BB23" si="77">+AU18-AU22</f>
         <v>180.78700000000009</v>
       </c>
       <c r="AV23" s="28">
@@ -19187,9 +19189,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19307,19 +19312,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F600B-2292-4B54-9B9B-0627F8C06A82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25317B7F-B4C1-44E7-BEEE-569C53B5B056}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19341,9 +19342,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25317B7F-B4C1-44E7-BEEE-569C53B5B056}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E96F600B-2292-4B54-9B9B-0627F8C06A82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>